--- a/agate3.xlsx
+++ b/agate3.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="47">
   <si>
     <t>New User</t>
   </si>
@@ -146,12 +146,28 @@
   <si>
     <t>Month #</t>
   </si>
+  <si>
+    <t>PU/NU</t>
+  </si>
+  <si>
+    <t>PU/DAU</t>
+  </si>
+  <si>
+    <t>PU/PaidUser</t>
+  </si>
+  <si>
+    <t>"Due to apps</t>
+  </si>
+  <si>
+    <t>"Not directly responding to ads</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
@@ -191,7 +207,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -246,6 +262,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -265,7 +287,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="33">
+  <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -299,8 +321,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -313,6 +349,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -335,8 +372,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="33">
+  <cellStyles count="47">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -353,6 +394,13 @@
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -369,6 +417,13 @@
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1040,6 +1095,1731 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400"/>
+              <a:t>Retention</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.442309155413009"/>
+          <c:y val="0.00332687497914844"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.132345329201262"/>
+          <c:y val="0.0751149172203502"/>
+          <c:w val="0.772552196140933"/>
+          <c:h val="0.694659474561207"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>D1R17</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$14:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>35.92</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34.82</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34.87</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34.84</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34.72</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34.84</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.74</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32.07</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30.53</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30.89</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31.38</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>29.15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>D1R18</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$14:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$14:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>31.99</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31.17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31.27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31.62</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31.79</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31.19</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31.74</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31.26</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30.59</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>32.49</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32.98</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2124746840"/>
+        <c:axId val="-2128943672"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>ConvRate17</c:v>
+          </c:tx>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$14:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$2:$N$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.58</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.56</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.59</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>ConvRate18</c:v>
+          </c:tx>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$14:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$14:$N$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.29</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.29</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.28</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>D7R17</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$14:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>7.95</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.71</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.48</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.87</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.73</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.66</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.68</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.81</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.81</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>D7R18</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$14:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$14:$F$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>5.79</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.08</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.82</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.43</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.41</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.43</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.35</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.71</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.04</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>D30R17</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$14:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2.24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.36</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.61</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.34</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.51</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.49</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>D30R18</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$14:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$14:$G$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.31</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.52</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.27</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.36</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.19</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.19</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2124679848"/>
+        <c:axId val="-2124803224"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2124746840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Month</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2128943672"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2128943672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Retention</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (%)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2124746840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2124803224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Conversion</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Rate</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2124679848"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="-2124679848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2124803224"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.281808408882435"/>
+          <c:y val="0.867994539247679"/>
+          <c:w val="0.718191602720789"/>
+          <c:h val="0.0703240049773535"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400"/>
+              <a:t>New User and Conversion Rate vs Month</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.293232978635361"/>
+          <c:y val="0.00682862883821365"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.132345329201262"/>
+          <c:y val="0.0751149172203502"/>
+          <c:w val="0.772552196140933"/>
+          <c:h val="0.694659474561207"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>NU_2017</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$14:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>160402.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>110829.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>116097.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>191966.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>119965.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>94217.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>69633.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>47090.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35242.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33472.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31808.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17433.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>NU_2018</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$14:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$14:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>31856.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22337.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18563.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18151.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20228.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25579.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20261.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18517.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19095.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19537.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24746.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>36494.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2128239800"/>
+        <c:axId val="-2130231848"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>ConvRate17</c:v>
+          </c:tx>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$14:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$2:$N$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.58</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.56</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.59</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>ConvRate18</c:v>
+          </c:tx>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$14:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$14:$N$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.29</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.29</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.28</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2125754776"/>
+        <c:axId val="-2124010296"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2128239800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Month</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2130231848"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2130231848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>New User</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2128239800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2124010296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Conversion</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Rate</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2125754776"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="-2125754776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2124010296"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.281808408882435"/>
+          <c:y val="0.867994539247679"/>
+          <c:w val="0.509627626243824"/>
+          <c:h val="0.114933888656787"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1067,6 +2847,70 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>753697</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>147027</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>42497</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>45427</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1397,10 +3241,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W26"/>
+  <dimension ref="A1:AF26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1414,14 +3258,14 @@
     <col min="20" max="20" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="45">
+    <row r="1" spans="1:32" ht="45">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="32" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
@@ -1442,7 +3286,7 @@
       <c r="I1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="31" t="s">
         <v>6</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -1454,7 +3298,7 @@
       <c r="M1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="31" t="s">
         <v>10</v>
       </c>
       <c r="P1" s="1" t="s">
@@ -1481,18 +3325,39 @@
       <c r="W1" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="Y1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA1" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE1" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:32">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="17">
+      <c r="B2" s="18">
         <v>1</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="13">
         <v>160402</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="13">
         <v>20389</v>
       </c>
       <c r="E2" s="3">
@@ -1540,32 +3405,56 @@
       <c r="S2" t="s">
         <v>35</v>
       </c>
-      <c r="T2" s="10">
+      <c r="T2" s="11">
         <v>160402</v>
       </c>
-      <c r="U2" s="10">
+      <c r="U2" s="11">
         <v>80201</v>
       </c>
-      <c r="V2" s="10">
+      <c r="V2" s="11">
         <f>T2-U2</f>
         <v>80201</v>
       </c>
-      <c r="W2" s="14">
+      <c r="W2" s="15">
         <f>(U2/T2)*100</f>
         <v>50</v>
       </c>
+      <c r="Y2" s="13">
+        <v>20389</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>700</v>
+      </c>
+      <c r="AB2" s="13">
+        <v>160402</v>
+      </c>
+      <c r="AC2" s="10">
+        <f>AA2/AB2</f>
+        <v>4.3640353611550976E-3</v>
+      </c>
+      <c r="AD2" s="10">
+        <f>AA2/Y2</f>
+        <v>3.4332237971455196E-2</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>0.44</v>
+      </c>
+      <c r="AF2">
+        <f>AA2/U2</f>
+        <v>8.7280707223101953E-3</v>
+      </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:32">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="18">
         <v>2</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="13">
         <v>110829</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="13">
         <v>17035</v>
       </c>
       <c r="E3" s="3">
@@ -1613,32 +3502,52 @@
       <c r="S3" t="s">
         <v>38</v>
       </c>
-      <c r="T3" s="10">
+      <c r="T3" s="11">
         <v>116097</v>
       </c>
-      <c r="U3" s="10">
+      <c r="U3" s="11">
         <v>69658</v>
       </c>
-      <c r="V3" s="10">
+      <c r="V3" s="11">
         <f>T3-U3</f>
         <v>46439</v>
       </c>
-      <c r="W3" s="14">
+      <c r="W3" s="15">
         <f t="shared" ref="W3:W11" si="0">(U3/T3)*100</f>
         <v>59.999827730260037</v>
       </c>
+      <c r="Y3" s="13">
+        <v>17035</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>780</v>
+      </c>
+      <c r="AB3" s="13">
+        <v>110829</v>
+      </c>
+      <c r="AC3" s="10">
+        <f t="shared" ref="AC3:AC26" si="1">AA3/AB3</f>
+        <v>7.0378691497712696E-3</v>
+      </c>
+      <c r="AD3" s="10">
+        <f t="shared" ref="AD3:AD26" si="2">AA3/Y3</f>
+        <v>4.5788083357792782E-2</v>
+      </c>
+      <c r="AE3" s="2">
+        <v>0.7</v>
+      </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:32">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="18">
         <v>3</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="13">
         <v>116097</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="13">
         <v>15639</v>
       </c>
       <c r="E4" s="3">
@@ -1686,32 +3595,52 @@
       <c r="S4" t="s">
         <v>35</v>
       </c>
-      <c r="T4" s="10">
+      <c r="T4" s="11">
         <v>94217</v>
       </c>
-      <c r="U4" s="10">
+      <c r="U4" s="11">
         <v>47109</v>
       </c>
-      <c r="V4" s="10">
+      <c r="V4" s="11">
         <f>T4-U4</f>
         <v>47108</v>
       </c>
-      <c r="W4" s="15">
+      <c r="W4" s="16">
         <f t="shared" si="0"/>
         <v>50.000530689790587</v>
       </c>
+      <c r="Y4" s="13">
+        <v>15639</v>
+      </c>
+      <c r="AA4" s="3">
+        <v>670</v>
+      </c>
+      <c r="AB4" s="13">
+        <v>116097</v>
+      </c>
+      <c r="AC4" s="10">
+        <f t="shared" si="1"/>
+        <v>5.7710362886207222E-3</v>
+      </c>
+      <c r="AD4" s="10">
+        <f t="shared" si="2"/>
+        <v>4.2841613913933117E-2</v>
+      </c>
+      <c r="AE4" s="3">
+        <v>0.57999999999999996</v>
+      </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:32">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="18">
         <v>4</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="14">
         <v>191966</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="13">
         <v>14716</v>
       </c>
       <c r="E5" s="3">
@@ -1759,32 +3688,52 @@
       <c r="S5" t="s">
         <v>36</v>
       </c>
-      <c r="T5" s="11">
+      <c r="T5" s="12">
         <v>33472</v>
       </c>
-      <c r="U5" s="10">
+      <c r="U5" s="11">
         <v>10042</v>
       </c>
-      <c r="V5" s="10">
+      <c r="V5" s="11">
         <f>T5-U5</f>
         <v>23430</v>
       </c>
-      <c r="W5" s="15">
+      <c r="W5" s="16">
         <f t="shared" si="0"/>
         <v>30.001195028680687</v>
       </c>
+      <c r="Y5" s="13">
+        <v>14716</v>
+      </c>
+      <c r="AA5" s="3">
+        <v>570</v>
+      </c>
+      <c r="AB5" s="14">
+        <v>191966</v>
+      </c>
+      <c r="AC5" s="10">
+        <f t="shared" si="1"/>
+        <v>2.9692758092578894E-3</v>
+      </c>
+      <c r="AD5" s="10">
+        <f t="shared" si="2"/>
+        <v>3.8733351454199511E-2</v>
+      </c>
+      <c r="AE5" s="3">
+        <v>0.56000000000000005</v>
+      </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:32">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="18">
         <v>5</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="13">
         <v>119965</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="14">
         <v>15510</v>
       </c>
       <c r="E6" s="3">
@@ -1832,32 +3781,52 @@
       <c r="S6" t="s">
         <v>36</v>
       </c>
-      <c r="T6" s="11">
+      <c r="T6" s="12">
         <v>31808</v>
       </c>
-      <c r="U6" s="10">
+      <c r="U6" s="11">
         <v>19085</v>
       </c>
-      <c r="V6" s="10">
+      <c r="V6" s="11">
         <f>T6-U6</f>
         <v>12723</v>
       </c>
-      <c r="W6" s="14">
+      <c r="W6" s="15">
         <f t="shared" si="0"/>
         <v>60.000628772635814</v>
       </c>
+      <c r="Y6" s="14">
+        <v>15510</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>573</v>
+      </c>
+      <c r="AB6" s="13">
+        <v>119965</v>
+      </c>
+      <c r="AC6" s="10">
+        <f t="shared" si="1"/>
+        <v>4.7763931146584419E-3</v>
+      </c>
+      <c r="AD6" s="10">
+        <f t="shared" si="2"/>
+        <v>3.6943907156673117E-2</v>
+      </c>
+      <c r="AE6" s="3">
+        <v>0.48</v>
+      </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:32">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="18">
         <v>6</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="13">
         <v>94217</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="13">
         <v>14645</v>
       </c>
       <c r="E7" s="2">
@@ -1905,32 +3874,52 @@
       <c r="S7" t="s">
         <v>36</v>
       </c>
-      <c r="T7" s="11">
+      <c r="T7" s="12">
         <v>17433</v>
       </c>
-      <c r="U7" s="10">
+      <c r="U7" s="11">
         <v>13946</v>
       </c>
-      <c r="V7" s="10">
+      <c r="V7" s="11">
         <f>T7-U7</f>
         <v>3487</v>
       </c>
-      <c r="W7" s="14">
+      <c r="W7" s="15">
         <f t="shared" si="0"/>
         <v>79.997705501061205</v>
       </c>
+      <c r="Y7" s="13">
+        <v>14645</v>
+      </c>
+      <c r="AA7" s="2">
+        <v>890</v>
+      </c>
+      <c r="AB7" s="13">
+        <v>94217</v>
+      </c>
+      <c r="AC7" s="10">
+        <f t="shared" si="1"/>
+        <v>9.4462782724985938E-3</v>
+      </c>
+      <c r="AD7" s="10">
+        <f t="shared" si="2"/>
+        <v>6.077159440081939E-2</v>
+      </c>
+      <c r="AE7" s="2">
+        <v>0.94</v>
+      </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:32">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="18">
         <v>7</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="13">
         <v>69633</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="13">
         <v>10370</v>
       </c>
       <c r="E8" s="3">
@@ -1978,32 +3967,52 @@
       <c r="S8" t="s">
         <v>37</v>
       </c>
-      <c r="T8" s="11">
+      <c r="T8" s="12">
         <v>22337</v>
       </c>
-      <c r="U8" s="10">
+      <c r="U8" s="11">
         <v>4467</v>
       </c>
-      <c r="V8" s="10">
+      <c r="V8" s="11">
         <f>T8-U8</f>
         <v>17870</v>
       </c>
-      <c r="W8" s="15">
+      <c r="W8" s="16">
         <f t="shared" si="0"/>
         <v>19.998209249227738</v>
       </c>
+      <c r="Y8" s="13">
+        <v>10370</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>250</v>
+      </c>
+      <c r="AB8" s="13">
+        <v>69633</v>
+      </c>
+      <c r="AC8" s="10">
+        <f t="shared" si="1"/>
+        <v>3.5902517484526016E-3</v>
+      </c>
+      <c r="AD8" s="10">
+        <f t="shared" si="2"/>
+        <v>2.4108003857280617E-2</v>
+      </c>
+      <c r="AE8" s="3">
+        <v>0.36</v>
+      </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:32">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="18">
         <v>8</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="13">
         <v>47090</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="13">
         <v>7361</v>
       </c>
       <c r="E9" s="3">
@@ -2051,32 +4060,52 @@
       <c r="S9" t="s">
         <v>37</v>
       </c>
-      <c r="T9" s="11">
+      <c r="T9" s="12">
         <v>20261</v>
       </c>
-      <c r="U9" s="10">
+      <c r="U9" s="11">
         <v>6078</v>
       </c>
-      <c r="V9" s="10">
+      <c r="V9" s="11">
         <f>T9-U9</f>
         <v>14183</v>
       </c>
-      <c r="W9" s="14">
+      <c r="W9" s="15">
         <f t="shared" si="0"/>
         <v>29.998519322836977</v>
       </c>
+      <c r="Y9" s="13">
+        <v>7361</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>220</v>
+      </c>
+      <c r="AB9" s="13">
+        <v>47090</v>
+      </c>
+      <c r="AC9" s="10">
+        <f t="shared" si="1"/>
+        <v>4.6719048630282436E-3</v>
+      </c>
+      <c r="AD9" s="10">
+        <f t="shared" si="2"/>
+        <v>2.9887243581035186E-2</v>
+      </c>
+      <c r="AE9" s="2">
+        <v>0.47</v>
+      </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:32">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="18">
         <v>9</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="13">
         <v>35242</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="13">
         <v>5881</v>
       </c>
       <c r="E10" s="3">
@@ -2124,32 +4153,52 @@
       <c r="S10" t="s">
         <v>38</v>
       </c>
-      <c r="T10" s="11">
+      <c r="T10" s="12">
         <v>18517</v>
       </c>
-      <c r="U10" s="10">
+      <c r="U10" s="11">
         <v>8333</v>
       </c>
-      <c r="V10" s="10">
+      <c r="V10" s="11">
         <f>T10-U10</f>
         <v>10184</v>
       </c>
-      <c r="W10" s="14">
+      <c r="W10" s="15">
         <f t="shared" si="0"/>
         <v>45.001890154992708</v>
       </c>
+      <c r="Y10" s="13">
+        <v>5881</v>
+      </c>
+      <c r="AA10" s="3">
+        <v>210</v>
+      </c>
+      <c r="AB10" s="13">
+        <v>35242</v>
+      </c>
+      <c r="AC10" s="10">
+        <f t="shared" si="1"/>
+        <v>5.9587991600930706E-3</v>
+      </c>
+      <c r="AD10" s="10">
+        <f t="shared" si="2"/>
+        <v>3.5708212888964461E-2</v>
+      </c>
+      <c r="AE10" s="2">
+        <v>0.6</v>
+      </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:32">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="18">
         <v>10</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="13">
         <v>33472</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="13">
         <v>5001</v>
       </c>
       <c r="E11" s="2">
@@ -2197,32 +4246,52 @@
       <c r="S11" t="s">
         <v>37</v>
       </c>
-      <c r="T11" s="11">
+      <c r="T11" s="12">
         <v>19095</v>
       </c>
-      <c r="U11" s="10">
+      <c r="U11" s="11">
         <v>5729</v>
       </c>
-      <c r="V11" s="10">
+      <c r="V11" s="11">
         <f>T11-U11</f>
         <v>13366</v>
       </c>
-      <c r="W11" s="15">
+      <c r="W11" s="16">
         <f t="shared" si="0"/>
         <v>30.002618486514791</v>
       </c>
+      <c r="Y11" s="13">
+        <v>5001</v>
+      </c>
+      <c r="AA11" s="2">
+        <v>211</v>
+      </c>
+      <c r="AB11" s="13">
+        <v>33472</v>
+      </c>
+      <c r="AC11" s="10">
+        <f t="shared" si="1"/>
+        <v>6.3037762906309755E-3</v>
+      </c>
+      <c r="AD11" s="10">
+        <f t="shared" si="2"/>
+        <v>4.2191561687662464E-2</v>
+      </c>
+      <c r="AE11" s="2">
+        <v>0.63</v>
+      </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:32">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="18">
         <v>11</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="13">
         <v>31808</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="13">
         <v>4661</v>
       </c>
       <c r="E12" s="2">
@@ -2258,18 +4327,44 @@
       <c r="O12" t="s">
         <v>29</v>
       </c>
+      <c r="U12" t="s">
+        <v>45</v>
+      </c>
+      <c r="V12" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y12" s="13">
+        <v>4661</v>
+      </c>
+      <c r="AA12" s="3">
+        <v>102</v>
+      </c>
+      <c r="AB12" s="13">
+        <v>31808</v>
+      </c>
+      <c r="AC12" s="10">
+        <f t="shared" si="1"/>
+        <v>3.2067404426559358E-3</v>
+      </c>
+      <c r="AD12" s="10">
+        <f t="shared" si="2"/>
+        <v>2.1883715940785239E-2</v>
+      </c>
+      <c r="AE12" s="3">
+        <v>0.32</v>
+      </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:32">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="18">
         <v>12</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="13">
         <v>17433</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="13">
         <v>3552</v>
       </c>
       <c r="E13" s="3">
@@ -2305,616 +4400,896 @@
       <c r="O13" t="s">
         <v>29</v>
       </c>
+      <c r="Y13" s="13">
+        <v>3552</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>102</v>
+      </c>
+      <c r="AB13" s="13">
+        <v>17433</v>
+      </c>
+      <c r="AC13" s="10">
+        <f t="shared" si="1"/>
+        <v>5.8509722939253141E-3</v>
+      </c>
+      <c r="AD13" s="10">
+        <f t="shared" si="2"/>
+        <v>2.8716216216216218E-2</v>
+      </c>
+      <c r="AE13" s="2">
+        <v>0.59</v>
+      </c>
     </row>
-    <row r="14" spans="1:23">
-      <c r="A14" s="18">
+    <row r="14" spans="1:32">
+      <c r="A14" s="19">
         <v>13</v>
       </c>
-      <c r="B14" s="19">
+      <c r="B14" s="20">
         <v>1</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="21">
         <v>31856</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="21">
         <v>3753</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="22">
         <v>31.99</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="22">
         <v>5.79</v>
       </c>
-      <c r="G14" s="21">
+      <c r="G14" s="22">
         <v>1.31</v>
       </c>
-      <c r="H14" s="22">
+      <c r="H14" s="23">
         <v>3</v>
       </c>
-      <c r="I14" s="22">
+      <c r="I14" s="23">
         <v>10</v>
       </c>
-      <c r="J14" s="22">
+      <c r="J14" s="23">
         <v>100</v>
       </c>
-      <c r="K14" s="22">
+      <c r="K14" s="23">
         <v>270.06</v>
       </c>
-      <c r="L14" s="22">
+      <c r="L14" s="23">
         <v>2.7</v>
       </c>
-      <c r="M14" s="22">
+      <c r="M14" s="23">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N14" s="22">
+      <c r="N14" s="23">
         <v>0.31</v>
       </c>
-      <c r="O14" s="29" t="s">
+      <c r="O14" s="30" t="s">
         <v>27</v>
       </c>
+      <c r="Y14" s="21">
+        <v>3753</v>
+      </c>
+      <c r="AA14" s="23">
+        <v>100</v>
+      </c>
+      <c r="AB14" s="21">
+        <v>31856</v>
+      </c>
+      <c r="AC14" s="10">
+        <f t="shared" si="1"/>
+        <v>3.1391260673028628E-3</v>
+      </c>
+      <c r="AD14" s="10">
+        <f t="shared" si="2"/>
+        <v>2.664535038635758E-2</v>
+      </c>
+      <c r="AE14" s="23">
+        <v>0.31</v>
+      </c>
     </row>
-    <row r="15" spans="1:23">
-      <c r="A15" s="23">
+    <row r="15" spans="1:32">
+      <c r="A15" s="24">
         <v>14</v>
       </c>
-      <c r="B15" s="24">
+      <c r="B15" s="25">
         <v>2</v>
       </c>
-      <c r="C15" s="25">
+      <c r="C15" s="26">
         <v>22337</v>
       </c>
-      <c r="D15" s="25">
+      <c r="D15" s="26">
         <v>3320</v>
       </c>
-      <c r="E15" s="26">
+      <c r="E15" s="27">
         <v>31.17</v>
       </c>
-      <c r="F15" s="26">
+      <c r="F15" s="27">
         <v>5.08</v>
       </c>
-      <c r="G15" s="26">
+      <c r="G15" s="27">
         <v>1.3</v>
       </c>
-      <c r="H15" s="26">
+      <c r="H15" s="27">
         <v>3</v>
       </c>
-      <c r="I15" s="27">
+      <c r="I15" s="28">
         <v>11</v>
       </c>
-      <c r="J15" s="26">
+      <c r="J15" s="27">
         <v>84</v>
       </c>
-      <c r="K15" s="26">
+      <c r="K15" s="27">
         <v>248.78</v>
       </c>
-      <c r="L15" s="27">
+      <c r="L15" s="28">
         <v>2.96</v>
       </c>
-      <c r="M15" s="26">
+      <c r="M15" s="27">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N15" s="27">
+      <c r="N15" s="28">
         <v>0.38</v>
       </c>
-      <c r="O15" s="29" t="s">
+      <c r="O15" s="30" t="s">
         <v>27</v>
       </c>
+      <c r="Y15" s="26">
+        <v>3320</v>
+      </c>
+      <c r="AA15" s="27">
+        <v>84</v>
+      </c>
+      <c r="AB15" s="26">
+        <v>22337</v>
+      </c>
+      <c r="AC15" s="10">
+        <f t="shared" si="1"/>
+        <v>3.760576621748668E-3</v>
+      </c>
+      <c r="AD15" s="10">
+        <f t="shared" si="2"/>
+        <v>2.5301204819277109E-2</v>
+      </c>
+      <c r="AE15" s="28">
+        <v>0.38</v>
+      </c>
     </row>
-    <row r="16" spans="1:23">
-      <c r="A16" s="23">
+    <row r="16" spans="1:32">
+      <c r="A16" s="24">
         <v>15</v>
       </c>
-      <c r="B16" s="24">
+      <c r="B16" s="25">
         <v>3</v>
       </c>
-      <c r="C16" s="25">
+      <c r="C16" s="26">
         <v>18563</v>
       </c>
-      <c r="D16" s="25">
+      <c r="D16" s="26">
         <v>2642</v>
       </c>
-      <c r="E16" s="27">
+      <c r="E16" s="28">
         <v>31.27</v>
       </c>
-      <c r="F16" s="27">
+      <c r="F16" s="28">
         <v>5.82</v>
       </c>
-      <c r="G16" s="26">
+      <c r="G16" s="27">
         <v>1.17</v>
       </c>
-      <c r="H16" s="26">
+      <c r="H16" s="27">
         <v>3</v>
       </c>
-      <c r="I16" s="26">
+      <c r="I16" s="27">
         <v>9</v>
       </c>
-      <c r="J16" s="26">
+      <c r="J16" s="27">
         <v>80</v>
       </c>
-      <c r="K16" s="26">
+      <c r="K16" s="27">
         <v>210.54</v>
       </c>
-      <c r="L16" s="26">
+      <c r="L16" s="27">
         <v>2.63</v>
       </c>
-      <c r="M16" s="27">
+      <c r="M16" s="28">
         <v>0.08</v>
       </c>
-      <c r="N16" s="27">
+      <c r="N16" s="28">
         <v>0.43</v>
       </c>
-      <c r="O16" s="29" t="s">
+      <c r="O16" s="30" t="s">
         <v>27</v>
       </c>
+      <c r="Y16" s="26">
+        <v>2642</v>
+      </c>
+      <c r="AA16" s="27">
+        <v>80</v>
+      </c>
+      <c r="AB16" s="26">
+        <v>18563</v>
+      </c>
+      <c r="AC16" s="10">
+        <f t="shared" si="1"/>
+        <v>4.3096482249636373E-3</v>
+      </c>
+      <c r="AD16" s="10">
+        <f t="shared" si="2"/>
+        <v>3.0280090840272521E-2</v>
+      </c>
+      <c r="AE16" s="28">
+        <v>0.43</v>
+      </c>
     </row>
-    <row r="17" spans="1:15">
-      <c r="A17" s="23">
+    <row r="17" spans="1:31">
+      <c r="A17" s="24">
         <v>16</v>
       </c>
-      <c r="B17" s="24">
+      <c r="B17" s="25">
         <v>4</v>
       </c>
-      <c r="C17" s="25">
+      <c r="C17" s="26">
         <v>18151</v>
       </c>
-      <c r="D17" s="25">
+      <c r="D17" s="26">
         <v>2478</v>
       </c>
-      <c r="E17" s="27">
+      <c r="E17" s="28">
         <v>31.62</v>
       </c>
-      <c r="F17" s="26">
+      <c r="F17" s="27">
         <v>5.43</v>
       </c>
-      <c r="G17" s="27">
+      <c r="G17" s="28">
         <v>1.52</v>
       </c>
-      <c r="H17" s="26">
+      <c r="H17" s="27">
         <v>2</v>
       </c>
-      <c r="I17" s="27">
+      <c r="I17" s="28">
         <v>10</v>
       </c>
-      <c r="J17" s="26">
+      <c r="J17" s="27">
         <v>70</v>
       </c>
-      <c r="K17" s="26">
+      <c r="K17" s="27">
         <v>142.65</v>
       </c>
-      <c r="L17" s="26">
+      <c r="L17" s="27">
         <v>2.04</v>
       </c>
-      <c r="M17" s="26">
+      <c r="M17" s="27">
         <v>0.06</v>
       </c>
-      <c r="N17" s="26">
+      <c r="N17" s="27">
         <v>0.39</v>
       </c>
-      <c r="O17" s="29" t="s">
+      <c r="O17" s="30" t="s">
         <v>28</v>
       </c>
+      <c r="Y17" s="26">
+        <v>2478</v>
+      </c>
+      <c r="AA17" s="27">
+        <v>70</v>
+      </c>
+      <c r="AB17" s="26">
+        <v>18151</v>
+      </c>
+      <c r="AC17" s="10">
+        <f t="shared" si="1"/>
+        <v>3.8565368299267257E-3</v>
+      </c>
+      <c r="AD17" s="10">
+        <f t="shared" si="2"/>
+        <v>2.8248587570621469E-2</v>
+      </c>
+      <c r="AE17" s="27">
+        <v>0.39</v>
+      </c>
     </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="23">
+    <row r="18" spans="1:31">
+      <c r="A18" s="24">
         <v>17</v>
       </c>
-      <c r="B18" s="24">
+      <c r="B18" s="25">
         <v>5</v>
       </c>
-      <c r="C18" s="28">
+      <c r="C18" s="29">
         <v>20228</v>
       </c>
-      <c r="D18" s="28">
+      <c r="D18" s="29">
         <v>2568</v>
       </c>
-      <c r="E18" s="27">
+      <c r="E18" s="28">
         <v>31.79</v>
       </c>
-      <c r="F18" s="26">
+      <c r="F18" s="27">
         <v>5.24</v>
       </c>
-      <c r="G18" s="26">
+      <c r="G18" s="27">
         <v>1.27</v>
       </c>
-      <c r="H18" s="26">
+      <c r="H18" s="27">
         <v>2</v>
       </c>
-      <c r="I18" s="26">
+      <c r="I18" s="27">
         <v>9</v>
       </c>
-      <c r="J18" s="27">
+      <c r="J18" s="28">
         <v>75</v>
       </c>
-      <c r="K18" s="27">
+      <c r="K18" s="28">
         <v>181.94</v>
       </c>
-      <c r="L18" s="27">
+      <c r="L18" s="28">
         <v>2.4300000000000002</v>
       </c>
-      <c r="M18" s="27">
+      <c r="M18" s="28">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N18" s="26">
+      <c r="N18" s="27">
         <v>0.37</v>
       </c>
-      <c r="O18" s="29" t="s">
+      <c r="O18" s="30" t="s">
         <v>28</v>
       </c>
+      <c r="Y18" s="29">
+        <v>2568</v>
+      </c>
+      <c r="AA18" s="28">
+        <v>75</v>
+      </c>
+      <c r="AB18" s="29">
+        <v>20228</v>
+      </c>
+      <c r="AC18" s="10">
+        <f t="shared" si="1"/>
+        <v>3.7077318568321141E-3</v>
+      </c>
+      <c r="AD18" s="10">
+        <f t="shared" si="2"/>
+        <v>2.9205607476635514E-2</v>
+      </c>
+      <c r="AE18" s="27">
+        <v>0.37</v>
+      </c>
     </row>
-    <row r="19" spans="1:15">
-      <c r="A19" s="23">
+    <row r="19" spans="1:31">
+      <c r="A19" s="24">
         <v>18</v>
       </c>
-      <c r="B19" s="24">
+      <c r="B19" s="25">
         <v>6</v>
       </c>
-      <c r="C19" s="28">
+      <c r="C19" s="29">
         <v>25579</v>
       </c>
-      <c r="D19" s="28">
+      <c r="D19" s="29">
         <v>3103</v>
       </c>
-      <c r="E19" s="27">
+      <c r="E19" s="28">
         <v>33</v>
       </c>
-      <c r="F19" s="27">
+      <c r="F19" s="28">
         <v>5.49</v>
       </c>
-      <c r="G19" s="26">
+      <c r="G19" s="27">
         <v>0.83</v>
       </c>
-      <c r="H19" s="27">
+      <c r="H19" s="28">
         <v>3</v>
       </c>
-      <c r="I19" s="27">
+      <c r="I19" s="28">
         <v>11</v>
       </c>
-      <c r="J19" s="27">
+      <c r="J19" s="28">
         <v>76</v>
       </c>
-      <c r="K19" s="27">
+      <c r="K19" s="28">
         <v>204.36</v>
       </c>
-      <c r="L19" s="27">
+      <c r="L19" s="28">
         <v>2.69</v>
       </c>
-      <c r="M19" s="27">
+      <c r="M19" s="28">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N19" s="26">
+      <c r="N19" s="27">
         <v>0.3</v>
       </c>
-      <c r="O19" s="29" t="s">
+      <c r="O19" s="30" t="s">
         <v>28</v>
       </c>
+      <c r="Y19" s="29">
+        <v>3103</v>
+      </c>
+      <c r="AA19" s="28">
+        <v>76</v>
+      </c>
+      <c r="AB19" s="29">
+        <v>25579</v>
+      </c>
+      <c r="AC19" s="10">
+        <f t="shared" si="1"/>
+        <v>2.9711873020837405E-3</v>
+      </c>
+      <c r="AD19" s="10">
+        <f t="shared" si="2"/>
+        <v>2.4492426683854335E-2</v>
+      </c>
+      <c r="AE19" s="27">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="20" spans="1:15">
-      <c r="A20" s="23">
+    <row r="20" spans="1:31">
+      <c r="A20" s="24">
         <v>19</v>
       </c>
-      <c r="B20" s="24">
+      <c r="B20" s="25">
         <v>7</v>
       </c>
-      <c r="C20" s="25">
+      <c r="C20" s="26">
         <v>20261</v>
       </c>
-      <c r="D20" s="25">
+      <c r="D20" s="26">
         <v>2357</v>
       </c>
-      <c r="E20" s="26">
+      <c r="E20" s="27">
         <v>31.19</v>
       </c>
-      <c r="F20" s="26">
+      <c r="F20" s="27">
         <v>5.41</v>
       </c>
-      <c r="G20" s="27">
+      <c r="G20" s="28">
         <v>1.36</v>
       </c>
-      <c r="H20" s="27">
+      <c r="H20" s="28">
         <v>3</v>
       </c>
-      <c r="I20" s="26">
+      <c r="I20" s="27">
         <v>10</v>
       </c>
-      <c r="J20" s="26">
+      <c r="J20" s="27">
         <v>60</v>
       </c>
-      <c r="K20" s="26">
+      <c r="K20" s="27">
         <v>159.30000000000001</v>
       </c>
-      <c r="L20" s="26">
+      <c r="L20" s="27">
         <v>2.66</v>
       </c>
-      <c r="M20" s="27">
+      <c r="M20" s="28">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N20" s="26">
+      <c r="N20" s="27">
         <v>0.3</v>
       </c>
-      <c r="O20" s="29" t="s">
+      <c r="O20" s="30" t="s">
         <v>30</v>
       </c>
+      <c r="Y20" s="26">
+        <v>2357</v>
+      </c>
+      <c r="AA20" s="27">
+        <v>60</v>
+      </c>
+      <c r="AB20" s="26">
+        <v>20261</v>
+      </c>
+      <c r="AC20" s="10">
+        <f t="shared" si="1"/>
+        <v>2.9613543260451113E-3</v>
+      </c>
+      <c r="AD20" s="10">
+        <f t="shared" si="2"/>
+        <v>2.5456088247772592E-2</v>
+      </c>
+      <c r="AE20" s="27">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="21" spans="1:15">
-      <c r="A21" s="23">
+    <row r="21" spans="1:31">
+      <c r="A21" s="24">
         <v>20</v>
       </c>
-      <c r="B21" s="24">
+      <c r="B21" s="25">
         <v>8</v>
       </c>
-      <c r="C21" s="25">
+      <c r="C21" s="26">
         <v>18517</v>
       </c>
-      <c r="D21" s="25">
+      <c r="D21" s="26">
         <v>2145</v>
       </c>
-      <c r="E21" s="27">
+      <c r="E21" s="28">
         <v>31.74</v>
       </c>
-      <c r="F21" s="26">
+      <c r="F21" s="27">
         <v>5.2</v>
       </c>
-      <c r="G21" s="26">
+      <c r="G21" s="27">
         <v>0.82</v>
       </c>
-      <c r="H21" s="27">
+      <c r="H21" s="28">
         <v>4</v>
       </c>
-      <c r="I21" s="26">
+      <c r="I21" s="27">
         <v>10</v>
       </c>
-      <c r="J21" s="26">
+      <c r="J21" s="27">
         <v>54</v>
       </c>
-      <c r="K21" s="26">
+      <c r="K21" s="27">
         <v>138.51</v>
       </c>
-      <c r="L21" s="26">
+      <c r="L21" s="27">
         <v>2.57</v>
       </c>
-      <c r="M21" s="26">
+      <c r="M21" s="27">
         <v>0.06</v>
       </c>
-      <c r="N21" s="26">
+      <c r="N21" s="27">
         <v>0.28999999999999998</v>
       </c>
-      <c r="O21" s="29" t="s">
+      <c r="O21" s="30" t="s">
         <v>30</v>
       </c>
+      <c r="Y21" s="26">
+        <v>2145</v>
+      </c>
+      <c r="AA21" s="27">
+        <v>54</v>
+      </c>
+      <c r="AB21" s="26">
+        <v>18517</v>
+      </c>
+      <c r="AC21" s="10">
+        <f t="shared" si="1"/>
+        <v>2.9162391316087917E-3</v>
+      </c>
+      <c r="AD21" s="10">
+        <f t="shared" si="2"/>
+        <v>2.5174825174825177E-2</v>
+      </c>
+      <c r="AE21" s="27">
+        <v>0.28999999999999998</v>
+      </c>
     </row>
-    <row r="22" spans="1:15">
-      <c r="A22" s="23">
+    <row r="22" spans="1:31">
+      <c r="A22" s="24">
         <v>21</v>
       </c>
-      <c r="B22" s="24">
+      <c r="B22" s="25">
         <v>9</v>
       </c>
-      <c r="C22" s="25">
+      <c r="C22" s="26">
         <v>19095</v>
       </c>
-      <c r="D22" s="25">
+      <c r="D22" s="26">
         <v>2132</v>
       </c>
-      <c r="E22" s="26">
+      <c r="E22" s="27">
         <v>31.26</v>
       </c>
-      <c r="F22" s="27">
+      <c r="F22" s="28">
         <v>5.43</v>
       </c>
-      <c r="G22" s="27">
+      <c r="G22" s="28">
         <v>1.19</v>
       </c>
-      <c r="H22" s="26">
+      <c r="H22" s="27">
         <v>2</v>
       </c>
-      <c r="I22" s="26">
+      <c r="I22" s="27">
         <v>10</v>
       </c>
-      <c r="J22" s="27">
+      <c r="J22" s="28">
         <v>55</v>
       </c>
-      <c r="K22" s="27">
+      <c r="K22" s="28">
         <v>151.43</v>
       </c>
-      <c r="L22" s="27">
+      <c r="L22" s="28">
         <v>2.75</v>
       </c>
-      <c r="M22" s="27">
+      <c r="M22" s="28">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N22" s="26">
+      <c r="N22" s="27">
         <v>0.28999999999999998</v>
       </c>
-      <c r="O22" s="29" t="s">
+      <c r="O22" s="30" t="s">
         <v>30</v>
       </c>
+      <c r="Y22" s="26">
+        <v>2132</v>
+      </c>
+      <c r="AA22" s="28">
+        <v>55</v>
+      </c>
+      <c r="AB22" s="26">
+        <v>19095</v>
+      </c>
+      <c r="AC22" s="10">
+        <f t="shared" si="1"/>
+        <v>2.8803351662738939E-3</v>
+      </c>
+      <c r="AD22" s="10">
+        <f t="shared" si="2"/>
+        <v>2.5797373358348967E-2</v>
+      </c>
+      <c r="AE22" s="27">
+        <v>0.28999999999999998</v>
+      </c>
     </row>
-    <row r="23" spans="1:15">
-      <c r="A23" s="23">
+    <row r="23" spans="1:31">
+      <c r="A23" s="24">
         <v>22</v>
       </c>
-      <c r="B23" s="24">
+      <c r="B23" s="25">
         <v>10</v>
       </c>
-      <c r="C23" s="28">
+      <c r="C23" s="29">
         <v>19537</v>
       </c>
-      <c r="D23" s="25">
+      <c r="D23" s="26">
         <v>2106</v>
       </c>
-      <c r="E23" s="26">
+      <c r="E23" s="27">
         <v>30.59</v>
       </c>
-      <c r="F23" s="26">
+      <c r="F23" s="27">
         <v>5.35</v>
       </c>
-      <c r="G23" s="27">
+      <c r="G23" s="28">
         <v>1.19</v>
       </c>
-      <c r="H23" s="26">
+      <c r="H23" s="27">
         <v>2</v>
       </c>
-      <c r="I23" s="27">
+      <c r="I23" s="28">
         <v>11</v>
       </c>
-      <c r="J23" s="27">
+      <c r="J23" s="28">
         <v>55</v>
       </c>
-      <c r="K23" s="27">
+      <c r="K23" s="28">
         <v>152.96</v>
       </c>
-      <c r="L23" s="27">
+      <c r="L23" s="28">
         <v>2.78</v>
       </c>
-      <c r="M23" s="27">
+      <c r="M23" s="28">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N23" s="26">
+      <c r="N23" s="27">
         <v>0.28000000000000003</v>
       </c>
       <c r="O23" t="s">
         <v>29</v>
       </c>
+      <c r="Y23" s="26">
+        <v>2106</v>
+      </c>
+      <c r="AA23" s="28">
+        <v>55</v>
+      </c>
+      <c r="AB23" s="29">
+        <v>19537</v>
+      </c>
+      <c r="AC23" s="10">
+        <f t="shared" si="1"/>
+        <v>2.8151712135947179E-3</v>
+      </c>
+      <c r="AD23" s="10">
+        <f t="shared" si="2"/>
+        <v>2.6115859449192782E-2</v>
+      </c>
+      <c r="AE23" s="27">
+        <v>0.28000000000000003</v>
+      </c>
     </row>
-    <row r="24" spans="1:15">
-      <c r="A24" s="23">
+    <row r="24" spans="1:31">
+      <c r="A24" s="24">
         <v>23</v>
       </c>
-      <c r="B24" s="24">
+      <c r="B24" s="25">
         <v>11</v>
       </c>
-      <c r="C24" s="28">
+      <c r="C24" s="29">
         <v>24746</v>
       </c>
-      <c r="D24" s="28">
+      <c r="D24" s="29">
         <v>2635</v>
       </c>
-      <c r="E24" s="27">
+      <c r="E24" s="28">
         <v>32.49</v>
       </c>
-      <c r="F24" s="27">
+      <c r="F24" s="28">
         <v>5.71</v>
       </c>
-      <c r="G24" s="27">
+      <c r="G24" s="28">
         <v>1.25</v>
       </c>
-      <c r="H24" s="26">
+      <c r="H24" s="27">
         <v>2</v>
       </c>
-      <c r="I24" s="26">
+      <c r="I24" s="27">
         <v>9</v>
       </c>
-      <c r="J24" s="26">
+      <c r="J24" s="27">
         <v>54</v>
       </c>
-      <c r="K24" s="27">
+      <c r="K24" s="28">
         <v>183.02</v>
       </c>
-      <c r="L24" s="27">
+      <c r="L24" s="28">
         <v>3.39</v>
       </c>
-      <c r="M24" s="27">
+      <c r="M24" s="28">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N24" s="26">
+      <c r="N24" s="27">
         <v>0.22</v>
       </c>
       <c r="O24" t="s">
         <v>29</v>
       </c>
+      <c r="Y24" s="29">
+        <v>2635</v>
+      </c>
+      <c r="AA24" s="27">
+        <v>54</v>
+      </c>
+      <c r="AB24" s="29">
+        <v>24746</v>
+      </c>
+      <c r="AC24" s="10">
+        <f t="shared" si="1"/>
+        <v>2.1821708558959025E-3</v>
+      </c>
+      <c r="AD24" s="10">
+        <f t="shared" si="2"/>
+        <v>2.049335863377609E-2</v>
+      </c>
+      <c r="AE24" s="27">
+        <v>0.22</v>
+      </c>
     </row>
-    <row r="25" spans="1:15">
-      <c r="A25" s="23">
+    <row r="25" spans="1:31">
+      <c r="A25" s="24">
         <v>24</v>
       </c>
-      <c r="B25" s="24">
+      <c r="B25" s="25">
         <v>12</v>
       </c>
-      <c r="C25" s="28">
+      <c r="C25" s="29">
         <v>36494</v>
       </c>
-      <c r="D25" s="28">
+      <c r="D25" s="29">
         <v>3595</v>
       </c>
-      <c r="E25" s="27">
+      <c r="E25" s="28">
         <v>32.979999999999997</v>
       </c>
-      <c r="F25" s="26">
+      <c r="F25" s="27">
         <v>5.04</v>
       </c>
-      <c r="G25" s="26">
+      <c r="G25" s="27">
         <v>1.05</v>
       </c>
-      <c r="H25" s="27">
+      <c r="H25" s="28">
         <v>3</v>
       </c>
-      <c r="I25" s="26">
+      <c r="I25" s="27">
         <v>9</v>
       </c>
-      <c r="J25" s="26">
+      <c r="J25" s="27">
         <v>45</v>
       </c>
-      <c r="K25" s="27">
+      <c r="K25" s="28">
         <v>260.37</v>
       </c>
-      <c r="L25" s="27">
+      <c r="L25" s="28">
         <v>5.79</v>
       </c>
-      <c r="M25" s="27">
+      <c r="M25" s="28">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N25" s="26">
+      <c r="N25" s="27">
         <v>0.12</v>
       </c>
       <c r="O25" t="s">
         <v>29</v>
       </c>
+      <c r="Y25" s="29">
+        <v>3595</v>
+      </c>
+      <c r="AA25" s="27">
+        <v>45</v>
+      </c>
+      <c r="AB25" s="29">
+        <v>36494</v>
+      </c>
+      <c r="AC25" s="10">
+        <f t="shared" si="1"/>
+        <v>1.2330794103140243E-3</v>
+      </c>
+      <c r="AD25" s="10">
+        <f t="shared" si="2"/>
+        <v>1.2517385257301807E-2</v>
+      </c>
+      <c r="AE25" s="27">
+        <v>0.12</v>
+      </c>
     </row>
-    <row r="26" spans="1:15">
-      <c r="A26" s="18">
+    <row r="26" spans="1:31">
+      <c r="A26" s="19">
         <v>25</v>
       </c>
-      <c r="B26" s="19">
+      <c r="B26" s="20">
         <v>1</v>
       </c>
-      <c r="C26" s="20">
+      <c r="C26" s="21">
         <v>40174</v>
       </c>
-      <c r="D26" s="20">
+      <c r="D26" s="21">
         <v>3881</v>
       </c>
-      <c r="E26" s="22">
+      <c r="E26" s="23">
         <v>31.81</v>
       </c>
-      <c r="F26" s="21">
+      <c r="F26" s="22">
         <v>5.17</v>
       </c>
-      <c r="G26" s="22">
+      <c r="G26" s="23">
         <v>0.86</v>
       </c>
-      <c r="H26" s="22">
+      <c r="H26" s="23">
         <v>2</v>
       </c>
-      <c r="I26" s="21">
+      <c r="I26" s="22">
         <v>10</v>
       </c>
-      <c r="J26" s="22">
+      <c r="J26" s="23">
         <v>39</v>
       </c>
-      <c r="K26" s="22">
+      <c r="K26" s="23">
         <v>196.14</v>
       </c>
-      <c r="L26" s="22">
+      <c r="L26" s="23">
         <v>5.03</v>
       </c>
-      <c r="M26" s="22">
+      <c r="M26" s="23">
         <v>0.05</v>
       </c>
-      <c r="N26" s="22">
+      <c r="N26" s="23">
         <v>0.1</v>
       </c>
-      <c r="O26" s="29" t="s">
+      <c r="O26" s="30" t="s">
         <v>27</v>
+      </c>
+      <c r="Y26" s="21">
+        <v>3881</v>
+      </c>
+      <c r="AA26" s="23">
+        <v>39</v>
+      </c>
+      <c r="AB26" s="21">
+        <v>40174</v>
+      </c>
+      <c r="AC26" s="10">
+        <f t="shared" si="1"/>
+        <v>9.7077711953004432E-4</v>
+      </c>
+      <c r="AD26" s="10">
+        <f t="shared" si="2"/>
+        <v>1.0048956454522031E-2</v>
+      </c>
+      <c r="AE26" s="23">
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>

--- a/agate3.xlsx
+++ b/agate3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="13780" yWindow="-20860" windowWidth="24620" windowHeight="20400" tabRatio="500"/>
+    <workbookView xWindow="12880" yWindow="-21600" windowWidth="25560" windowHeight="19760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="50">
   <si>
     <t>New User</t>
   </si>
@@ -161,6 +161,15 @@
   <si>
     <t>"Not directly responding to ads</t>
   </si>
+  <si>
+    <t>GR/PU</t>
+  </si>
+  <si>
+    <t>GR/DAU</t>
+  </si>
+  <si>
+    <t>Difference 7-30</t>
+  </si>
 </sst>
 </file>
 
@@ -287,7 +296,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="47">
+  <cellStyleXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -335,8 +344,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -349,6 +368,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -376,8 +396,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="47">
+  <cellStyles count="57">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -401,6 +425,11 @@
     <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -424,6 +453,11 @@
     <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2181,7 +2215,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1400"/>
-              <a:t>New User and Conversion Rate vs Month</a:t>
+              <a:t>ARPPU vs Retention</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2190,8 +2224,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.293232978635361"/>
-          <c:y val="0.00682862883821365"/>
+          <c:x val="0.414702448243945"/>
+          <c:y val="0.0103302418339777"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -2216,14 +2250,14 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>NU_2017</c:v>
+            <c:v>ARPPU</c:v>
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$14:$B$25</c:f>
+              <c:f>Sheet1!$A$2:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>1.0</c:v>
                 </c:pt>
@@ -2259,149 +2293,129 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$13</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>160402.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>110829.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>116097.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>191966.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>119965.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>94217.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>69633.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>47090.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>35242.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>33472.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>31808.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>17433.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>NU_2018</c:v>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$14:$B$25</c:f>
+              <c:f>Sheet1!$L$2:$L$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>2.79</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>1.56</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>1.93</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>2.09</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>2.19</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>1.29</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>3.09</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>2.15</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>1.98</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>1.75</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.0</c:v>
+                  <c:v>4.37</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$14:$C$25</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>31856.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>22337.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>18563.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>18151.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>20228.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>25579.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>20261.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>18517.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>19095.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>19537.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>24746.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>36494.0</c:v>
+                  <c:v>3.67</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.96</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.63</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.04</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.43</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.69</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.66</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.57</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.78</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.39</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.79</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.03</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2425,27 +2439,17 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:idx val="1"/>
+          <c:order val="1"/>
           <c:tx>
-            <c:v>ConvRate17</c:v>
+            <c:v>D30R</c:v>
           </c:tx>
-          <c:marker>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="tx2">
-                  <a:lumMod val="40000"/>
-                  <a:lumOff val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$14:$B$25</c:f>
+              <c:f>Sheet1!$A$2:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>1.0</c:v>
                 </c:pt>
@@ -2481,51 +2485,129 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$2:$N$13</c:f>
+              <c:f>Sheet1!$G$2:$G$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>0.44</c:v>
+                  <c:v>2.24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.7</c:v>
+                  <c:v>2.36</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.58</c:v>
+                  <c:v>1.61</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.56</c:v>
+                  <c:v>1.9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.48</c:v>
+                  <c:v>2.05</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.94</c:v>
+                  <c:v>1.7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.36</c:v>
+                  <c:v>1.4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.47</c:v>
+                  <c:v>1.35</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.6</c:v>
+                  <c:v>1.34</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.63</c:v>
+                  <c:v>1.51</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.32</c:v>
+                  <c:v>1.49</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.59</c:v>
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.31</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.17</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.52</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.27</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.36</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.19</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.19</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.86</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2533,27 +2615,17 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:idx val="2"/>
+          <c:order val="2"/>
           <c:tx>
-            <c:v>ConvRate18</c:v>
+            <c:v>D7R</c:v>
           </c:tx>
-          <c:marker>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$14:$B$25</c:f>
+              <c:f>Sheet1!$A$2:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>1.0</c:v>
                 </c:pt>
@@ -2589,51 +2661,129 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$14:$N$25</c:f>
+              <c:f>Sheet1!$F$2:$F$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>0.31</c:v>
+                  <c:v>7.95</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.38</c:v>
+                  <c:v>8.26</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.43</c:v>
+                  <c:v>7.71</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.39</c:v>
+                  <c:v>8.48</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.37</c:v>
+                  <c:v>7.87</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.3</c:v>
+                  <c:v>7.11</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.3</c:v>
+                  <c:v>6.73</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.29</c:v>
+                  <c:v>6.66</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.29</c:v>
+                  <c:v>5.68</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.28</c:v>
+                  <c:v>5.81</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.22</c:v>
+                  <c:v>5.81</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.12</c:v>
+                  <c:v>5.19</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.79</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.08</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.82</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.43</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.24</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.49</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.41</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.43</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.35</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.71</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.04</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2650,8 +2800,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2125754776"/>
-        <c:axId val="-2124010296"/>
+        <c:axId val="-2118704824"/>
+        <c:axId val="-2118708664"/>
       </c:lineChart>
       <c:catAx>
         <c:axId val="-2128239800"/>
@@ -2709,48 +2859,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>New User</a:t>
+                  <a:t>ARPPU</a:t>
                 </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2128239800"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="-2124010296"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="r"/>
-        <c:minorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Conversion</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Rate</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2761,12 +2871,27 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2125754776"/>
+        <c:crossAx val="-2128239800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2118708664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2118704824"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-2125754776"/>
+        <c:axId val="-2118704824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2776,8 +2901,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2124010296"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="-2118708664"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2790,10 +2914,1364 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.281808408882435"/>
-          <c:y val="0.867994539247679"/>
-          <c:w val="0.509627626243824"/>
-          <c:h val="0.114933888656787"/>
+          <c:x val="0.0977636828187882"/>
+          <c:y val="0.90651304845806"/>
+          <c:w val="0.306986583719984"/>
+          <c:h val="0.0703240049773535"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400"/>
+              <a:t>ARPPU vs Playtime &amp; Session</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.361329481050423"/>
+          <c:y val="0.0208352921162217"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.132345329201262"/>
+          <c:y val="0.0751149172203502"/>
+          <c:w val="0.772552196140933"/>
+          <c:h val="0.694659474561207"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Playtime</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$2:$I$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2125873656"/>
+        <c:axId val="2134043256"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>ARPPU</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$2:$L$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>2.79</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.56</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.93</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.09</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.29</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.09</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.98</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.37</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.67</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.96</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.63</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.04</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.43</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.69</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.66</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.57</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.78</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.39</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.79</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.03</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>AvgSess</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$H$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2134219176"/>
+        <c:axId val="-2116539320"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2125873656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Month</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2134043256"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2134043256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>New User</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2125873656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2116539320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2134219176"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="2134219176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2116539320"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.440086851715174"/>
+          <c:y val="0.89950968160323"/>
+          <c:w val="0.370404044810106"/>
+          <c:h val="0.0703240049773535"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400"/>
+              <a:t>Retention vs </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.361329481050423"/>
+          <c:y val="0.0208352921162217"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.132345329201262"/>
+          <c:y val="0.0751149172203502"/>
+          <c:w val="0.772552196140933"/>
+          <c:h val="0.694659474561207"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>D30 Retention</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$2:$L$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>2.79</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.56</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.93</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.09</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.29</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.09</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.98</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.37</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.67</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.96</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.63</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.04</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.43</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.69</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.66</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.57</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.78</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.39</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.79</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.03</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>2.24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.36</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.61</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.34</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.51</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.49</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.31</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.17</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.52</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.27</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.36</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.19</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.19</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.86</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2120248024"/>
+        <c:axId val="-2117399496"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>D7 Retention</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$2:$L$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>2.79</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.56</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.93</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.09</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.29</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.09</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.98</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.37</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.67</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.96</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.63</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.04</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.43</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.69</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.66</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.57</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.78</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.39</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.79</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.03</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>7.95</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.71</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.48</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.87</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.73</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.66</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.68</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.81</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.81</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.19</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.79</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.08</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.82</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.43</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.24</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.49</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.41</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.43</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.35</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.71</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.04</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2124709256"/>
+        <c:axId val="-2118245672"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2120248024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>ARPPU</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2117399496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2117399496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Retention</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2120248024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2118245672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2124709256"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2124709256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2118245672"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.440086851715174"/>
+          <c:y val="0.89950968160323"/>
+          <c:w val="0.295459711359572"/>
+          <c:h val="0.0713560711398092"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2887,15 +4365,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>42497</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>45427</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>474297</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>108927</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2911,6 +4389,70 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>271097</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>121627</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>316375</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>7326</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3241,10 +4783,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF26"/>
+  <dimension ref="A1:AP27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="V12" sqref="V12"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="AO29" sqref="AO29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3258,14 +4800,14 @@
     <col min="20" max="20" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="45">
+    <row r="1" spans="1:42" ht="45">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="33" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
@@ -3286,7 +4828,7 @@
       <c r="I1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="J1" s="32" t="s">
         <v>6</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -3298,7 +4840,7 @@
       <c r="M1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="31" t="s">
+      <c r="N1" s="32" t="s">
         <v>10</v>
       </c>
       <c r="P1" s="1" t="s">
@@ -3328,36 +4870,66 @@
       <c r="Y1" t="s">
         <v>1</v>
       </c>
-      <c r="AA1" s="31" t="s">
+      <c r="Z1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC1" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="AB1" s="32" t="s">
+      <c r="AD1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>42</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>43</v>
       </c>
-      <c r="AE1" s="31" t="s">
+      <c r="AG1" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>44</v>
       </c>
+      <c r="AJ1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK1" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AN1" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:32">
+    <row r="2" spans="1:42">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B2" s="19">
         <v>1</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="14">
         <v>160402</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="14">
         <v>20389</v>
       </c>
       <c r="E2" s="3">
@@ -3405,56 +4977,89 @@
       <c r="S2" t="s">
         <v>35</v>
       </c>
-      <c r="T2" s="11">
+      <c r="T2" s="12">
         <v>160402</v>
       </c>
-      <c r="U2" s="11">
+      <c r="U2" s="12">
         <v>80201</v>
       </c>
-      <c r="V2" s="11">
+      <c r="V2" s="12">
         <f>T2-U2</f>
         <v>80201</v>
       </c>
-      <c r="W2" s="15">
+      <c r="W2" s="16">
         <f>(U2/T2)*100</f>
         <v>50</v>
       </c>
-      <c r="Y2" s="13">
+      <c r="Y2" s="14">
         <v>20389</v>
       </c>
-      <c r="AA2" s="2">
+      <c r="Z2" s="34">
+        <f>AA2/Y2</f>
+        <v>9.5901711707293141E-2</v>
+      </c>
+      <c r="AA2" s="3">
+        <v>1955.34</v>
+      </c>
+      <c r="AB2" s="11">
+        <f>AA2/AC2</f>
+        <v>2.7933428571428571</v>
+      </c>
+      <c r="AC2" s="2">
         <v>700</v>
       </c>
-      <c r="AB2" s="13">
+      <c r="AD2" s="14">
         <v>160402</v>
       </c>
-      <c r="AC2" s="10">
-        <f>AA2/AB2</f>
+      <c r="AE2" s="11">
+        <f>AC2/AD2</f>
         <v>4.3640353611550976E-3</v>
       </c>
-      <c r="AD2" s="10">
-        <f>AA2/Y2</f>
+      <c r="AF2" s="11">
+        <f>AC2/Y2</f>
         <v>3.4332237971455196E-2</v>
       </c>
-      <c r="AE2" s="2">
+      <c r="AG2" s="2">
         <v>0.44</v>
       </c>
-      <c r="AF2">
-        <f>AA2/U2</f>
+      <c r="AH2">
+        <f>AC2/U2</f>
         <v>8.7280707223101953E-3</v>
       </c>
+      <c r="AJ2">
+        <v>1</v>
+      </c>
+      <c r="AK2" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL2" s="2">
+        <v>7.95</v>
+      </c>
+      <c r="AM2" s="2">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="AN2" s="10">
+        <f>AL2-AM2</f>
+        <v>5.71</v>
+      </c>
+      <c r="AO2" s="3">
+        <v>1955.34</v>
+      </c>
+      <c r="AP2" s="3">
+        <v>2.79</v>
+      </c>
     </row>
-    <row r="3" spans="1:32">
+    <row r="3" spans="1:42">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="19">
         <v>2</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="14">
         <v>110829</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="14">
         <v>17035</v>
       </c>
       <c r="E3" s="3">
@@ -3502,52 +5107,85 @@
       <c r="S3" t="s">
         <v>38</v>
       </c>
-      <c r="T3" s="11">
+      <c r="T3" s="12">
         <v>116097</v>
       </c>
-      <c r="U3" s="11">
+      <c r="U3" s="12">
         <v>69658</v>
       </c>
-      <c r="V3" s="11">
+      <c r="V3" s="12">
         <f>T3-U3</f>
         <v>46439</v>
       </c>
-      <c r="W3" s="15">
+      <c r="W3" s="16">
         <f t="shared" ref="W3:W11" si="0">(U3/T3)*100</f>
         <v>59.999827730260037</v>
       </c>
-      <c r="Y3" s="13">
+      <c r="Y3" s="14">
         <v>17035</v>
       </c>
-      <c r="AA3" s="2">
+      <c r="Z3" s="34">
+        <f t="shared" ref="Z3:Z26" si="1">AA3/Y3</f>
+        <v>7.1398884649251537E-2</v>
+      </c>
+      <c r="AA3" s="3">
+        <v>1216.28</v>
+      </c>
+      <c r="AB3" s="11">
+        <f t="shared" ref="AB3:AB26" si="2">AA3/AC3</f>
+        <v>1.5593333333333332</v>
+      </c>
+      <c r="AC3" s="2">
         <v>780</v>
       </c>
-      <c r="AB3" s="13">
+      <c r="AD3" s="14">
         <v>110829</v>
       </c>
-      <c r="AC3" s="10">
-        <f t="shared" ref="AC3:AC26" si="1">AA3/AB3</f>
+      <c r="AE3" s="11">
+        <f t="shared" ref="AE3:AE26" si="3">AC3/AD3</f>
         <v>7.0378691497712696E-3</v>
       </c>
-      <c r="AD3" s="10">
-        <f t="shared" ref="AD3:AD26" si="2">AA3/Y3</f>
+      <c r="AF3" s="11">
+        <f t="shared" ref="AF3:AF26" si="4">AC3/Y3</f>
         <v>4.5788083357792782E-2</v>
       </c>
-      <c r="AE3" s="2">
+      <c r="AG3" s="2">
         <v>0.7</v>
       </c>
+      <c r="AJ3">
+        <v>2</v>
+      </c>
+      <c r="AK3" s="19">
+        <v>2</v>
+      </c>
+      <c r="AL3" s="2">
+        <v>8.26</v>
+      </c>
+      <c r="AM3" s="2">
+        <v>2.36</v>
+      </c>
+      <c r="AN3" s="10">
+        <f t="shared" ref="AN3:AN26" si="5">AL3-AM3</f>
+        <v>5.9</v>
+      </c>
+      <c r="AO3" s="3">
+        <v>1216.28</v>
+      </c>
+      <c r="AP3" s="3">
+        <v>1.56</v>
+      </c>
     </row>
-    <row r="4" spans="1:32">
+    <row r="4" spans="1:42">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="19">
         <v>3</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="14">
         <v>116097</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="14">
         <v>15639</v>
       </c>
       <c r="E4" s="3">
@@ -3595,52 +5233,85 @@
       <c r="S4" t="s">
         <v>35</v>
       </c>
-      <c r="T4" s="11">
+      <c r="T4" s="12">
         <v>94217</v>
       </c>
-      <c r="U4" s="11">
+      <c r="U4" s="12">
         <v>47109</v>
       </c>
-      <c r="V4" s="11">
+      <c r="V4" s="12">
         <f>T4-U4</f>
         <v>47108</v>
       </c>
-      <c r="W4" s="16">
+      <c r="W4" s="17">
         <f t="shared" si="0"/>
         <v>50.000530689790587</v>
       </c>
-      <c r="Y4" s="13">
+      <c r="Y4" s="14">
         <v>15639</v>
       </c>
-      <c r="AA4" s="3">
+      <c r="Z4" s="34">
+        <f t="shared" si="1"/>
+        <v>8.2746339280005105E-2</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>1294.07</v>
+      </c>
+      <c r="AB4" s="11">
+        <f t="shared" si="2"/>
+        <v>1.9314477611940297</v>
+      </c>
+      <c r="AC4" s="3">
         <v>670</v>
       </c>
-      <c r="AB4" s="13">
+      <c r="AD4" s="14">
         <v>116097</v>
       </c>
-      <c r="AC4" s="10">
-        <f t="shared" si="1"/>
+      <c r="AE4" s="11">
+        <f t="shared" si="3"/>
         <v>5.7710362886207222E-3</v>
       </c>
-      <c r="AD4" s="10">
-        <f t="shared" si="2"/>
+      <c r="AF4" s="11">
+        <f t="shared" si="4"/>
         <v>4.2841613913933117E-2</v>
       </c>
-      <c r="AE4" s="3">
+      <c r="AG4" s="3">
         <v>0.57999999999999996</v>
       </c>
+      <c r="AJ4">
+        <v>3</v>
+      </c>
+      <c r="AK4" s="19">
+        <v>3</v>
+      </c>
+      <c r="AL4" s="3">
+        <v>7.71</v>
+      </c>
+      <c r="AM4" s="3">
+        <v>1.61</v>
+      </c>
+      <c r="AN4" s="10">
+        <f t="shared" si="5"/>
+        <v>6.1</v>
+      </c>
+      <c r="AO4" s="2">
+        <v>1294.07</v>
+      </c>
+      <c r="AP4" s="2">
+        <v>1.93</v>
+      </c>
     </row>
-    <row r="5" spans="1:32">
+    <row r="5" spans="1:42">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="19">
         <v>4</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="15">
         <v>191966</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="14">
         <v>14716</v>
       </c>
       <c r="E5" s="3">
@@ -3688,52 +5359,85 @@
       <c r="S5" t="s">
         <v>36</v>
       </c>
-      <c r="T5" s="12">
+      <c r="T5" s="13">
         <v>33472</v>
       </c>
-      <c r="U5" s="11">
+      <c r="U5" s="12">
         <v>10042</v>
       </c>
-      <c r="V5" s="11">
+      <c r="V5" s="12">
         <f>T5-U5</f>
         <v>23430</v>
       </c>
-      <c r="W5" s="16">
+      <c r="W5" s="17">
         <f t="shared" si="0"/>
         <v>30.001195028680687</v>
       </c>
-      <c r="Y5" s="13">
+      <c r="Y5" s="14">
         <v>14716</v>
       </c>
+      <c r="Z5" s="34">
+        <f t="shared" si="1"/>
+        <v>8.0871840173960305E-2</v>
+      </c>
       <c r="AA5" s="3">
+        <v>1190.1099999999999</v>
+      </c>
+      <c r="AB5" s="11">
+        <f t="shared" si="2"/>
+        <v>2.0879122807017541</v>
+      </c>
+      <c r="AC5" s="3">
         <v>570</v>
       </c>
-      <c r="AB5" s="14">
+      <c r="AD5" s="15">
         <v>191966</v>
       </c>
-      <c r="AC5" s="10">
-        <f t="shared" si="1"/>
+      <c r="AE5" s="11">
+        <f t="shared" si="3"/>
         <v>2.9692758092578894E-3</v>
       </c>
-      <c r="AD5" s="10">
-        <f t="shared" si="2"/>
+      <c r="AF5" s="11">
+        <f t="shared" si="4"/>
         <v>3.8733351454199511E-2</v>
       </c>
-      <c r="AE5" s="3">
+      <c r="AG5" s="3">
         <v>0.56000000000000005</v>
       </c>
+      <c r="AJ5">
+        <v>4</v>
+      </c>
+      <c r="AK5" s="19">
+        <v>4</v>
+      </c>
+      <c r="AL5" s="2">
+        <v>8.48</v>
+      </c>
+      <c r="AM5" s="2">
+        <v>1.9</v>
+      </c>
+      <c r="AN5" s="10">
+        <f t="shared" si="5"/>
+        <v>6.58</v>
+      </c>
+      <c r="AO5" s="3">
+        <v>1190.1099999999999</v>
+      </c>
+      <c r="AP5" s="2">
+        <v>2.09</v>
+      </c>
     </row>
-    <row r="6" spans="1:32">
+    <row r="6" spans="1:42">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="19">
         <v>5</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="14">
         <v>119965</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="15">
         <v>15510</v>
       </c>
       <c r="E6" s="3">
@@ -3781,52 +5485,85 @@
       <c r="S6" t="s">
         <v>36</v>
       </c>
-      <c r="T6" s="12">
+      <c r="T6" s="13">
         <v>31808</v>
       </c>
-      <c r="U6" s="11">
+      <c r="U6" s="12">
         <v>19085</v>
       </c>
-      <c r="V6" s="11">
+      <c r="V6" s="12">
         <f>T6-U6</f>
         <v>12723</v>
       </c>
-      <c r="W6" s="15">
+      <c r="W6" s="16">
         <f t="shared" si="0"/>
         <v>60.000628772635814</v>
       </c>
-      <c r="Y6" s="14">
+      <c r="Y6" s="15">
         <v>15510</v>
       </c>
+      <c r="Z6" s="34">
+        <f t="shared" si="1"/>
+        <v>8.0954223081882645E-2</v>
+      </c>
       <c r="AA6" s="2">
+        <v>1255.5999999999999</v>
+      </c>
+      <c r="AB6" s="11">
+        <f t="shared" si="2"/>
+        <v>2.1912739965095986</v>
+      </c>
+      <c r="AC6" s="2">
         <v>573</v>
       </c>
-      <c r="AB6" s="13">
+      <c r="AD6" s="14">
         <v>119965</v>
       </c>
-      <c r="AC6" s="10">
-        <f t="shared" si="1"/>
+      <c r="AE6" s="11">
+        <f t="shared" si="3"/>
         <v>4.7763931146584419E-3</v>
       </c>
-      <c r="AD6" s="10">
-        <f t="shared" si="2"/>
+      <c r="AF6" s="11">
+        <f t="shared" si="4"/>
         <v>3.6943907156673117E-2</v>
       </c>
-      <c r="AE6" s="3">
+      <c r="AG6" s="3">
         <v>0.48</v>
       </c>
+      <c r="AJ6">
+        <v>5</v>
+      </c>
+      <c r="AK6" s="19">
+        <v>5</v>
+      </c>
+      <c r="AL6" s="3">
+        <v>7.87</v>
+      </c>
+      <c r="AM6" s="2">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="AN6" s="10">
+        <f t="shared" si="5"/>
+        <v>5.82</v>
+      </c>
+      <c r="AO6" s="2">
+        <v>1255.5999999999999</v>
+      </c>
+      <c r="AP6" s="2">
+        <v>2.19</v>
+      </c>
     </row>
-    <row r="7" spans="1:32">
+    <row r="7" spans="1:42">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="19">
         <v>6</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="14">
         <v>94217</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="14">
         <v>14645</v>
       </c>
       <c r="E7" s="2">
@@ -3874,52 +5611,85 @@
       <c r="S7" t="s">
         <v>36</v>
       </c>
-      <c r="T7" s="12">
+      <c r="T7" s="13">
         <v>17433</v>
       </c>
-      <c r="U7" s="11">
+      <c r="U7" s="12">
         <v>13946</v>
       </c>
-      <c r="V7" s="11">
+      <c r="V7" s="12">
         <f>T7-U7</f>
         <v>3487</v>
       </c>
-      <c r="W7" s="15">
+      <c r="W7" s="16">
         <f t="shared" si="0"/>
         <v>79.997705501061205</v>
       </c>
-      <c r="Y7" s="13">
+      <c r="Y7" s="14">
         <v>14645</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="Z7" s="34">
+        <f t="shared" si="1"/>
+        <v>7.818914305223626E-2</v>
+      </c>
+      <c r="AA7" s="3">
+        <v>1145.08</v>
+      </c>
+      <c r="AB7" s="11">
+        <f t="shared" si="2"/>
+        <v>1.2866067415730336</v>
+      </c>
+      <c r="AC7" s="2">
         <v>890</v>
       </c>
-      <c r="AB7" s="13">
+      <c r="AD7" s="14">
         <v>94217</v>
       </c>
-      <c r="AC7" s="10">
-        <f t="shared" si="1"/>
+      <c r="AE7" s="11">
+        <f t="shared" si="3"/>
         <v>9.4462782724985938E-3</v>
       </c>
-      <c r="AD7" s="10">
-        <f t="shared" si="2"/>
+      <c r="AF7" s="11">
+        <f t="shared" si="4"/>
         <v>6.077159440081939E-2</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AG7" s="2">
         <v>0.94</v>
       </c>
+      <c r="AJ7">
+        <v>6</v>
+      </c>
+      <c r="AK7" s="19">
+        <v>6</v>
+      </c>
+      <c r="AL7" s="3">
+        <v>7.11</v>
+      </c>
+      <c r="AM7" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="AN7" s="10">
+        <f t="shared" si="5"/>
+        <v>5.41</v>
+      </c>
+      <c r="AO7" s="3">
+        <v>1145.08</v>
+      </c>
+      <c r="AP7" s="3">
+        <v>1.29</v>
+      </c>
     </row>
-    <row r="8" spans="1:32">
+    <row r="8" spans="1:42">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="19">
         <v>7</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="14">
         <v>69633</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="14">
         <v>10370</v>
       </c>
       <c r="E8" s="3">
@@ -3967,52 +5737,85 @@
       <c r="S8" t="s">
         <v>37</v>
       </c>
-      <c r="T8" s="12">
+      <c r="T8" s="13">
         <v>22337</v>
       </c>
-      <c r="U8" s="11">
+      <c r="U8" s="12">
         <v>4467</v>
       </c>
-      <c r="V8" s="11">
+      <c r="V8" s="12">
         <f>T8-U8</f>
         <v>17870</v>
       </c>
-      <c r="W8" s="16">
+      <c r="W8" s="17">
         <f t="shared" si="0"/>
         <v>19.998209249227738</v>
       </c>
-      <c r="Y8" s="13">
+      <c r="Y8" s="14">
         <v>10370</v>
       </c>
+      <c r="Z8" s="34">
+        <f t="shared" si="1"/>
+        <v>7.4520732883317259E-2</v>
+      </c>
       <c r="AA8" s="3">
+        <v>772.78</v>
+      </c>
+      <c r="AB8" s="11">
+        <f t="shared" si="2"/>
+        <v>3.0911200000000001</v>
+      </c>
+      <c r="AC8" s="3">
         <v>250</v>
       </c>
-      <c r="AB8" s="13">
+      <c r="AD8" s="14">
         <v>69633</v>
       </c>
-      <c r="AC8" s="10">
-        <f t="shared" si="1"/>
+      <c r="AE8" s="11">
+        <f t="shared" si="3"/>
         <v>3.5902517484526016E-3</v>
       </c>
-      <c r="AD8" s="10">
-        <f t="shared" si="2"/>
+      <c r="AF8" s="11">
+        <f t="shared" si="4"/>
         <v>2.4108003857280617E-2</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AG8" s="3">
         <v>0.36</v>
       </c>
+      <c r="AJ8">
+        <v>7</v>
+      </c>
+      <c r="AK8" s="19">
+        <v>7</v>
+      </c>
+      <c r="AL8" s="3">
+        <v>6.73</v>
+      </c>
+      <c r="AM8" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="AN8" s="10">
+        <f t="shared" si="5"/>
+        <v>5.33</v>
+      </c>
+      <c r="AO8" s="3">
+        <v>772.78</v>
+      </c>
+      <c r="AP8" s="2">
+        <v>3.09</v>
+      </c>
     </row>
-    <row r="9" spans="1:32">
+    <row r="9" spans="1:42">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="19">
         <v>8</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="14">
         <v>47090</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="14">
         <v>7361</v>
       </c>
       <c r="E9" s="3">
@@ -4060,52 +5863,85 @@
       <c r="S9" t="s">
         <v>37</v>
       </c>
-      <c r="T9" s="12">
+      <c r="T9" s="13">
         <v>20261</v>
       </c>
-      <c r="U9" s="11">
+      <c r="U9" s="12">
         <v>6078</v>
       </c>
-      <c r="V9" s="11">
+      <c r="V9" s="12">
         <f>T9-U9</f>
         <v>14183</v>
       </c>
-      <c r="W9" s="15">
+      <c r="W9" s="16">
         <f t="shared" si="0"/>
         <v>29.998519322836977</v>
       </c>
-      <c r="Y9" s="13">
+      <c r="Y9" s="14">
         <v>7361</v>
       </c>
+      <c r="Z9" s="34">
+        <f t="shared" si="1"/>
+        <v>6.4167911968482538E-2</v>
+      </c>
       <c r="AA9" s="3">
+        <v>472.34</v>
+      </c>
+      <c r="AB9" s="11">
+        <f t="shared" si="2"/>
+        <v>2.1469999999999998</v>
+      </c>
+      <c r="AC9" s="3">
         <v>220</v>
       </c>
-      <c r="AB9" s="13">
+      <c r="AD9" s="14">
         <v>47090</v>
       </c>
-      <c r="AC9" s="10">
-        <f t="shared" si="1"/>
+      <c r="AE9" s="11">
+        <f t="shared" si="3"/>
         <v>4.6719048630282436E-3</v>
       </c>
-      <c r="AD9" s="10">
-        <f t="shared" si="2"/>
+      <c r="AF9" s="11">
+        <f t="shared" si="4"/>
         <v>2.9887243581035186E-2</v>
       </c>
-      <c r="AE9" s="2">
+      <c r="AG9" s="2">
         <v>0.47</v>
       </c>
+      <c r="AJ9">
+        <v>8</v>
+      </c>
+      <c r="AK9" s="19">
+        <v>8</v>
+      </c>
+      <c r="AL9" s="3">
+        <v>6.66</v>
+      </c>
+      <c r="AM9" s="3">
+        <v>1.35</v>
+      </c>
+      <c r="AN9" s="10">
+        <f t="shared" si="5"/>
+        <v>5.3100000000000005</v>
+      </c>
+      <c r="AO9" s="3">
+        <v>472.34</v>
+      </c>
+      <c r="AP9" s="3">
+        <v>2.15</v>
+      </c>
     </row>
-    <row r="10" spans="1:32">
+    <row r="10" spans="1:42">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="19">
         <v>9</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="14">
         <v>35242</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="14">
         <v>5881</v>
       </c>
       <c r="E10" s="3">
@@ -4153,52 +5989,85 @@
       <c r="S10" t="s">
         <v>38</v>
       </c>
-      <c r="T10" s="12">
+      <c r="T10" s="13">
         <v>18517</v>
       </c>
-      <c r="U10" s="11">
+      <c r="U10" s="12">
         <v>8333</v>
       </c>
-      <c r="V10" s="11">
+      <c r="V10" s="12">
         <f>T10-U10</f>
         <v>10184</v>
       </c>
-      <c r="W10" s="15">
+      <c r="W10" s="16">
         <f t="shared" si="0"/>
         <v>45.001890154992708</v>
       </c>
-      <c r="Y10" s="13">
+      <c r="Y10" s="14">
         <v>5881</v>
       </c>
+      <c r="Z10" s="34">
+        <f t="shared" si="1"/>
+        <v>7.0647849005271213E-2</v>
+      </c>
       <c r="AA10" s="3">
+        <v>415.48</v>
+      </c>
+      <c r="AB10" s="11">
+        <f t="shared" si="2"/>
+        <v>1.9784761904761905</v>
+      </c>
+      <c r="AC10" s="3">
         <v>210</v>
       </c>
-      <c r="AB10" s="13">
+      <c r="AD10" s="14">
         <v>35242</v>
       </c>
-      <c r="AC10" s="10">
-        <f t="shared" si="1"/>
+      <c r="AE10" s="11">
+        <f t="shared" si="3"/>
         <v>5.9587991600930706E-3</v>
       </c>
-      <c r="AD10" s="10">
-        <f t="shared" si="2"/>
+      <c r="AF10" s="11">
+        <f t="shared" si="4"/>
         <v>3.5708212888964461E-2</v>
       </c>
-      <c r="AE10" s="2">
+      <c r="AG10" s="2">
         <v>0.6</v>
       </c>
+      <c r="AJ10">
+        <v>9</v>
+      </c>
+      <c r="AK10" s="19">
+        <v>9</v>
+      </c>
+      <c r="AL10" s="3">
+        <v>5.68</v>
+      </c>
+      <c r="AM10" s="3">
+        <v>1.34</v>
+      </c>
+      <c r="AN10" s="10">
+        <f t="shared" si="5"/>
+        <v>4.34</v>
+      </c>
+      <c r="AO10" s="3">
+        <v>415.48</v>
+      </c>
+      <c r="AP10" s="3">
+        <v>1.98</v>
+      </c>
     </row>
-    <row r="11" spans="1:32">
+    <row r="11" spans="1:42">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="18">
+      <c r="B11" s="19">
         <v>10</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="14">
         <v>33472</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="14">
         <v>5001</v>
       </c>
       <c r="E11" s="2">
@@ -4246,52 +6115,85 @@
       <c r="S11" t="s">
         <v>37</v>
       </c>
-      <c r="T11" s="12">
+      <c r="T11" s="13">
         <v>19095</v>
       </c>
-      <c r="U11" s="11">
+      <c r="U11" s="12">
         <v>5729</v>
       </c>
-      <c r="V11" s="11">
+      <c r="V11" s="12">
         <f>T11-U11</f>
         <v>13366</v>
       </c>
-      <c r="W11" s="16">
+      <c r="W11" s="17">
         <f t="shared" si="0"/>
         <v>30.002618486514791</v>
       </c>
-      <c r="Y11" s="13">
+      <c r="Y11" s="14">
         <v>5001</v>
       </c>
-      <c r="AA11" s="2">
+      <c r="Z11" s="34">
+        <f t="shared" si="1"/>
+        <v>7.368126374725055E-2</v>
+      </c>
+      <c r="AA11" s="3">
+        <v>368.48</v>
+      </c>
+      <c r="AB11" s="11">
+        <f t="shared" si="2"/>
+        <v>1.7463507109004741</v>
+      </c>
+      <c r="AC11" s="2">
         <v>211</v>
       </c>
-      <c r="AB11" s="13">
+      <c r="AD11" s="14">
         <v>33472</v>
       </c>
-      <c r="AC11" s="10">
-        <f t="shared" si="1"/>
+      <c r="AE11" s="11">
+        <f t="shared" si="3"/>
         <v>6.3037762906309755E-3</v>
       </c>
-      <c r="AD11" s="10">
-        <f t="shared" si="2"/>
+      <c r="AF11" s="11">
+        <f t="shared" si="4"/>
         <v>4.2191561687662464E-2</v>
       </c>
-      <c r="AE11" s="2">
+      <c r="AG11" s="2">
         <v>0.63</v>
       </c>
+      <c r="AJ11">
+        <v>10</v>
+      </c>
+      <c r="AK11" s="19">
+        <v>10</v>
+      </c>
+      <c r="AL11" s="2">
+        <v>5.81</v>
+      </c>
+      <c r="AM11" s="2">
+        <v>1.51</v>
+      </c>
+      <c r="AN11" s="10">
+        <f t="shared" si="5"/>
+        <v>4.3</v>
+      </c>
+      <c r="AO11" s="3">
+        <v>368.48</v>
+      </c>
+      <c r="AP11" s="3">
+        <v>1.75</v>
+      </c>
     </row>
-    <row r="12" spans="1:32">
+    <row r="12" spans="1:42">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B12" s="19">
         <v>11</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="14">
         <v>31808</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="14">
         <v>4661</v>
       </c>
       <c r="E12" s="2">
@@ -4333,38 +6235,71 @@
       <c r="V12" t="s">
         <v>46</v>
       </c>
-      <c r="Y12" s="13">
+      <c r="Y12" s="14">
         <v>4661</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="Z12" s="34">
+        <f t="shared" si="1"/>
+        <v>9.5679038832868477E-2</v>
+      </c>
+      <c r="AA12" s="2">
+        <v>445.96</v>
+      </c>
+      <c r="AB12" s="11">
+        <f t="shared" si="2"/>
+        <v>4.372156862745098</v>
+      </c>
+      <c r="AC12" s="3">
         <v>102</v>
       </c>
-      <c r="AB12" s="13">
+      <c r="AD12" s="14">
         <v>31808</v>
       </c>
-      <c r="AC12" s="10">
-        <f t="shared" si="1"/>
+      <c r="AE12" s="11">
+        <f t="shared" si="3"/>
         <v>3.2067404426559358E-3</v>
       </c>
-      <c r="AD12" s="10">
-        <f t="shared" si="2"/>
+      <c r="AF12" s="11">
+        <f t="shared" si="4"/>
         <v>2.1883715940785239E-2</v>
       </c>
-      <c r="AE12" s="3">
+      <c r="AG12" s="3">
         <v>0.32</v>
       </c>
+      <c r="AJ12">
+        <v>11</v>
+      </c>
+      <c r="AK12" s="19">
+        <v>11</v>
+      </c>
+      <c r="AL12" s="2">
+        <v>5.81</v>
+      </c>
+      <c r="AM12" s="3">
+        <v>1.49</v>
+      </c>
+      <c r="AN12" s="10">
+        <f t="shared" si="5"/>
+        <v>4.3199999999999994</v>
+      </c>
+      <c r="AO12" s="2">
+        <v>445.96</v>
+      </c>
+      <c r="AP12" s="2">
+        <v>4.37</v>
+      </c>
     </row>
-    <row r="13" spans="1:32">
+    <row r="13" spans="1:42">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="18">
+      <c r="B13" s="19">
         <v>12</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="14">
         <v>17433</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="14">
         <v>3552</v>
       </c>
       <c r="E13" s="3">
@@ -4400,897 +6335,1362 @@
       <c r="O13" t="s">
         <v>29</v>
       </c>
-      <c r="Y13" s="13">
+      <c r="Y13" s="14">
         <v>3552</v>
       </c>
+      <c r="Z13" s="34">
+        <f t="shared" si="1"/>
+        <v>0.1055152027027027</v>
+      </c>
       <c r="AA13" s="3">
+        <v>374.79</v>
+      </c>
+      <c r="AB13" s="11">
+        <f t="shared" si="2"/>
+        <v>3.6744117647058827</v>
+      </c>
+      <c r="AC13" s="3">
         <v>102</v>
       </c>
-      <c r="AB13" s="13">
+      <c r="AD13" s="14">
         <v>17433</v>
       </c>
-      <c r="AC13" s="10">
+      <c r="AE13" s="11">
+        <f t="shared" si="3"/>
+        <v>5.8509722939253141E-3</v>
+      </c>
+      <c r="AF13" s="11">
+        <f t="shared" si="4"/>
+        <v>2.8716216216216218E-2</v>
+      </c>
+      <c r="AG13" s="2">
+        <v>0.59</v>
+      </c>
+      <c r="AJ13">
+        <v>12</v>
+      </c>
+      <c r="AK13" s="19">
+        <v>12</v>
+      </c>
+      <c r="AL13" s="3">
+        <v>5.19</v>
+      </c>
+      <c r="AM13" s="3">
+        <v>0.11</v>
+      </c>
+      <c r="AN13" s="10">
+        <f t="shared" si="5"/>
+        <v>5.08</v>
+      </c>
+      <c r="AO13" s="3">
+        <v>374.79</v>
+      </c>
+      <c r="AP13" s="3">
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:42">
+      <c r="A14" s="20">
+        <v>13</v>
+      </c>
+      <c r="B14" s="21">
+        <v>1</v>
+      </c>
+      <c r="C14" s="22">
+        <v>31856</v>
+      </c>
+      <c r="D14" s="22">
+        <v>3753</v>
+      </c>
+      <c r="E14" s="23">
+        <v>31.99</v>
+      </c>
+      <c r="F14" s="23">
+        <v>5.79</v>
+      </c>
+      <c r="G14" s="23">
+        <v>1.31</v>
+      </c>
+      <c r="H14" s="24">
+        <v>3</v>
+      </c>
+      <c r="I14" s="24">
+        <v>10</v>
+      </c>
+      <c r="J14" s="24">
+        <v>100</v>
+      </c>
+      <c r="K14" s="24">
+        <v>270.06</v>
+      </c>
+      <c r="L14" s="24">
+        <v>2.7</v>
+      </c>
+      <c r="M14" s="24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N14" s="24">
+        <v>0.31</v>
+      </c>
+      <c r="O14" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y14" s="22">
+        <v>3753</v>
+      </c>
+      <c r="Z14" s="34">
         <f t="shared" si="1"/>
-        <v>5.8509722939253141E-3</v>
-      </c>
-      <c r="AD13" s="10">
+        <v>7.1958433253397278E-2</v>
+      </c>
+      <c r="AA14" s="24">
+        <v>270.06</v>
+      </c>
+      <c r="AB14" s="11">
         <f t="shared" si="2"/>
-        <v>2.8716216216216218E-2</v>
-      </c>
-      <c r="AE13" s="2">
-        <v>0.59</v>
+        <v>2.7006000000000001</v>
+      </c>
+      <c r="AC14" s="24">
+        <v>100</v>
+      </c>
+      <c r="AD14" s="22">
+        <v>31856</v>
+      </c>
+      <c r="AE14" s="11">
+        <f t="shared" si="3"/>
+        <v>3.1391260673028628E-3</v>
+      </c>
+      <c r="AF14" s="11">
+        <f t="shared" si="4"/>
+        <v>2.664535038635758E-2</v>
+      </c>
+      <c r="AG14" s="24">
+        <v>0.31</v>
+      </c>
+      <c r="AJ14" s="20">
+        <v>13</v>
+      </c>
+      <c r="AK14" s="21">
+        <v>1</v>
+      </c>
+      <c r="AL14" s="23">
+        <v>5.79</v>
+      </c>
+      <c r="AM14" s="23">
+        <v>1.31</v>
+      </c>
+      <c r="AN14" s="10">
+        <f t="shared" si="5"/>
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="AO14" s="24">
+        <v>270.06</v>
+      </c>
+      <c r="AP14" s="24">
+        <v>2.7</v>
       </c>
     </row>
-    <row r="14" spans="1:32">
-      <c r="A14" s="19">
-        <v>13</v>
-      </c>
-      <c r="B14" s="20">
-        <v>1</v>
-      </c>
-      <c r="C14" s="21">
-        <v>31856</v>
-      </c>
-      <c r="D14" s="21">
-        <v>3753</v>
-      </c>
-      <c r="E14" s="22">
-        <v>31.99</v>
-      </c>
-      <c r="F14" s="22">
-        <v>5.79</v>
-      </c>
-      <c r="G14" s="22">
-        <v>1.31</v>
-      </c>
-      <c r="H14" s="23">
+    <row r="15" spans="1:42">
+      <c r="A15" s="25">
+        <v>14</v>
+      </c>
+      <c r="B15" s="26">
+        <v>2</v>
+      </c>
+      <c r="C15" s="27">
+        <v>22337</v>
+      </c>
+      <c r="D15" s="27">
+        <v>3320</v>
+      </c>
+      <c r="E15" s="28">
+        <v>31.17</v>
+      </c>
+      <c r="F15" s="28">
+        <v>5.08</v>
+      </c>
+      <c r="G15" s="28">
+        <v>1.3</v>
+      </c>
+      <c r="H15" s="28">
         <v>3</v>
       </c>
-      <c r="I14" s="23">
+      <c r="I15" s="29">
+        <v>11</v>
+      </c>
+      <c r="J15" s="28">
+        <v>84</v>
+      </c>
+      <c r="K15" s="28">
+        <v>248.78</v>
+      </c>
+      <c r="L15" s="29">
+        <v>2.96</v>
+      </c>
+      <c r="M15" s="28">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N15" s="29">
+        <v>0.38</v>
+      </c>
+      <c r="O15" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y15" s="27">
+        <v>3320</v>
+      </c>
+      <c r="Z15" s="34">
+        <f t="shared" si="1"/>
+        <v>7.4933734939759036E-2</v>
+      </c>
+      <c r="AA15" s="28">
+        <v>248.78</v>
+      </c>
+      <c r="AB15" s="11">
+        <f t="shared" si="2"/>
+        <v>2.9616666666666669</v>
+      </c>
+      <c r="AC15" s="28">
+        <v>84</v>
+      </c>
+      <c r="AD15" s="27">
+        <v>22337</v>
+      </c>
+      <c r="AE15" s="11">
+        <f t="shared" si="3"/>
+        <v>3.760576621748668E-3</v>
+      </c>
+      <c r="AF15" s="11">
+        <f t="shared" si="4"/>
+        <v>2.5301204819277109E-2</v>
+      </c>
+      <c r="AG15" s="29">
+        <v>0.38</v>
+      </c>
+      <c r="AJ15" s="25">
+        <v>14</v>
+      </c>
+      <c r="AK15" s="26">
+        <v>2</v>
+      </c>
+      <c r="AL15" s="28">
+        <v>5.08</v>
+      </c>
+      <c r="AM15" s="28">
+        <v>1.3</v>
+      </c>
+      <c r="AN15" s="10">
+        <f t="shared" si="5"/>
+        <v>3.7800000000000002</v>
+      </c>
+      <c r="AO15" s="28">
+        <v>248.78</v>
+      </c>
+      <c r="AP15" s="29">
+        <v>2.96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:42">
+      <c r="A16" s="25">
+        <v>15</v>
+      </c>
+      <c r="B16" s="26">
+        <v>3</v>
+      </c>
+      <c r="C16" s="27">
+        <v>18563</v>
+      </c>
+      <c r="D16" s="27">
+        <v>2642</v>
+      </c>
+      <c r="E16" s="29">
+        <v>31.27</v>
+      </c>
+      <c r="F16" s="29">
+        <v>5.82</v>
+      </c>
+      <c r="G16" s="28">
+        <v>1.17</v>
+      </c>
+      <c r="H16" s="28">
+        <v>3</v>
+      </c>
+      <c r="I16" s="28">
+        <v>9</v>
+      </c>
+      <c r="J16" s="28">
+        <v>80</v>
+      </c>
+      <c r="K16" s="28">
+        <v>210.54</v>
+      </c>
+      <c r="L16" s="28">
+        <v>2.63</v>
+      </c>
+      <c r="M16" s="29">
+        <v>0.08</v>
+      </c>
+      <c r="N16" s="29">
+        <v>0.43</v>
+      </c>
+      <c r="O16" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y16" s="27">
+        <v>2642</v>
+      </c>
+      <c r="Z16" s="34">
+        <f t="shared" si="1"/>
+        <v>7.9689629068887199E-2</v>
+      </c>
+      <c r="AA16" s="28">
+        <v>210.54</v>
+      </c>
+      <c r="AB16" s="11">
+        <f t="shared" si="2"/>
+        <v>2.6317499999999998</v>
+      </c>
+      <c r="AC16" s="28">
+        <v>80</v>
+      </c>
+      <c r="AD16" s="27">
+        <v>18563</v>
+      </c>
+      <c r="AE16" s="11">
+        <f t="shared" si="3"/>
+        <v>4.3096482249636373E-3</v>
+      </c>
+      <c r="AF16" s="11">
+        <f t="shared" si="4"/>
+        <v>3.0280090840272521E-2</v>
+      </c>
+      <c r="AG16" s="29">
+        <v>0.43</v>
+      </c>
+      <c r="AJ16" s="25">
+        <v>15</v>
+      </c>
+      <c r="AK16" s="26">
+        <v>3</v>
+      </c>
+      <c r="AL16" s="29">
+        <v>5.82</v>
+      </c>
+      <c r="AM16" s="28">
+        <v>1.17</v>
+      </c>
+      <c r="AN16" s="10">
+        <f t="shared" si="5"/>
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="AO16" s="28">
+        <v>210.54</v>
+      </c>
+      <c r="AP16" s="28">
+        <v>2.63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:42">
+      <c r="A17" s="25">
+        <v>16</v>
+      </c>
+      <c r="B17" s="26">
+        <v>4</v>
+      </c>
+      <c r="C17" s="27">
+        <v>18151</v>
+      </c>
+      <c r="D17" s="27">
+        <v>2478</v>
+      </c>
+      <c r="E17" s="29">
+        <v>31.62</v>
+      </c>
+      <c r="F17" s="28">
+        <v>5.43</v>
+      </c>
+      <c r="G17" s="29">
+        <v>1.52</v>
+      </c>
+      <c r="H17" s="28">
+        <v>2</v>
+      </c>
+      <c r="I17" s="29">
         <v>10</v>
       </c>
-      <c r="J14" s="23">
-        <v>100</v>
-      </c>
-      <c r="K14" s="23">
-        <v>270.06</v>
-      </c>
-      <c r="L14" s="23">
-        <v>2.7</v>
-      </c>
-      <c r="M14" s="23">
+      <c r="J17" s="28">
+        <v>70</v>
+      </c>
+      <c r="K17" s="28">
+        <v>142.65</v>
+      </c>
+      <c r="L17" s="28">
+        <v>2.04</v>
+      </c>
+      <c r="M17" s="28">
+        <v>0.06</v>
+      </c>
+      <c r="N17" s="28">
+        <v>0.39</v>
+      </c>
+      <c r="O17" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y17" s="27">
+        <v>2478</v>
+      </c>
+      <c r="Z17" s="34">
+        <f t="shared" si="1"/>
+        <v>5.756658595641647E-2</v>
+      </c>
+      <c r="AA17" s="28">
+        <v>142.65</v>
+      </c>
+      <c r="AB17" s="11">
+        <f t="shared" si="2"/>
+        <v>2.0378571428571428</v>
+      </c>
+      <c r="AC17" s="28">
+        <v>70</v>
+      </c>
+      <c r="AD17" s="27">
+        <v>18151</v>
+      </c>
+      <c r="AE17" s="11">
+        <f t="shared" si="3"/>
+        <v>3.8565368299267257E-3</v>
+      </c>
+      <c r="AF17" s="11">
+        <f t="shared" si="4"/>
+        <v>2.8248587570621469E-2</v>
+      </c>
+      <c r="AG17" s="28">
+        <v>0.39</v>
+      </c>
+      <c r="AJ17" s="25">
+        <v>16</v>
+      </c>
+      <c r="AK17" s="26">
+        <v>4</v>
+      </c>
+      <c r="AL17" s="28">
+        <v>5.43</v>
+      </c>
+      <c r="AM17" s="29">
+        <v>1.52</v>
+      </c>
+      <c r="AN17" s="10">
+        <f t="shared" si="5"/>
+        <v>3.9099999999999997</v>
+      </c>
+      <c r="AO17" s="28">
+        <v>142.65</v>
+      </c>
+      <c r="AP17" s="28">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="18" spans="1:42">
+      <c r="A18" s="25">
+        <v>17</v>
+      </c>
+      <c r="B18" s="26">
+        <v>5</v>
+      </c>
+      <c r="C18" s="30">
+        <v>20228</v>
+      </c>
+      <c r="D18" s="30">
+        <v>2568</v>
+      </c>
+      <c r="E18" s="29">
+        <v>31.79</v>
+      </c>
+      <c r="F18" s="28">
+        <v>5.24</v>
+      </c>
+      <c r="G18" s="28">
+        <v>1.27</v>
+      </c>
+      <c r="H18" s="28">
+        <v>2</v>
+      </c>
+      <c r="I18" s="28">
+        <v>9</v>
+      </c>
+      <c r="J18" s="29">
+        <v>75</v>
+      </c>
+      <c r="K18" s="29">
+        <v>181.94</v>
+      </c>
+      <c r="L18" s="29">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="M18" s="29">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N14" s="23">
-        <v>0.31</v>
-      </c>
-      <c r="O14" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y14" s="21">
-        <v>3753</v>
-      </c>
-      <c r="AA14" s="23">
-        <v>100</v>
-      </c>
-      <c r="AB14" s="21">
-        <v>31856</v>
-      </c>
-      <c r="AC14" s="10">
+      <c r="N18" s="28">
+        <v>0.37</v>
+      </c>
+      <c r="O18" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y18" s="30">
+        <v>2568</v>
+      </c>
+      <c r="Z18" s="34">
         <f t="shared" si="1"/>
-        <v>3.1391260673028628E-3</v>
-      </c>
-      <c r="AD14" s="10">
+        <v>7.0848909657320866E-2</v>
+      </c>
+      <c r="AA18" s="29">
+        <v>181.94</v>
+      </c>
+      <c r="AB18" s="11">
         <f t="shared" si="2"/>
-        <v>2.664535038635758E-2</v>
-      </c>
-      <c r="AE14" s="23">
-        <v>0.31</v>
+        <v>2.4258666666666668</v>
+      </c>
+      <c r="AC18" s="29">
+        <v>75</v>
+      </c>
+      <c r="AD18" s="30">
+        <v>20228</v>
+      </c>
+      <c r="AE18" s="11">
+        <f t="shared" si="3"/>
+        <v>3.7077318568321141E-3</v>
+      </c>
+      <c r="AF18" s="11">
+        <f t="shared" si="4"/>
+        <v>2.9205607476635514E-2</v>
+      </c>
+      <c r="AG18" s="28">
+        <v>0.37</v>
+      </c>
+      <c r="AJ18" s="25">
+        <v>17</v>
+      </c>
+      <c r="AK18" s="26">
+        <v>5</v>
+      </c>
+      <c r="AL18" s="28">
+        <v>5.24</v>
+      </c>
+      <c r="AM18" s="28">
+        <v>1.27</v>
+      </c>
+      <c r="AN18" s="10">
+        <f t="shared" si="5"/>
+        <v>3.97</v>
+      </c>
+      <c r="AO18" s="29">
+        <v>181.94</v>
+      </c>
+      <c r="AP18" s="29">
+        <v>2.4300000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:32">
-      <c r="A15" s="24">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25">
+    <row r="19" spans="1:42">
+      <c r="A19" s="25">
+        <v>18</v>
+      </c>
+      <c r="B19" s="26">
+        <v>6</v>
+      </c>
+      <c r="C19" s="30">
+        <v>25579</v>
+      </c>
+      <c r="D19" s="30">
+        <v>3103</v>
+      </c>
+      <c r="E19" s="29">
+        <v>33</v>
+      </c>
+      <c r="F19" s="29">
+        <v>5.49</v>
+      </c>
+      <c r="G19" s="28">
+        <v>0.83</v>
+      </c>
+      <c r="H19" s="29">
+        <v>3</v>
+      </c>
+      <c r="I19" s="29">
+        <v>11</v>
+      </c>
+      <c r="J19" s="29">
+        <v>76</v>
+      </c>
+      <c r="K19" s="29">
+        <v>204.36</v>
+      </c>
+      <c r="L19" s="29">
+        <v>2.69</v>
+      </c>
+      <c r="M19" s="29">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N19" s="28">
+        <v>0.3</v>
+      </c>
+      <c r="O19" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y19" s="30">
+        <v>3103</v>
+      </c>
+      <c r="Z19" s="34">
+        <f t="shared" si="1"/>
+        <v>6.5858846277795688E-2</v>
+      </c>
+      <c r="AA19" s="29">
+        <v>204.36</v>
+      </c>
+      <c r="AB19" s="11">
+        <f t="shared" si="2"/>
+        <v>2.688947368421053</v>
+      </c>
+      <c r="AC19" s="29">
+        <v>76</v>
+      </c>
+      <c r="AD19" s="30">
+        <v>25579</v>
+      </c>
+      <c r="AE19" s="11">
+        <f t="shared" si="3"/>
+        <v>2.9711873020837405E-3</v>
+      </c>
+      <c r="AF19" s="11">
+        <f t="shared" si="4"/>
+        <v>2.4492426683854335E-2</v>
+      </c>
+      <c r="AG19" s="28">
+        <v>0.3</v>
+      </c>
+      <c r="AJ19" s="25">
+        <v>18</v>
+      </c>
+      <c r="AK19" s="26">
+        <v>6</v>
+      </c>
+      <c r="AL19" s="29">
+        <v>5.49</v>
+      </c>
+      <c r="AM19" s="28">
+        <v>0.83</v>
+      </c>
+      <c r="AN19" s="10">
+        <f t="shared" si="5"/>
+        <v>4.66</v>
+      </c>
+      <c r="AO19" s="29">
+        <v>204.36</v>
+      </c>
+      <c r="AP19" s="29">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:42">
+      <c r="A20" s="25">
+        <v>19</v>
+      </c>
+      <c r="B20" s="26">
+        <v>7</v>
+      </c>
+      <c r="C20" s="27">
+        <v>20261</v>
+      </c>
+      <c r="D20" s="27">
+        <v>2357</v>
+      </c>
+      <c r="E20" s="28">
+        <v>31.19</v>
+      </c>
+      <c r="F20" s="28">
+        <v>5.41</v>
+      </c>
+      <c r="G20" s="29">
+        <v>1.36</v>
+      </c>
+      <c r="H20" s="29">
+        <v>3</v>
+      </c>
+      <c r="I20" s="28">
+        <v>10</v>
+      </c>
+      <c r="J20" s="28">
+        <v>60</v>
+      </c>
+      <c r="K20" s="28">
+        <v>159.30000000000001</v>
+      </c>
+      <c r="L20" s="28">
+        <v>2.66</v>
+      </c>
+      <c r="M20" s="29">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N20" s="28">
+        <v>0.3</v>
+      </c>
+      <c r="O20" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y20" s="27">
+        <v>2357</v>
+      </c>
+      <c r="Z20" s="34">
+        <f t="shared" si="1"/>
+        <v>6.7585914297836239E-2</v>
+      </c>
+      <c r="AA20" s="28">
+        <v>159.30000000000001</v>
+      </c>
+      <c r="AB20" s="11">
+        <f t="shared" si="2"/>
+        <v>2.6550000000000002</v>
+      </c>
+      <c r="AC20" s="28">
+        <v>60</v>
+      </c>
+      <c r="AD20" s="27">
+        <v>20261</v>
+      </c>
+      <c r="AE20" s="11">
+        <f t="shared" si="3"/>
+        <v>2.9613543260451113E-3</v>
+      </c>
+      <c r="AF20" s="11">
+        <f t="shared" si="4"/>
+        <v>2.5456088247772592E-2</v>
+      </c>
+      <c r="AG20" s="28">
+        <v>0.3</v>
+      </c>
+      <c r="AJ20" s="25">
+        <v>19</v>
+      </c>
+      <c r="AK20" s="26">
+        <v>7</v>
+      </c>
+      <c r="AL20" s="28">
+        <v>5.41</v>
+      </c>
+      <c r="AM20" s="29">
+        <v>1.36</v>
+      </c>
+      <c r="AN20" s="10">
+        <f t="shared" si="5"/>
+        <v>4.05</v>
+      </c>
+      <c r="AO20" s="28">
+        <v>159.30000000000001</v>
+      </c>
+      <c r="AP20" s="28">
+        <v>2.66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:42">
+      <c r="A21" s="25">
+        <v>20</v>
+      </c>
+      <c r="B21" s="26">
+        <v>8</v>
+      </c>
+      <c r="C21" s="27">
+        <v>18517</v>
+      </c>
+      <c r="D21" s="27">
+        <v>2145</v>
+      </c>
+      <c r="E21" s="29">
+        <v>31.74</v>
+      </c>
+      <c r="F21" s="28">
+        <v>5.2</v>
+      </c>
+      <c r="G21" s="28">
+        <v>0.82</v>
+      </c>
+      <c r="H21" s="29">
+        <v>4</v>
+      </c>
+      <c r="I21" s="28">
+        <v>10</v>
+      </c>
+      <c r="J21" s="28">
+        <v>54</v>
+      </c>
+      <c r="K21" s="28">
+        <v>138.51</v>
+      </c>
+      <c r="L21" s="28">
+        <v>2.57</v>
+      </c>
+      <c r="M21" s="28">
+        <v>0.06</v>
+      </c>
+      <c r="N21" s="28">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="O21" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y21" s="27">
+        <v>2145</v>
+      </c>
+      <c r="Z21" s="34">
+        <f t="shared" si="1"/>
+        <v>6.4573426573426573E-2</v>
+      </c>
+      <c r="AA21" s="28">
+        <v>138.51</v>
+      </c>
+      <c r="AB21" s="11">
+        <f t="shared" si="2"/>
+        <v>2.5649999999999999</v>
+      </c>
+      <c r="AC21" s="28">
+        <v>54</v>
+      </c>
+      <c r="AD21" s="27">
+        <v>18517</v>
+      </c>
+      <c r="AE21" s="11">
+        <f t="shared" si="3"/>
+        <v>2.9162391316087917E-3</v>
+      </c>
+      <c r="AF21" s="11">
+        <f t="shared" si="4"/>
+        <v>2.5174825174825177E-2</v>
+      </c>
+      <c r="AG21" s="28">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AJ21" s="25">
+        <v>20</v>
+      </c>
+      <c r="AK21" s="26">
+        <v>8</v>
+      </c>
+      <c r="AL21" s="28">
+        <v>5.2</v>
+      </c>
+      <c r="AM21" s="28">
+        <v>0.82</v>
+      </c>
+      <c r="AN21" s="10">
+        <f t="shared" si="5"/>
+        <v>4.38</v>
+      </c>
+      <c r="AO21" s="28">
+        <v>138.51</v>
+      </c>
+      <c r="AP21" s="28">
+        <v>2.57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:42">
+      <c r="A22" s="25">
+        <v>21</v>
+      </c>
+      <c r="B22" s="26">
+        <v>9</v>
+      </c>
+      <c r="C22" s="27">
+        <v>19095</v>
+      </c>
+      <c r="D22" s="27">
+        <v>2132</v>
+      </c>
+      <c r="E22" s="28">
+        <v>31.26</v>
+      </c>
+      <c r="F22" s="29">
+        <v>5.43</v>
+      </c>
+      <c r="G22" s="29">
+        <v>1.19</v>
+      </c>
+      <c r="H22" s="28">
         <v>2</v>
       </c>
-      <c r="C15" s="26">
-        <v>22337</v>
-      </c>
-      <c r="D15" s="26">
-        <v>3320</v>
-      </c>
-      <c r="E15" s="27">
-        <v>31.17</v>
-      </c>
-      <c r="F15" s="27">
-        <v>5.08</v>
-      </c>
-      <c r="G15" s="27">
-        <v>1.3</v>
-      </c>
-      <c r="H15" s="27">
-        <v>3</v>
-      </c>
-      <c r="I15" s="28">
+      <c r="I22" s="28">
+        <v>10</v>
+      </c>
+      <c r="J22" s="29">
+        <v>55</v>
+      </c>
+      <c r="K22" s="29">
+        <v>151.43</v>
+      </c>
+      <c r="L22" s="29">
+        <v>2.75</v>
+      </c>
+      <c r="M22" s="29">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N22" s="28">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="O22" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y22" s="27">
+        <v>2132</v>
+      </c>
+      <c r="Z22" s="34">
+        <f t="shared" si="1"/>
+        <v>7.1027204502814259E-2</v>
+      </c>
+      <c r="AA22" s="29">
+        <v>151.43</v>
+      </c>
+      <c r="AB22" s="11">
+        <f t="shared" si="2"/>
+        <v>2.7532727272727273</v>
+      </c>
+      <c r="AC22" s="29">
+        <v>55</v>
+      </c>
+      <c r="AD22" s="27">
+        <v>19095</v>
+      </c>
+      <c r="AE22" s="11">
+        <f t="shared" si="3"/>
+        <v>2.8803351662738939E-3</v>
+      </c>
+      <c r="AF22" s="11">
+        <f t="shared" si="4"/>
+        <v>2.5797373358348967E-2</v>
+      </c>
+      <c r="AG22" s="28">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AJ22" s="25">
+        <v>21</v>
+      </c>
+      <c r="AK22" s="26">
+        <v>9</v>
+      </c>
+      <c r="AL22" s="29">
+        <v>5.43</v>
+      </c>
+      <c r="AM22" s="29">
+        <v>1.19</v>
+      </c>
+      <c r="AN22" s="10">
+        <f t="shared" si="5"/>
+        <v>4.24</v>
+      </c>
+      <c r="AO22" s="29">
+        <v>151.43</v>
+      </c>
+      <c r="AP22" s="29">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:42">
+      <c r="A23" s="25">
+        <v>22</v>
+      </c>
+      <c r="B23" s="26">
+        <v>10</v>
+      </c>
+      <c r="C23" s="30">
+        <v>19537</v>
+      </c>
+      <c r="D23" s="27">
+        <v>2106</v>
+      </c>
+      <c r="E23" s="28">
+        <v>30.59</v>
+      </c>
+      <c r="F23" s="28">
+        <v>5.35</v>
+      </c>
+      <c r="G23" s="29">
+        <v>1.19</v>
+      </c>
+      <c r="H23" s="28">
+        <v>2</v>
+      </c>
+      <c r="I23" s="29">
         <v>11</v>
       </c>
-      <c r="J15" s="27">
-        <v>84</v>
-      </c>
-      <c r="K15" s="27">
-        <v>248.78</v>
-      </c>
-      <c r="L15" s="28">
-        <v>2.96</v>
-      </c>
-      <c r="M15" s="27">
+      <c r="J23" s="29">
+        <v>55</v>
+      </c>
+      <c r="K23" s="29">
+        <v>152.96</v>
+      </c>
+      <c r="L23" s="29">
+        <v>2.78</v>
+      </c>
+      <c r="M23" s="29">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N15" s="28">
-        <v>0.38</v>
-      </c>
-      <c r="O15" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y15" s="26">
-        <v>3320</v>
-      </c>
-      <c r="AA15" s="27">
-        <v>84</v>
-      </c>
-      <c r="AB15" s="26">
-        <v>22337</v>
-      </c>
-      <c r="AC15" s="10">
-        <f t="shared" si="1"/>
-        <v>3.760576621748668E-3</v>
-      </c>
-      <c r="AD15" s="10">
-        <f t="shared" si="2"/>
-        <v>2.5301204819277109E-2</v>
-      </c>
-      <c r="AE15" s="28">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:32">
-      <c r="A16" s="24">
-        <v>15</v>
-      </c>
-      <c r="B16" s="25">
-        <v>3</v>
-      </c>
-      <c r="C16" s="26">
-        <v>18563</v>
-      </c>
-      <c r="D16" s="26">
-        <v>2642</v>
-      </c>
-      <c r="E16" s="28">
-        <v>31.27</v>
-      </c>
-      <c r="F16" s="28">
-        <v>5.82</v>
-      </c>
-      <c r="G16" s="27">
-        <v>1.17</v>
-      </c>
-      <c r="H16" s="27">
-        <v>3</v>
-      </c>
-      <c r="I16" s="27">
-        <v>9</v>
-      </c>
-      <c r="J16" s="27">
-        <v>80</v>
-      </c>
-      <c r="K16" s="27">
-        <v>210.54</v>
-      </c>
-      <c r="L16" s="27">
-        <v>2.63</v>
-      </c>
-      <c r="M16" s="28">
-        <v>0.08</v>
-      </c>
-      <c r="N16" s="28">
-        <v>0.43</v>
-      </c>
-      <c r="O16" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y16" s="26">
-        <v>2642</v>
-      </c>
-      <c r="AA16" s="27">
-        <v>80</v>
-      </c>
-      <c r="AB16" s="26">
-        <v>18563</v>
-      </c>
-      <c r="AC16" s="10">
-        <f t="shared" si="1"/>
-        <v>4.3096482249636373E-3</v>
-      </c>
-      <c r="AD16" s="10">
-        <f t="shared" si="2"/>
-        <v>3.0280090840272521E-2</v>
-      </c>
-      <c r="AE16" s="28">
-        <v>0.43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:31">
-      <c r="A17" s="24">
-        <v>16</v>
-      </c>
-      <c r="B17" s="25">
-        <v>4</v>
-      </c>
-      <c r="C17" s="26">
-        <v>18151</v>
-      </c>
-      <c r="D17" s="26">
-        <v>2478</v>
-      </c>
-      <c r="E17" s="28">
-        <v>31.62</v>
-      </c>
-      <c r="F17" s="27">
-        <v>5.43</v>
-      </c>
-      <c r="G17" s="28">
-        <v>1.52</v>
-      </c>
-      <c r="H17" s="27">
-        <v>2</v>
-      </c>
-      <c r="I17" s="28">
-        <v>10</v>
-      </c>
-      <c r="J17" s="27">
-        <v>70</v>
-      </c>
-      <c r="K17" s="27">
-        <v>142.65</v>
-      </c>
-      <c r="L17" s="27">
-        <v>2.04</v>
-      </c>
-      <c r="M17" s="27">
-        <v>0.06</v>
-      </c>
-      <c r="N17" s="27">
-        <v>0.39</v>
-      </c>
-      <c r="O17" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y17" s="26">
-        <v>2478</v>
-      </c>
-      <c r="AA17" s="27">
-        <v>70</v>
-      </c>
-      <c r="AB17" s="26">
-        <v>18151</v>
-      </c>
-      <c r="AC17" s="10">
-        <f t="shared" si="1"/>
-        <v>3.8565368299267257E-3</v>
-      </c>
-      <c r="AD17" s="10">
-        <f t="shared" si="2"/>
-        <v>2.8248587570621469E-2</v>
-      </c>
-      <c r="AE17" s="27">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:31">
-      <c r="A18" s="24">
-        <v>17</v>
-      </c>
-      <c r="B18" s="25">
-        <v>5</v>
-      </c>
-      <c r="C18" s="29">
-        <v>20228</v>
-      </c>
-      <c r="D18" s="29">
-        <v>2568</v>
-      </c>
-      <c r="E18" s="28">
-        <v>31.79</v>
-      </c>
-      <c r="F18" s="27">
-        <v>5.24</v>
-      </c>
-      <c r="G18" s="27">
-        <v>1.27</v>
-      </c>
-      <c r="H18" s="27">
-        <v>2</v>
-      </c>
-      <c r="I18" s="27">
-        <v>9</v>
-      </c>
-      <c r="J18" s="28">
-        <v>75</v>
-      </c>
-      <c r="K18" s="28">
-        <v>181.94</v>
-      </c>
-      <c r="L18" s="28">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="M18" s="28">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="N18" s="27">
-        <v>0.37</v>
-      </c>
-      <c r="O18" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y18" s="29">
-        <v>2568</v>
-      </c>
-      <c r="AA18" s="28">
-        <v>75</v>
-      </c>
-      <c r="AB18" s="29">
-        <v>20228</v>
-      </c>
-      <c r="AC18" s="10">
-        <f t="shared" si="1"/>
-        <v>3.7077318568321141E-3</v>
-      </c>
-      <c r="AD18" s="10">
-        <f t="shared" si="2"/>
-        <v>2.9205607476635514E-2</v>
-      </c>
-      <c r="AE18" s="27">
-        <v>0.37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:31">
-      <c r="A19" s="24">
-        <v>18</v>
-      </c>
-      <c r="B19" s="25">
-        <v>6</v>
-      </c>
-      <c r="C19" s="29">
-        <v>25579</v>
-      </c>
-      <c r="D19" s="29">
-        <v>3103</v>
-      </c>
-      <c r="E19" s="28">
-        <v>33</v>
-      </c>
-      <c r="F19" s="28">
-        <v>5.49</v>
-      </c>
-      <c r="G19" s="27">
-        <v>0.83</v>
-      </c>
-      <c r="H19" s="28">
-        <v>3</v>
-      </c>
-      <c r="I19" s="28">
-        <v>11</v>
-      </c>
-      <c r="J19" s="28">
-        <v>76</v>
-      </c>
-      <c r="K19" s="28">
-        <v>204.36</v>
-      </c>
-      <c r="L19" s="28">
-        <v>2.69</v>
-      </c>
-      <c r="M19" s="28">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="N19" s="27">
-        <v>0.3</v>
-      </c>
-      <c r="O19" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y19" s="29">
-        <v>3103</v>
-      </c>
-      <c r="AA19" s="28">
-        <v>76</v>
-      </c>
-      <c r="AB19" s="29">
-        <v>25579</v>
-      </c>
-      <c r="AC19" s="10">
-        <f t="shared" si="1"/>
-        <v>2.9711873020837405E-3</v>
-      </c>
-      <c r="AD19" s="10">
-        <f t="shared" si="2"/>
-        <v>2.4492426683854335E-2</v>
-      </c>
-      <c r="AE19" s="27">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:31">
-      <c r="A20" s="24">
-        <v>19</v>
-      </c>
-      <c r="B20" s="25">
-        <v>7</v>
-      </c>
-      <c r="C20" s="26">
-        <v>20261</v>
-      </c>
-      <c r="D20" s="26">
-        <v>2357</v>
-      </c>
-      <c r="E20" s="27">
-        <v>31.19</v>
-      </c>
-      <c r="F20" s="27">
-        <v>5.41</v>
-      </c>
-      <c r="G20" s="28">
-        <v>1.36</v>
-      </c>
-      <c r="H20" s="28">
-        <v>3</v>
-      </c>
-      <c r="I20" s="27">
-        <v>10</v>
-      </c>
-      <c r="J20" s="27">
-        <v>60</v>
-      </c>
-      <c r="K20" s="27">
-        <v>159.30000000000001</v>
-      </c>
-      <c r="L20" s="27">
-        <v>2.66</v>
-      </c>
-      <c r="M20" s="28">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="N20" s="27">
-        <v>0.3</v>
-      </c>
-      <c r="O20" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y20" s="26">
-        <v>2357</v>
-      </c>
-      <c r="AA20" s="27">
-        <v>60</v>
-      </c>
-      <c r="AB20" s="26">
-        <v>20261</v>
-      </c>
-      <c r="AC20" s="10">
-        <f t="shared" si="1"/>
-        <v>2.9613543260451113E-3</v>
-      </c>
-      <c r="AD20" s="10">
-        <f t="shared" si="2"/>
-        <v>2.5456088247772592E-2</v>
-      </c>
-      <c r="AE20" s="27">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:31">
-      <c r="A21" s="24">
-        <v>20</v>
-      </c>
-      <c r="B21" s="25">
-        <v>8</v>
-      </c>
-      <c r="C21" s="26">
-        <v>18517</v>
-      </c>
-      <c r="D21" s="26">
-        <v>2145</v>
-      </c>
-      <c r="E21" s="28">
-        <v>31.74</v>
-      </c>
-      <c r="F21" s="27">
-        <v>5.2</v>
-      </c>
-      <c r="G21" s="27">
-        <v>0.82</v>
-      </c>
-      <c r="H21" s="28">
-        <v>4</v>
-      </c>
-      <c r="I21" s="27">
-        <v>10</v>
-      </c>
-      <c r="J21" s="27">
-        <v>54</v>
-      </c>
-      <c r="K21" s="27">
-        <v>138.51</v>
-      </c>
-      <c r="L21" s="27">
-        <v>2.57</v>
-      </c>
-      <c r="M21" s="27">
-        <v>0.06</v>
-      </c>
-      <c r="N21" s="27">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="O21" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y21" s="26">
-        <v>2145</v>
-      </c>
-      <c r="AA21" s="27">
-        <v>54</v>
-      </c>
-      <c r="AB21" s="26">
-        <v>18517</v>
-      </c>
-      <c r="AC21" s="10">
-        <f t="shared" si="1"/>
-        <v>2.9162391316087917E-3</v>
-      </c>
-      <c r="AD21" s="10">
-        <f t="shared" si="2"/>
-        <v>2.5174825174825177E-2</v>
-      </c>
-      <c r="AE21" s="27">
-        <v>0.28999999999999998</v>
-      </c>
-    </row>
-    <row r="22" spans="1:31">
-      <c r="A22" s="24">
-        <v>21</v>
-      </c>
-      <c r="B22" s="25">
-        <v>9</v>
-      </c>
-      <c r="C22" s="26">
-        <v>19095</v>
-      </c>
-      <c r="D22" s="26">
-        <v>2132</v>
-      </c>
-      <c r="E22" s="27">
-        <v>31.26</v>
-      </c>
-      <c r="F22" s="28">
-        <v>5.43</v>
-      </c>
-      <c r="G22" s="28">
-        <v>1.19</v>
-      </c>
-      <c r="H22" s="27">
-        <v>2</v>
-      </c>
-      <c r="I22" s="27">
-        <v>10</v>
-      </c>
-      <c r="J22" s="28">
-        <v>55</v>
-      </c>
-      <c r="K22" s="28">
-        <v>151.43</v>
-      </c>
-      <c r="L22" s="28">
-        <v>2.75</v>
-      </c>
-      <c r="M22" s="28">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="N22" s="27">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="O22" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y22" s="26">
-        <v>2132</v>
-      </c>
-      <c r="AA22" s="28">
-        <v>55</v>
-      </c>
-      <c r="AB22" s="26">
-        <v>19095</v>
-      </c>
-      <c r="AC22" s="10">
-        <f t="shared" si="1"/>
-        <v>2.8803351662738939E-3</v>
-      </c>
-      <c r="AD22" s="10">
-        <f t="shared" si="2"/>
-        <v>2.5797373358348967E-2</v>
-      </c>
-      <c r="AE22" s="27">
-        <v>0.28999999999999998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:31">
-      <c r="A23" s="24">
-        <v>22</v>
-      </c>
-      <c r="B23" s="25">
-        <v>10</v>
-      </c>
-      <c r="C23" s="29">
-        <v>19537</v>
-      </c>
-      <c r="D23" s="26">
-        <v>2106</v>
-      </c>
-      <c r="E23" s="27">
-        <v>30.59</v>
-      </c>
-      <c r="F23" s="27">
-        <v>5.35</v>
-      </c>
-      <c r="G23" s="28">
-        <v>1.19</v>
-      </c>
-      <c r="H23" s="27">
-        <v>2</v>
-      </c>
-      <c r="I23" s="28">
-        <v>11</v>
-      </c>
-      <c r="J23" s="28">
-        <v>55</v>
-      </c>
-      <c r="K23" s="28">
-        <v>152.96</v>
-      </c>
-      <c r="L23" s="28">
-        <v>2.78</v>
-      </c>
-      <c r="M23" s="28">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="N23" s="27">
+      <c r="N23" s="28">
         <v>0.28000000000000003</v>
       </c>
       <c r="O23" t="s">
         <v>29</v>
       </c>
-      <c r="Y23" s="26">
+      <c r="Y23" s="27">
         <v>2106</v>
       </c>
-      <c r="AA23" s="28">
+      <c r="Z23" s="34">
+        <f t="shared" si="1"/>
+        <v>7.2630579297245965E-2</v>
+      </c>
+      <c r="AA23" s="29">
+        <v>152.96</v>
+      </c>
+      <c r="AB23" s="11">
+        <f t="shared" si="2"/>
+        <v>2.7810909090909091</v>
+      </c>
+      <c r="AC23" s="29">
         <v>55</v>
       </c>
-      <c r="AB23" s="29">
+      <c r="AD23" s="30">
         <v>19537</v>
       </c>
-      <c r="AC23" s="10">
-        <f t="shared" si="1"/>
+      <c r="AE23" s="11">
+        <f t="shared" si="3"/>
         <v>2.8151712135947179E-3</v>
       </c>
-      <c r="AD23" s="10">
-        <f t="shared" si="2"/>
+      <c r="AF23" s="11">
+        <f t="shared" si="4"/>
         <v>2.6115859449192782E-2</v>
       </c>
-      <c r="AE23" s="27">
+      <c r="AG23" s="28">
         <v>0.28000000000000003</v>
       </c>
+      <c r="AJ23" s="25">
+        <v>22</v>
+      </c>
+      <c r="AK23" s="26">
+        <v>10</v>
+      </c>
+      <c r="AL23" s="28">
+        <v>5.35</v>
+      </c>
+      <c r="AM23" s="29">
+        <v>1.19</v>
+      </c>
+      <c r="AN23" s="10">
+        <f t="shared" si="5"/>
+        <v>4.16</v>
+      </c>
+      <c r="AO23" s="29">
+        <v>152.96</v>
+      </c>
+      <c r="AP23" s="29">
+        <v>2.78</v>
+      </c>
     </row>
-    <row r="24" spans="1:31">
-      <c r="A24" s="24">
+    <row r="24" spans="1:42">
+      <c r="A24" s="25">
         <v>23</v>
       </c>
-      <c r="B24" s="25">
+      <c r="B24" s="26">
         <v>11</v>
       </c>
-      <c r="C24" s="29">
+      <c r="C24" s="30">
         <v>24746</v>
       </c>
-      <c r="D24" s="29">
+      <c r="D24" s="30">
         <v>2635</v>
       </c>
-      <c r="E24" s="28">
+      <c r="E24" s="29">
         <v>32.49</v>
       </c>
-      <c r="F24" s="28">
+      <c r="F24" s="29">
         <v>5.71</v>
       </c>
-      <c r="G24" s="28">
+      <c r="G24" s="29">
         <v>1.25</v>
       </c>
-      <c r="H24" s="27">
+      <c r="H24" s="28">
         <v>2</v>
       </c>
-      <c r="I24" s="27">
+      <c r="I24" s="28">
         <v>9</v>
       </c>
-      <c r="J24" s="27">
+      <c r="J24" s="28">
         <v>54</v>
       </c>
-      <c r="K24" s="28">
+      <c r="K24" s="29">
         <v>183.02</v>
       </c>
-      <c r="L24" s="28">
+      <c r="L24" s="29">
         <v>3.39</v>
       </c>
-      <c r="M24" s="28">
+      <c r="M24" s="29">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N24" s="27">
+      <c r="N24" s="28">
         <v>0.22</v>
       </c>
       <c r="O24" t="s">
         <v>29</v>
       </c>
-      <c r="Y24" s="29">
+      <c r="Y24" s="30">
         <v>2635</v>
       </c>
-      <c r="AA24" s="27">
+      <c r="Z24" s="34">
+        <f t="shared" si="1"/>
+        <v>6.9457305502846303E-2</v>
+      </c>
+      <c r="AA24" s="29">
+        <v>183.02</v>
+      </c>
+      <c r="AB24" s="11">
+        <f t="shared" si="2"/>
+        <v>3.3892592592592594</v>
+      </c>
+      <c r="AC24" s="28">
         <v>54</v>
       </c>
-      <c r="AB24" s="29">
+      <c r="AD24" s="30">
         <v>24746</v>
       </c>
-      <c r="AC24" s="10">
-        <f t="shared" si="1"/>
+      <c r="AE24" s="11">
+        <f t="shared" si="3"/>
         <v>2.1821708558959025E-3</v>
       </c>
-      <c r="AD24" s="10">
-        <f t="shared" si="2"/>
+      <c r="AF24" s="11">
+        <f t="shared" si="4"/>
         <v>2.049335863377609E-2</v>
       </c>
-      <c r="AE24" s="27">
+      <c r="AG24" s="28">
         <v>0.22</v>
       </c>
+      <c r="AJ24" s="25">
+        <v>23</v>
+      </c>
+      <c r="AK24" s="26">
+        <v>11</v>
+      </c>
+      <c r="AL24" s="29">
+        <v>5.71</v>
+      </c>
+      <c r="AM24" s="29">
+        <v>1.25</v>
+      </c>
+      <c r="AN24" s="10">
+        <f t="shared" si="5"/>
+        <v>4.46</v>
+      </c>
+      <c r="AO24" s="29">
+        <v>183.02</v>
+      </c>
+      <c r="AP24" s="29">
+        <v>3.39</v>
+      </c>
     </row>
-    <row r="25" spans="1:31">
-      <c r="A25" s="24">
+    <row r="25" spans="1:42">
+      <c r="A25" s="25">
         <v>24</v>
       </c>
-      <c r="B25" s="25">
+      <c r="B25" s="26">
         <v>12</v>
       </c>
-      <c r="C25" s="29">
+      <c r="C25" s="30">
         <v>36494</v>
       </c>
-      <c r="D25" s="29">
+      <c r="D25" s="30">
         <v>3595</v>
       </c>
-      <c r="E25" s="28">
+      <c r="E25" s="29">
         <v>32.979999999999997</v>
       </c>
-      <c r="F25" s="27">
+      <c r="F25" s="28">
         <v>5.04</v>
       </c>
-      <c r="G25" s="27">
+      <c r="G25" s="28">
         <v>1.05</v>
       </c>
-      <c r="H25" s="28">
+      <c r="H25" s="29">
         <v>3</v>
       </c>
-      <c r="I25" s="27">
+      <c r="I25" s="28">
         <v>9</v>
       </c>
-      <c r="J25" s="27">
+      <c r="J25" s="28">
         <v>45</v>
       </c>
-      <c r="K25" s="28">
+      <c r="K25" s="29">
         <v>260.37</v>
       </c>
-      <c r="L25" s="28">
+      <c r="L25" s="29">
         <v>5.79</v>
       </c>
-      <c r="M25" s="28">
+      <c r="M25" s="29">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N25" s="27">
+      <c r="N25" s="28">
         <v>0.12</v>
       </c>
       <c r="O25" t="s">
         <v>29</v>
       </c>
-      <c r="Y25" s="29">
+      <c r="Y25" s="30">
         <v>3595</v>
       </c>
-      <c r="AA25" s="27">
+      <c r="Z25" s="34">
+        <f t="shared" si="1"/>
+        <v>7.2425591098748257E-2</v>
+      </c>
+      <c r="AA25" s="29">
+        <v>260.37</v>
+      </c>
+      <c r="AB25" s="11">
+        <f t="shared" si="2"/>
+        <v>5.7860000000000005</v>
+      </c>
+      <c r="AC25" s="28">
         <v>45</v>
       </c>
-      <c r="AB25" s="29">
+      <c r="AD25" s="30">
         <v>36494</v>
       </c>
-      <c r="AC25" s="10">
+      <c r="AE25" s="11">
+        <f t="shared" si="3"/>
+        <v>1.2330794103140243E-3</v>
+      </c>
+      <c r="AF25" s="11">
+        <f t="shared" si="4"/>
+        <v>1.2517385257301807E-2</v>
+      </c>
+      <c r="AG25" s="28">
+        <v>0.12</v>
+      </c>
+      <c r="AJ25" s="25">
+        <v>24</v>
+      </c>
+      <c r="AK25" s="26">
+        <v>12</v>
+      </c>
+      <c r="AL25" s="28">
+        <v>5.04</v>
+      </c>
+      <c r="AM25" s="28">
+        <v>1.05</v>
+      </c>
+      <c r="AN25" s="10">
+        <f t="shared" si="5"/>
+        <v>3.99</v>
+      </c>
+      <c r="AO25" s="29">
+        <v>260.37</v>
+      </c>
+      <c r="AP25" s="29">
+        <v>5.79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:42">
+      <c r="A26" s="20">
+        <v>25</v>
+      </c>
+      <c r="B26" s="21">
+        <v>1</v>
+      </c>
+      <c r="C26" s="22">
+        <v>40174</v>
+      </c>
+      <c r="D26" s="22">
+        <v>3881</v>
+      </c>
+      <c r="E26" s="24">
+        <v>31.81</v>
+      </c>
+      <c r="F26" s="23">
+        <v>5.17</v>
+      </c>
+      <c r="G26" s="24">
+        <v>0.86</v>
+      </c>
+      <c r="H26" s="24">
+        <v>2</v>
+      </c>
+      <c r="I26" s="23">
+        <v>10</v>
+      </c>
+      <c r="J26" s="24">
+        <v>39</v>
+      </c>
+      <c r="K26" s="24">
+        <v>196.14</v>
+      </c>
+      <c r="L26" s="24">
+        <v>5.03</v>
+      </c>
+      <c r="M26" s="24">
+        <v>0.05</v>
+      </c>
+      <c r="N26" s="24">
+        <v>0.1</v>
+      </c>
+      <c r="O26" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y26" s="22">
+        <v>3881</v>
+      </c>
+      <c r="Z26" s="34">
         <f t="shared" si="1"/>
-        <v>1.2330794103140243E-3</v>
-      </c>
-      <c r="AD25" s="10">
+        <v>5.0538520999742334E-2</v>
+      </c>
+      <c r="AA26" s="24">
+        <v>196.14</v>
+      </c>
+      <c r="AB26" s="11">
         <f t="shared" si="2"/>
-        <v>1.2517385257301807E-2</v>
-      </c>
-      <c r="AE25" s="27">
-        <v>0.12</v>
+        <v>5.0292307692307689</v>
+      </c>
+      <c r="AC26" s="24">
+        <v>39</v>
+      </c>
+      <c r="AD26" s="22">
+        <v>40174</v>
+      </c>
+      <c r="AE26" s="11">
+        <f t="shared" si="3"/>
+        <v>9.7077711953004432E-4</v>
+      </c>
+      <c r="AF26" s="11">
+        <f t="shared" si="4"/>
+        <v>1.0048956454522031E-2</v>
+      </c>
+      <c r="AG26" s="24">
+        <v>0.1</v>
+      </c>
+      <c r="AJ26" s="20">
+        <v>25</v>
+      </c>
+      <c r="AK26" s="21">
+        <v>1</v>
+      </c>
+      <c r="AL26" s="23">
+        <v>5.17</v>
+      </c>
+      <c r="AM26" s="24">
+        <v>0.86</v>
+      </c>
+      <c r="AN26" s="10">
+        <f t="shared" si="5"/>
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="AO26" s="24">
+        <v>196.14</v>
+      </c>
+      <c r="AP26" s="24">
+        <v>5.03</v>
       </c>
     </row>
-    <row r="26" spans="1:31">
-      <c r="A26" s="19">
-        <v>25</v>
-      </c>
-      <c r="B26" s="20">
-        <v>1</v>
-      </c>
-      <c r="C26" s="21">
-        <v>40174</v>
-      </c>
-      <c r="D26" s="21">
-        <v>3881</v>
-      </c>
-      <c r="E26" s="23">
-        <v>31.81</v>
-      </c>
-      <c r="F26" s="22">
-        <v>5.17</v>
-      </c>
-      <c r="G26" s="23">
-        <v>0.86</v>
-      </c>
-      <c r="H26" s="23">
-        <v>2</v>
-      </c>
-      <c r="I26" s="22">
-        <v>10</v>
-      </c>
-      <c r="J26" s="23">
-        <v>39</v>
-      </c>
-      <c r="K26" s="23">
-        <v>196.14</v>
-      </c>
-      <c r="L26" s="23">
-        <v>5.03</v>
-      </c>
-      <c r="M26" s="23">
-        <v>0.05</v>
-      </c>
-      <c r="N26" s="23">
-        <v>0.1</v>
-      </c>
-      <c r="O26" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y26" s="21">
-        <v>3881</v>
-      </c>
-      <c r="AA26" s="23">
-        <v>39</v>
-      </c>
-      <c r="AB26" s="21">
-        <v>40174</v>
-      </c>
-      <c r="AC26" s="10">
-        <f t="shared" si="1"/>
-        <v>9.7077711953004432E-4</v>
-      </c>
-      <c r="AD26" s="10">
-        <f t="shared" si="2"/>
-        <v>1.0048956454522031E-2</v>
-      </c>
-      <c r="AE26" s="23">
-        <v>0.1</v>
-      </c>
+    <row r="27" spans="1:42">
+      <c r="AN27" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/agate3.xlsx
+++ b/agate3.xlsx
@@ -162,13 +162,13 @@
     <t>"Not directly responding to ads</t>
   </si>
   <si>
-    <t>GR/PU</t>
-  </si>
-  <si>
     <t>GR/DAU</t>
   </si>
   <si>
     <t>Difference 7-30</t>
+  </si>
+  <si>
+    <t>GR/PU (ARPPU)</t>
   </si>
 </sst>
 </file>
@@ -2162,8 +2162,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.281808408882435"/>
           <c:y val="0.867994539247679"/>
-          <c:w val="0.718191602720789"/>
-          <c:h val="0.0703240049773535"/>
+          <c:w val="0.718191571988512"/>
+          <c:h val="0.0713560711398092"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2916,8 +2916,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.0977636828187882"/>
           <c:y val="0.90651304845806"/>
-          <c:w val="0.306986583719984"/>
-          <c:h val="0.0703240049773535"/>
+          <c:w val="0.306104799234146"/>
+          <c:h val="0.0713560711398092"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -3670,8 +3670,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.440086851715174"/>
           <c:y val="0.89950968160323"/>
-          <c:w val="0.370404044810106"/>
-          <c:h val="0.0703240049773535"/>
+          <c:w val="0.369340100789336"/>
+          <c:h val="0.0713560711398092"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -3751,8 +3751,8 @@
           <c:h val="0.694659474561207"/>
         </c:manualLayout>
       </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -3768,96 +3768,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:ln w="47625">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$L$2:$L$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>2.79</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.56</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.93</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.09</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.19</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.29</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.09</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.15</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.98</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.75</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.37</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.67</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.7</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.96</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.63</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.04</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2.43</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2.69</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2.66</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2.57</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2.75</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2.78</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>3.39</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>5.79</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>5.03</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          <c:cat>
             <c:numRef>
               <c:f>Sheet1!$G$2:$G$26</c:f>
               <c:numCache>
@@ -3940,7 +3851,91 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>2.24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.36</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.61</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.34</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.51</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.49</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.31</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.17</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.52</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.27</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.36</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.19</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.19</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.86</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
@@ -3951,11 +3946,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2120248024"/>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2125088520"/>
         <c:axId val="-2117399496"/>
-      </c:scatterChart>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
@@ -3971,96 +3968,91 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:ln w="47625">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:xVal>
+          <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$L$2:$L$26</c:f>
+              <c:f>Sheet1!$G$2:$G$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>2.79</c:v>
+                  <c:v>2.24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.56</c:v>
+                  <c:v>2.36</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.93</c:v>
+                  <c:v>1.61</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.09</c:v>
+                  <c:v>1.9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.19</c:v>
+                  <c:v>2.05</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.29</c:v>
+                  <c:v>1.7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.09</c:v>
+                  <c:v>1.4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.15</c:v>
+                  <c:v>1.35</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.98</c:v>
+                  <c:v>1.34</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.75</c:v>
+                  <c:v>1.51</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.37</c:v>
+                  <c:v>1.49</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.67</c:v>
+                  <c:v>0.11</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.7</c:v>
+                  <c:v>1.31</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.96</c:v>
+                  <c:v>1.3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.63</c:v>
+                  <c:v>1.17</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.04</c:v>
+                  <c:v>1.52</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.43</c:v>
+                  <c:v>1.27</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.69</c:v>
+                  <c:v>0.83</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.66</c:v>
+                  <c:v>1.36</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.57</c:v>
+                  <c:v>0.82</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.75</c:v>
+                  <c:v>1.19</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.78</c:v>
+                  <c:v>1.19</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.39</c:v>
+                  <c:v>1.25</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.79</c:v>
+                  <c:v>1.05</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5.03</c:v>
+                  <c:v>0.86</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>Sheet1!$F$2:$F$26</c:f>
               <c:numCache>
@@ -4143,7 +4135,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
@@ -4154,11 +4146,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2124709256"/>
-        <c:axId val="-2118245672"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="-2120248024"/>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2127062920"/>
+        <c:axId val="-2121695528"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2125088520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4190,8 +4184,11 @@
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="-2117399496"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:valAx>
         <c:axId val="-2117399496"/>
         <c:scaling>
@@ -4228,12 +4225,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2120248024"/>
+        <c:crossAx val="-2125088520"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2118245672"/>
+        <c:axId val="-2121695528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4243,12 +4240,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2124709256"/>
+        <c:crossAx val="-2127062920"/>
         <c:crosses val="max"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
-      <c:valAx>
-        <c:axId val="-2124709256"/>
+      <c:catAx>
+        <c:axId val="-2127062920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4258,9 +4255,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2118245672"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:crossAx val="-2121695528"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
@@ -4270,7 +4270,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.440086851715174"/>
           <c:y val="0.89950968160323"/>
-          <c:w val="0.295459711359572"/>
+          <c:w val="0.352784928562397"/>
           <c:h val="0.0713560711398092"/>
         </c:manualLayout>
       </c:layout>
@@ -4285,6 +4285,1460 @@
           <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AO$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Gross Revenu</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$AJ$2:$AJ$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AO$2:$AO$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1955.34</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1216.28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1294.07</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1190.11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1255.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1145.08</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>772.78</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>472.34</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>415.48</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>368.48</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>445.96</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>374.79</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>270.06</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>248.78</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>210.54</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>142.65</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>181.94</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>204.36</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>159.3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>138.51</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>151.43</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>152.96</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>183.02</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>260.37</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>196.14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2130400056"/>
+        <c:axId val="2134218808"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AN$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Difference 7-30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$AJ$2:$AJ$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AN$2:$AN$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>5.71</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.58</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.82</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.41</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.33</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.31</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.34</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.319999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.08</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.48</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.78</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.65</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.91</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.97</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.66</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.05</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.38</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.24</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.16</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.46</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.99</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AM$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>D30 Retention</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$AJ$2:$AJ$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AM$2:$AM$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>2.24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.36</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.61</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.34</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.51</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.49</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.31</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.17</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.52</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.27</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.36</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.19</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.19</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.86</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AL$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>D7 Retention</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$AJ$2:$AJ$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AL$2:$AL$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>7.95</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.71</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.48</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.87</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.73</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.66</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.68</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.81</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.81</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.19</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.79</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.08</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.82</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.43</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.24</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.49</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.41</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.43</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.35</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.71</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.04</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2115606136"/>
+        <c:axId val="-2115610152"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2130400056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2134218808"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2134218808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2130400056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2115610152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:minorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2115606136"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="-2115606136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2115610152"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Gross Revenue 17</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$14:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$2:$K$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1955.34</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1216.28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1294.07</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1190.11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1255.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1145.08</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>772.78</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>472.34</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>415.48</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>368.48</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>445.96</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>374.79</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Gross Revenue 18</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$14:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$14:$K$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>270.06</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>248.78</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>210.54</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>142.65</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>181.94</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>204.36</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>159.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>138.51</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>151.43</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>152.96</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>183.02</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>260.37</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2124192760"/>
+        <c:axId val="2134817896"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Conversion Rate 17</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$14:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$2:$N$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.58</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.56</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.59</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Conversion Rate 18</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$14:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$14:$N$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.29</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.29</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.28</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2120792136"/>
+        <c:axId val="-2120253240"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2124192760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2134817896"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2134817896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2124192760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2120253240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2120792136"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="-2120792136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2120253240"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -4365,14 +5819,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:colOff>202096</xdr:colOff>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>474297</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:colOff>396993</xdr:colOff>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>108927</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4396,15 +5850,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>827157</xdr:colOff>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>271097</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:colOff>193793</xdr:colOff>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>121627</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4428,16 +5882,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>342349</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>165652</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>316375</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>7326</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>636637</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>172978</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4453,6 +5907,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>651563</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>180008</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>662607</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>33129</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Chart 12"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>320261</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>135835</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>1170609</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>176694</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Chart 14"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4785,8 +6299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="AO29" sqref="AO29"/>
+    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="N55" sqref="N55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4871,13 +6385,13 @@
         <v>1</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AC1" s="32" t="s">
         <v>6</v>
@@ -4910,7 +6424,7 @@
         <v>4</v>
       </c>
       <c r="AN1" s="35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AO1" s="1" t="s">
         <v>7</v>

--- a/agate3.xlsx
+++ b/agate3.xlsx
@@ -216,7 +216,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -244,6 +244,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -278,7 +284,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -293,6 +299,83 @@
         <color auto="1"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -355,7 +438,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -365,9 +448,9 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -376,30 +459,62 @@
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="57">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -740,14 +855,27 @@
           <c:tx>
             <c:v>ConvRate17</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
           <c:marker>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="tx2">
-                  <a:lumMod val="40000"/>
-                  <a:lumOff val="60000"/>
-                </a:schemeClr>
+                <a:schemeClr val="lt1"/>
               </a:solidFill>
+              <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
             </c:spPr>
           </c:marker>
           <c:cat>
@@ -848,14 +976,27 @@
           <c:tx>
             <c:v>ConvRate18</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
           <c:marker>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
+                <a:schemeClr val="lt1"/>
               </a:solidFill>
+              <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
             </c:spPr>
           </c:marker>
           <c:cat>
@@ -1154,7 +1295,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1400"/>
-              <a:t>Retention</a:t>
+              <a:t>Retention vs Gross Rev</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1163,8 +1304,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.442309155413009"/>
-          <c:y val="0.00332687497914844"/>
+          <c:x val="0.344271315097965"/>
+          <c:y val="0.02452648846692"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -1176,8 +1317,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.132345329201262"/>
-          <c:y val="0.0751149172203502"/>
+          <c:x val="0.13601560609071"/>
+          <c:y val="0.139070381633687"/>
           <c:w val="0.772552196140933"/>
           <c:h val="0.694659474561207"/>
         </c:manualLayout>
@@ -1186,10 +1327,373 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:idx val="4"/>
+          <c:order val="2"/>
           <c:tx>
-            <c:v>D1R17</c:v>
+            <c:v>D7R17</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$14:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>7.95</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.71</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.48</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.87</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.73</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.66</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.68</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.81</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.81</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>D7R18</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$14:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$14:$F$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>5.79</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.08</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.82</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.43</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.41</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.43</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.35</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.71</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.04</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>D30R17</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$14:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2.24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.36</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.61</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.34</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.51</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.49</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>D30R18</c:v>
           </c:tx>
           <c:cat>
             <c:numRef>
@@ -1238,143 +1742,45 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$13</c:f>
+              <c:f>Sheet1!$G$14:$G$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>35.92</c:v>
+                  <c:v>1.31</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>34.82</c:v>
+                  <c:v>1.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34.87</c:v>
+                  <c:v>1.17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34.84</c:v>
+                  <c:v>1.52</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>34.72</c:v>
+                  <c:v>1.27</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>34.84</c:v>
+                  <c:v>0.83</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32.74</c:v>
+                  <c:v>1.36</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>32.07</c:v>
+                  <c:v>0.82</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>30.53</c:v>
+                  <c:v>1.19</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>30.89</c:v>
+                  <c:v>1.19</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>31.38</c:v>
+                  <c:v>1.25</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>29.15</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>D1R18</c:v>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$14:$B$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$E$14:$E$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>31.99</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>31.17</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>31.27</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>31.62</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>31.79</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>33.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>31.19</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>31.74</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>31.26</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>30.59</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>32.49</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>32.98</c:v>
+                  <c:v>1.05</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1399,18 +1805,35 @@
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="0"/>
           <c:tx>
-            <c:v>ConvRate17</c:v>
+            <c:v>GrossRev17</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
           <c:marker>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="tx2">
-                  <a:lumMod val="40000"/>
-                  <a:lumOff val="60000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
+              <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
             </c:spPr>
           </c:marker>
           <c:cat>
@@ -1460,45 +1883,45 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$2:$N$13</c:f>
+              <c:f>Sheet1!$K$2:$K$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.44</c:v>
+                  <c:v>1955.34</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.7</c:v>
+                  <c:v>1216.28</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.58</c:v>
+                  <c:v>1294.07</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.56</c:v>
+                  <c:v>1190.11</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.48</c:v>
+                  <c:v>1255.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.94</c:v>
+                  <c:v>1145.08</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.36</c:v>
+                  <c:v>772.78</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.47</c:v>
+                  <c:v>472.34</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.6</c:v>
+                  <c:v>415.48</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.63</c:v>
+                  <c:v>368.48</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.32</c:v>
+                  <c:v>445.96</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.59</c:v>
+                  <c:v>374.79</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1507,18 +1930,35 @@
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:order val="1"/>
           <c:tx>
-            <c:v>ConvRate18</c:v>
+            <c:v>GrossRev18</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
           <c:marker>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
+              <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
             </c:spPr>
           </c:marker>
           <c:cat>
@@ -1568,437 +2008,45 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$14:$N$25</c:f>
+              <c:f>Sheet1!$K$14:$K$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.31</c:v>
+                  <c:v>270.06</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.38</c:v>
+                  <c:v>248.78</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.43</c:v>
+                  <c:v>210.54</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.39</c:v>
+                  <c:v>142.65</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.37</c:v>
+                  <c:v>181.94</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.3</c:v>
+                  <c:v>204.36</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.3</c:v>
+                  <c:v>159.3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.29</c:v>
+                  <c:v>138.51</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.29</c:v>
+                  <c:v>151.43</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.28</c:v>
+                  <c:v>152.96</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.22</c:v>
+                  <c:v>183.02</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.12</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:v>D7R17</c:v>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$14:$B$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$F$2:$F$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>7.95</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.26</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.71</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.48</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.87</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.11</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.73</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.66</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.68</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.81</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5.81</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5.19</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:v>D7R18</c:v>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$14:$B$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$F$14:$F$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>5.79</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.08</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.82</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.43</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.24</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.49</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.41</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.43</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.35</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5.71</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5.04</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:v>D30R17</c:v>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$14:$B$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$G$2:$G$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>2.24</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.36</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.61</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.05</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.35</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.34</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.51</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.49</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.11</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:v>D30R18</c:v>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$14:$B$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$G$14:$G$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1.31</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.17</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.52</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.27</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.83</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.36</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.82</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.19</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.19</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.25</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.05</c:v>
+                  <c:v>260.37</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2015,8 +2063,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2124679848"/>
-        <c:axId val="-2124803224"/>
+        <c:axId val="-2102573512"/>
+        <c:axId val="-2122054552"/>
       </c:lineChart>
       <c:catAx>
         <c:axId val="-2124746840"/>
@@ -2042,7 +2090,14 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.496309954301609"/>
+              <c:y val="0.884704437425336"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2096,47 +2151,23 @@
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2124803224"/>
+        <c:axId val="-2122054552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
-        <c:minorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Conversion</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Rate</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
+        <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2124679848"/>
+        <c:crossAx val="-2102573512"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-2124679848"/>
+        <c:axId val="-2102573512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2146,8 +2177,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2124803224"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="-2122054552"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2160,10 +2190,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.281808408882435"/>
-          <c:y val="0.867994539247679"/>
-          <c:w val="0.718191571988512"/>
-          <c:h val="0.0713560711398092"/>
+          <c:x val="0.0744352726550223"/>
+          <c:y val="0.928396892319486"/>
+          <c:w val="0.791939364542783"/>
+          <c:h val="0.068974292267993"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2916,8 +2946,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.0977636828187882"/>
           <c:y val="0.90651304845806"/>
-          <c:w val="0.306104799234146"/>
-          <c:h val="0.0713560711398092"/>
+          <c:w val="0.308187714652708"/>
+          <c:h val="0.0689743295736163"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -3670,8 +3700,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.440086851715174"/>
           <c:y val="0.89950968160323"/>
-          <c:w val="0.369340100789336"/>
-          <c:h val="0.0713560711398092"/>
+          <c:w val="0.371853306046334"/>
+          <c:h val="0.068974292267993"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -4270,8 +4300,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.440086851715174"/>
           <c:y val="0.89950968160323"/>
-          <c:w val="0.352784928562397"/>
-          <c:h val="0.0713560711398092"/>
+          <c:w val="0.355454234941848"/>
+          <c:h val="0.0689743109207996"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -4323,7 +4353,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AO$1</c:f>
+              <c:f>Sheet1!$AP$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4337,7 +4367,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$AJ$2:$AJ$26</c:f>
+              <c:f>Sheet1!$AK$2:$AK$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -4421,7 +4451,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AO$2:$AO$26</c:f>
+              <c:f>Sheet1!$AP$2:$AP$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -4526,7 +4556,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AN$1</c:f>
+              <c:f>Sheet1!$AO$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4540,7 +4570,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$AJ$2:$AJ$26</c:f>
+              <c:f>Sheet1!$AK$2:$AK$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -4624,7 +4654,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AN$2:$AN$26</c:f>
+              <c:f>Sheet1!$AO$2:$AO$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -4713,7 +4743,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AM$1</c:f>
+              <c:f>Sheet1!$AN$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4727,7 +4757,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$AJ$2:$AJ$26</c:f>
+              <c:f>Sheet1!$AK$2:$AK$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -4811,7 +4841,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AM$2:$AM$27</c:f>
+              <c:f>Sheet1!$AN$2:$AN$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -4900,7 +4930,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AL$1</c:f>
+              <c:f>Sheet1!$AM$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4914,7 +4944,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$AJ$2:$AJ$26</c:f>
+              <c:f>Sheet1!$AK$2:$AK$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -4998,7 +5028,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AL$2:$AL$26</c:f>
+              <c:f>Sheet1!$AM$2:$AM$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -5194,9 +5224,45 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Gross Revenue vs Conversion rate</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.242394561048855"/>
+          <c:y val="0.00352005028960036"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0904690738788153"/>
+          <c:y val="0.135873941178574"/>
+          <c:w val="0.814319410138041"/>
+          <c:h val="0.661971233705562"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -5675,6 +5741,25 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Month</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -5694,6 +5779,25 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Gross Revenue</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -5709,6 +5813,30 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Conversion</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Rate</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -5739,6 +5867,956 @@
       <c:legendPos val="b"/>
       <c:layout/>
       <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400"/>
+              <a:t>Retention vs Conversio Rate</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.458825569423622"/>
+          <c:y val="0.0210921085394069"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13601560609071"/>
+          <c:y val="0.139070381633687"/>
+          <c:w val="0.772552196140933"/>
+          <c:h val="0.694659474561207"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>D7R17</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$14:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>7.95</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.71</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.48</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.87</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.73</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.66</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.68</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.81</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.81</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>D7R18</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$14:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$14:$F$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>5.79</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.08</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.82</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.43</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.41</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.43</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.35</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.71</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.04</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>D30R17</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$14:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2.24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.36</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.61</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.34</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.51</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.49</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>D30R18</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$14:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$14:$G$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.31</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.52</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.27</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.36</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.19</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.19</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2134029128"/>
+        <c:axId val="-2126009048"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>ConvRate17</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$14:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$2:$N$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.58</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.56</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.59</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>ConvRate18</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$14:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$14:$N$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.29</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.29</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.28</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2143982440"/>
+        <c:axId val="-2122121832"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2134029128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Month</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.496309954301609"/>
+              <c:y val="0.884704437425336"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2126009048"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2126009048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Retention</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (%)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2134029128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2122121832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2143982440"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="2143982440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2122121832"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0744352726550223"/>
+          <c:y val="0.928396892319486"/>
+          <c:w val="0.796854109388353"/>
+          <c:h val="0.068974292267993"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -5819,15 +6897,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>202096</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>396993</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>108927</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>474297</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>108926</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5850,15 +6928,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>827157</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>193793</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>271097</xdr:colOff>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>121627</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5882,13 +6960,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>342349</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>165652</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>636637</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>172978</xdr:rowOff>
@@ -5914,13 +6992,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>34</xdr:col>
+      <xdr:col>35</xdr:col>
       <xdr:colOff>651563</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>180008</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>42</xdr:col>
+      <xdr:col>43</xdr:col>
       <xdr:colOff>662607</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>33129</xdr:rowOff>
@@ -5950,7 +7028,7 @@
       <xdr:rowOff>135835</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>1170609</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>176694</xdr:rowOff>
@@ -5967,6 +7045,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>702897</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>7327</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name="Chart 15"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6297,10 +7407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP27"/>
+  <dimension ref="A1:AQ27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="N55" sqref="N55"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6308,20 +7418,20 @@
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="5.5" customWidth="1"/>
     <col min="11" max="11" width="10" customWidth="1"/>
-    <col min="16" max="17" width="5.33203125" customWidth="1"/>
-    <col min="18" max="18" width="8.5" customWidth="1"/>
-    <col min="19" max="19" width="15.5" customWidth="1"/>
-    <col min="20" max="20" width="8.33203125" customWidth="1"/>
+    <col min="17" max="18" width="5.33203125" customWidth="1"/>
+    <col min="19" max="19" width="8.5" customWidth="1"/>
+    <col min="20" max="20" width="15.5" customWidth="1"/>
+    <col min="21" max="21" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="45">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:43" ht="45">
+      <c r="A1" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
@@ -6342,10 +7452,10 @@
       <c r="I1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="32" t="s">
+      <c r="J1" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="53" t="s">
         <v>7</v>
       </c>
       <c r="L1" t="s">
@@ -6354,1560 +7464,1573 @@
       <c r="M1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="32" t="s">
+      <c r="N1" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="O1" s="35"/>
+      <c r="Q1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>1</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AC1" s="32" t="s">
+      <c r="AD1" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="AD1" s="33" t="s">
+      <c r="AE1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>42</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>43</v>
       </c>
-      <c r="AG1" s="32" t="s">
+      <c r="AH1" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>44</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AK1" s="18" t="s">
+      <c r="AL1" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AN1" s="35" t="s">
+      <c r="AO1" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:42">
-      <c r="A2">
+    <row r="2" spans="1:43">
+      <c r="A2" s="55">
         <v>1</v>
       </c>
-      <c r="B2" s="19">
+      <c r="B2" s="59">
         <v>1</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="36">
         <v>160402</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="36">
         <v>20389</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="24">
         <v>35.92</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="23">
         <v>7.95</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="23">
         <v>2.2400000000000002</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="23">
         <v>5</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="24">
         <v>15</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="23">
         <v>700</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="47">
         <v>1955.34</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2" s="24">
         <v>2.79</v>
       </c>
-      <c r="M2" s="3">
+      <c r="M2" s="24">
         <v>0.1</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="37">
         <v>0.44</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="29"/>
+      <c r="P2" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="Q2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="R2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="S2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>35</v>
       </c>
-      <c r="T2" s="12">
+      <c r="U2" s="12">
         <v>160402</v>
       </c>
-      <c r="U2" s="12">
+      <c r="V2" s="12">
         <v>80201</v>
       </c>
-      <c r="V2" s="12">
-        <f>T2-U2</f>
+      <c r="W2" s="12">
+        <f>U2-V2</f>
         <v>80201</v>
       </c>
-      <c r="W2" s="16">
-        <f>(U2/T2)*100</f>
+      <c r="X2" s="16">
+        <f>(V2/U2)*100</f>
         <v>50</v>
       </c>
-      <c r="Y2" s="14">
+      <c r="Z2" s="14">
         <v>20389</v>
       </c>
-      <c r="Z2" s="34">
-        <f>AA2/Y2</f>
+      <c r="AA2" s="34">
+        <f>AB2/Z2</f>
         <v>9.5901711707293141E-2</v>
       </c>
-      <c r="AA2" s="3">
+      <c r="AB2" s="3">
         <v>1955.34</v>
       </c>
-      <c r="AB2" s="11">
-        <f>AA2/AC2</f>
+      <c r="AC2" s="11">
+        <f>AB2/AD2</f>
         <v>2.7933428571428571</v>
       </c>
-      <c r="AC2" s="2">
+      <c r="AD2" s="2">
         <v>700</v>
       </c>
-      <c r="AD2" s="14">
+      <c r="AE2" s="14">
         <v>160402</v>
       </c>
-      <c r="AE2" s="11">
-        <f>AC2/AD2</f>
+      <c r="AF2" s="11">
+        <f>AD2/AE2</f>
         <v>4.3640353611550976E-3</v>
       </c>
-      <c r="AF2" s="11">
-        <f>AC2/Y2</f>
+      <c r="AG2" s="11">
+        <f>AD2/Z2</f>
         <v>3.4332237971455196E-2</v>
       </c>
-      <c r="AG2" s="2">
+      <c r="AH2" s="2">
         <v>0.44</v>
       </c>
-      <c r="AH2">
-        <f>AC2/U2</f>
+      <c r="AI2">
+        <f>AD2/V2</f>
         <v>8.7280707223101953E-3</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>1</v>
       </c>
-      <c r="AK2" s="19">
+      <c r="AL2" s="19">
         <v>1</v>
       </c>
-      <c r="AL2" s="2">
+      <c r="AM2" s="2">
         <v>7.95</v>
       </c>
-      <c r="AM2" s="2">
+      <c r="AN2" s="2">
         <v>2.2400000000000002</v>
       </c>
-      <c r="AN2" s="10">
-        <f>AL2-AM2</f>
+      <c r="AO2" s="10">
+        <f>AM2-AN2</f>
         <v>5.71</v>
       </c>
-      <c r="AO2" s="3">
+      <c r="AP2" s="3">
         <v>1955.34</v>
       </c>
-      <c r="AP2" s="3">
+      <c r="AQ2" s="3">
         <v>2.79</v>
       </c>
     </row>
-    <row r="3" spans="1:42">
-      <c r="A3">
+    <row r="3" spans="1:43">
+      <c r="A3" s="56">
         <v>2</v>
       </c>
-      <c r="B3" s="19">
+      <c r="B3" s="60">
         <v>2</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="27">
         <v>110829</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="27">
         <v>17035</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="28">
         <v>34.82</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="29">
         <v>8.26</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="29">
         <v>2.36</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="28">
         <v>5</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="28">
         <v>14</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="29">
         <v>780</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="48">
         <v>1216.28</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="28">
         <v>1.56</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M3" s="28">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3" s="38">
         <v>0.7</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3" s="29"/>
+      <c r="P3" t="s">
         <v>27</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="Q3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>17</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>38</v>
       </c>
-      <c r="T3" s="12">
+      <c r="U3" s="12">
         <v>116097</v>
       </c>
-      <c r="U3" s="12">
+      <c r="V3" s="12">
         <v>69658</v>
       </c>
-      <c r="V3" s="12">
-        <f>T3-U3</f>
+      <c r="W3" s="12">
+        <f>U3-V3</f>
         <v>46439</v>
       </c>
-      <c r="W3" s="16">
-        <f t="shared" ref="W3:W11" si="0">(U3/T3)*100</f>
+      <c r="X3" s="16">
+        <f t="shared" ref="X3:X11" si="0">(V3/U3)*100</f>
         <v>59.999827730260037</v>
       </c>
-      <c r="Y3" s="14">
+      <c r="Z3" s="14">
         <v>17035</v>
       </c>
-      <c r="Z3" s="34">
-        <f t="shared" ref="Z3:Z26" si="1">AA3/Y3</f>
+      <c r="AA3" s="34">
+        <f t="shared" ref="AA3:AA26" si="1">AB3/Z3</f>
         <v>7.1398884649251537E-2</v>
       </c>
-      <c r="AA3" s="3">
+      <c r="AB3" s="3">
         <v>1216.28</v>
       </c>
-      <c r="AB3" s="11">
-        <f t="shared" ref="AB3:AB26" si="2">AA3/AC3</f>
+      <c r="AC3" s="11">
+        <f t="shared" ref="AC3:AC26" si="2">AB3/AD3</f>
         <v>1.5593333333333332</v>
       </c>
-      <c r="AC3" s="2">
+      <c r="AD3" s="2">
         <v>780</v>
       </c>
-      <c r="AD3" s="14">
+      <c r="AE3" s="14">
         <v>110829</v>
       </c>
-      <c r="AE3" s="11">
-        <f t="shared" ref="AE3:AE26" si="3">AC3/AD3</f>
+      <c r="AF3" s="11">
+        <f t="shared" ref="AF3:AF26" si="3">AD3/AE3</f>
         <v>7.0378691497712696E-3</v>
       </c>
-      <c r="AF3" s="11">
-        <f t="shared" ref="AF3:AF26" si="4">AC3/Y3</f>
+      <c r="AG3" s="11">
+        <f t="shared" ref="AG3:AG26" si="4">AD3/Z3</f>
         <v>4.5788083357792782E-2</v>
       </c>
-      <c r="AG3" s="2">
+      <c r="AH3" s="2">
         <v>0.7</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>2</v>
       </c>
-      <c r="AK3" s="19">
+      <c r="AL3" s="19">
         <v>2</v>
       </c>
-      <c r="AL3" s="2">
+      <c r="AM3" s="2">
         <v>8.26</v>
       </c>
-      <c r="AM3" s="2">
+      <c r="AN3" s="2">
         <v>2.36</v>
       </c>
-      <c r="AN3" s="10">
-        <f t="shared" ref="AN3:AN26" si="5">AL3-AM3</f>
+      <c r="AO3" s="10">
+        <f t="shared" ref="AO3:AO26" si="5">AM3-AN3</f>
         <v>5.9</v>
       </c>
-      <c r="AO3" s="3">
+      <c r="AP3" s="3">
         <v>1216.28</v>
       </c>
-      <c r="AP3" s="3">
+      <c r="AQ3" s="3">
         <v>1.56</v>
       </c>
     </row>
-    <row r="4" spans="1:42">
-      <c r="A4">
+    <row r="4" spans="1:43">
+      <c r="A4" s="57">
         <v>3</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="61">
         <v>3</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="39">
         <v>116097</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="39">
         <v>15639</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="40">
         <v>34.869999999999997</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="40">
         <v>7.71</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="40">
         <v>1.61</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="40">
         <v>4</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="40">
         <v>14</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="40">
         <v>670</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="49">
         <v>1294.07</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="41">
         <v>1.93</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="41">
         <v>0.08</v>
       </c>
-      <c r="N4" s="3">
+      <c r="N4" s="42">
         <v>0.57999999999999996</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O4" s="28"/>
+      <c r="P4" t="s">
         <v>27</v>
       </c>
-      <c r="P4" s="8" t="s">
+      <c r="Q4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="R4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>18</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>35</v>
       </c>
-      <c r="T4" s="12">
+      <c r="U4" s="12">
         <v>94217</v>
       </c>
-      <c r="U4" s="12">
+      <c r="V4" s="12">
         <v>47109</v>
       </c>
-      <c r="V4" s="12">
-        <f>T4-U4</f>
+      <c r="W4" s="12">
+        <f>U4-V4</f>
         <v>47108</v>
       </c>
-      <c r="W4" s="17">
+      <c r="X4" s="17">
         <f t="shared" si="0"/>
         <v>50.000530689790587</v>
       </c>
-      <c r="Y4" s="14">
+      <c r="Z4" s="14">
         <v>15639</v>
       </c>
-      <c r="Z4" s="34">
+      <c r="AA4" s="34">
         <f t="shared" si="1"/>
         <v>8.2746339280005105E-2</v>
       </c>
-      <c r="AA4" s="2">
+      <c r="AB4" s="2">
         <v>1294.07</v>
       </c>
-      <c r="AB4" s="11">
+      <c r="AC4" s="11">
         <f t="shared" si="2"/>
         <v>1.9314477611940297</v>
       </c>
-      <c r="AC4" s="3">
+      <c r="AD4" s="3">
         <v>670</v>
       </c>
-      <c r="AD4" s="14">
+      <c r="AE4" s="14">
         <v>116097</v>
       </c>
-      <c r="AE4" s="11">
+      <c r="AF4" s="11">
         <f t="shared" si="3"/>
         <v>5.7710362886207222E-3</v>
       </c>
-      <c r="AF4" s="11">
+      <c r="AG4" s="11">
         <f t="shared" si="4"/>
         <v>4.2841613913933117E-2</v>
       </c>
-      <c r="AG4" s="3">
+      <c r="AH4" s="3">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>3</v>
       </c>
-      <c r="AK4" s="19">
+      <c r="AL4" s="19">
         <v>3</v>
       </c>
-      <c r="AL4" s="3">
+      <c r="AM4" s="3">
         <v>7.71</v>
       </c>
-      <c r="AM4" s="3">
+      <c r="AN4" s="3">
         <v>1.61</v>
       </c>
-      <c r="AN4" s="10">
+      <c r="AO4" s="10">
         <f t="shared" si="5"/>
         <v>6.1</v>
       </c>
-      <c r="AO4" s="2">
+      <c r="AP4" s="2">
         <v>1294.07</v>
       </c>
-      <c r="AP4" s="2">
+      <c r="AQ4" s="2">
         <v>1.93</v>
       </c>
     </row>
-    <row r="5" spans="1:42">
-      <c r="A5">
+    <row r="5" spans="1:43">
+      <c r="A5" s="55">
         <v>4</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="59">
         <v>4</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="22">
         <v>191966</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="36">
         <v>14716</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="24">
         <v>34.840000000000003</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="23">
         <v>8.48</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="23">
         <v>1.9</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="24">
         <v>4</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="24">
         <v>13</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="24">
         <v>570</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="47">
         <v>1190.1099999999999</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="23">
         <v>2.09</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5" s="24">
         <v>0.08</v>
       </c>
-      <c r="N5" s="3">
+      <c r="N5" s="43">
         <v>0.56000000000000005</v>
       </c>
-      <c r="O5" t="s">
+      <c r="O5" s="28"/>
+      <c r="P5" t="s">
         <v>28</v>
       </c>
-      <c r="P5" s="6" t="s">
+      <c r="Q5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="Q5" s="5" t="s">
+      <c r="R5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>19</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>36</v>
       </c>
-      <c r="T5" s="13">
+      <c r="U5" s="13">
         <v>33472</v>
       </c>
-      <c r="U5" s="12">
+      <c r="V5" s="12">
         <v>10042</v>
       </c>
-      <c r="V5" s="12">
-        <f>T5-U5</f>
+      <c r="W5" s="12">
+        <f>U5-V5</f>
         <v>23430</v>
       </c>
-      <c r="W5" s="17">
+      <c r="X5" s="17">
         <f t="shared" si="0"/>
         <v>30.001195028680687</v>
       </c>
-      <c r="Y5" s="14">
+      <c r="Z5" s="14">
         <v>14716</v>
       </c>
-      <c r="Z5" s="34">
+      <c r="AA5" s="34">
         <f t="shared" si="1"/>
         <v>8.0871840173960305E-2</v>
       </c>
-      <c r="AA5" s="3">
+      <c r="AB5" s="3">
         <v>1190.1099999999999</v>
       </c>
-      <c r="AB5" s="11">
+      <c r="AC5" s="11">
         <f t="shared" si="2"/>
         <v>2.0879122807017541</v>
       </c>
-      <c r="AC5" s="3">
+      <c r="AD5" s="3">
         <v>570</v>
       </c>
-      <c r="AD5" s="15">
+      <c r="AE5" s="15">
         <v>191966</v>
       </c>
-      <c r="AE5" s="11">
+      <c r="AF5" s="11">
         <f t="shared" si="3"/>
         <v>2.9692758092578894E-3</v>
       </c>
-      <c r="AF5" s="11">
+      <c r="AG5" s="11">
         <f t="shared" si="4"/>
         <v>3.8733351454199511E-2</v>
       </c>
-      <c r="AG5" s="3">
+      <c r="AH5" s="3">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>4</v>
       </c>
-      <c r="AK5" s="19">
+      <c r="AL5" s="19">
         <v>4</v>
       </c>
-      <c r="AL5" s="2">
+      <c r="AM5" s="2">
         <v>8.48</v>
       </c>
-      <c r="AM5" s="2">
+      <c r="AN5" s="2">
         <v>1.9</v>
       </c>
-      <c r="AN5" s="10">
+      <c r="AO5" s="10">
         <f t="shared" si="5"/>
         <v>6.58</v>
       </c>
-      <c r="AO5" s="3">
+      <c r="AP5" s="3">
         <v>1190.1099999999999</v>
       </c>
-      <c r="AP5" s="2">
+      <c r="AQ5" s="2">
         <v>2.09</v>
       </c>
     </row>
-    <row r="6" spans="1:42">
-      <c r="A6">
+    <row r="6" spans="1:43">
+      <c r="A6" s="56">
         <v>5</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="60">
         <v>5</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="27">
         <v>119965</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="30">
         <v>15510</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="28">
         <v>34.72</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="28">
         <v>7.87</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="29">
         <v>2.0499999999999998</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="29">
         <v>5</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="29">
         <v>15</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="29">
         <v>573</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="50">
         <v>1255.5999999999999</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="29">
         <v>2.19</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="28">
         <v>0.08</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N6" s="44">
         <v>0.48</v>
       </c>
-      <c r="O6" t="s">
+      <c r="O6" s="28"/>
+      <c r="P6" t="s">
         <v>28</v>
       </c>
-      <c r="P6" s="6" t="s">
+      <c r="Q6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="Q6" s="3" t="s">
+      <c r="R6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>20</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>36</v>
       </c>
-      <c r="T6" s="13">
+      <c r="U6" s="13">
         <v>31808</v>
       </c>
-      <c r="U6" s="12">
+      <c r="V6" s="12">
         <v>19085</v>
       </c>
-      <c r="V6" s="12">
-        <f>T6-U6</f>
+      <c r="W6" s="12">
+        <f>U6-V6</f>
         <v>12723</v>
       </c>
-      <c r="W6" s="16">
+      <c r="X6" s="16">
         <f t="shared" si="0"/>
         <v>60.000628772635814</v>
       </c>
-      <c r="Y6" s="15">
+      <c r="Z6" s="15">
         <v>15510</v>
       </c>
-      <c r="Z6" s="34">
+      <c r="AA6" s="34">
         <f t="shared" si="1"/>
         <v>8.0954223081882645E-2</v>
       </c>
-      <c r="AA6" s="2">
+      <c r="AB6" s="2">
         <v>1255.5999999999999</v>
       </c>
-      <c r="AB6" s="11">
+      <c r="AC6" s="11">
         <f t="shared" si="2"/>
         <v>2.1912739965095986</v>
       </c>
-      <c r="AC6" s="2">
+      <c r="AD6" s="2">
         <v>573</v>
       </c>
-      <c r="AD6" s="14">
+      <c r="AE6" s="14">
         <v>119965</v>
       </c>
-      <c r="AE6" s="11">
+      <c r="AF6" s="11">
         <f t="shared" si="3"/>
         <v>4.7763931146584419E-3</v>
       </c>
-      <c r="AF6" s="11">
+      <c r="AG6" s="11">
         <f t="shared" si="4"/>
         <v>3.6943907156673117E-2</v>
       </c>
-      <c r="AG6" s="3">
+      <c r="AH6" s="3">
         <v>0.48</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>5</v>
       </c>
-      <c r="AK6" s="19">
+      <c r="AL6" s="19">
         <v>5</v>
       </c>
-      <c r="AL6" s="3">
+      <c r="AM6" s="3">
         <v>7.87</v>
       </c>
-      <c r="AM6" s="2">
+      <c r="AN6" s="2">
         <v>2.0499999999999998</v>
       </c>
-      <c r="AN6" s="10">
+      <c r="AO6" s="10">
         <f t="shared" si="5"/>
         <v>5.82</v>
       </c>
-      <c r="AO6" s="2">
+      <c r="AP6" s="2">
         <v>1255.5999999999999</v>
       </c>
-      <c r="AP6" s="2">
+      <c r="AQ6" s="2">
         <v>2.19</v>
       </c>
     </row>
-    <row r="7" spans="1:42">
-      <c r="A7">
+    <row r="7" spans="1:43">
+      <c r="A7" s="57">
         <v>6</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="61">
         <v>6</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="39">
         <v>94217</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="39">
         <v>14645</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="41">
         <v>34.840000000000003</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="40">
         <v>7.11</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="40">
         <v>1.7</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="41">
         <v>5</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="40">
         <v>13</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="41">
         <v>890</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="51">
         <v>1145.08</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L7" s="40">
         <v>1.29</v>
       </c>
-      <c r="M7" s="3">
+      <c r="M7" s="40">
         <v>0.08</v>
       </c>
-      <c r="N7" s="2">
+      <c r="N7" s="45">
         <v>0.94</v>
       </c>
-      <c r="O7" t="s">
+      <c r="O7" s="29"/>
+      <c r="P7" t="s">
         <v>28</v>
       </c>
-      <c r="P7" s="6" t="s">
+      <c r="Q7" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="Q7" s="2" t="s">
+      <c r="R7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>21</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>36</v>
       </c>
-      <c r="T7" s="13">
+      <c r="U7" s="13">
         <v>17433</v>
       </c>
-      <c r="U7" s="12">
+      <c r="V7" s="12">
         <v>13946</v>
       </c>
-      <c r="V7" s="12">
-        <f>T7-U7</f>
+      <c r="W7" s="12">
+        <f>U7-V7</f>
         <v>3487</v>
       </c>
-      <c r="W7" s="16">
+      <c r="X7" s="16">
         <f t="shared" si="0"/>
         <v>79.997705501061205</v>
       </c>
-      <c r="Y7" s="14">
+      <c r="Z7" s="14">
         <v>14645</v>
       </c>
-      <c r="Z7" s="34">
+      <c r="AA7" s="34">
         <f t="shared" si="1"/>
         <v>7.818914305223626E-2</v>
       </c>
-      <c r="AA7" s="3">
+      <c r="AB7" s="3">
         <v>1145.08</v>
       </c>
-      <c r="AB7" s="11">
+      <c r="AC7" s="11">
         <f t="shared" si="2"/>
         <v>1.2866067415730336</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>890</v>
       </c>
-      <c r="AD7" s="14">
+      <c r="AE7" s="14">
         <v>94217</v>
       </c>
-      <c r="AE7" s="11">
+      <c r="AF7" s="11">
         <f t="shared" si="3"/>
         <v>9.4462782724985938E-3</v>
       </c>
-      <c r="AF7" s="11">
+      <c r="AG7" s="11">
         <f t="shared" si="4"/>
         <v>6.077159440081939E-2</v>
       </c>
-      <c r="AG7" s="2">
+      <c r="AH7" s="2">
         <v>0.94</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>6</v>
       </c>
-      <c r="AK7" s="19">
+      <c r="AL7" s="19">
         <v>6</v>
       </c>
-      <c r="AL7" s="3">
+      <c r="AM7" s="3">
         <v>7.11</v>
       </c>
-      <c r="AM7" s="3">
+      <c r="AN7" s="3">
         <v>1.7</v>
       </c>
-      <c r="AN7" s="10">
+      <c r="AO7" s="10">
         <f t="shared" si="5"/>
         <v>5.41</v>
       </c>
-      <c r="AO7" s="3">
+      <c r="AP7" s="3">
         <v>1145.08</v>
       </c>
-      <c r="AP7" s="3">
+      <c r="AQ7" s="3">
         <v>1.29</v>
       </c>
     </row>
-    <row r="8" spans="1:42">
-      <c r="A8">
+    <row r="8" spans="1:43">
+      <c r="A8" s="55">
         <v>7</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="59">
         <v>7</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="36">
         <v>69633</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="36">
         <v>10370</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="24">
         <v>32.74</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="24">
         <v>6.73</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="24">
         <v>1.4</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="23">
         <v>5</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="24">
         <v>12</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="24">
         <v>250</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="47">
         <v>772.78</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8" s="23">
         <v>3.09</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8" s="24">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N8" s="3">
+      <c r="N8" s="43">
         <v>0.36</v>
       </c>
-      <c r="O8" t="s">
+      <c r="O8" s="28"/>
+      <c r="P8" t="s">
         <v>30</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="Q8" s="3" t="s">
+      <c r="R8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>22</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>37</v>
       </c>
-      <c r="T8" s="13">
+      <c r="U8" s="13">
         <v>22337</v>
       </c>
-      <c r="U8" s="12">
+      <c r="V8" s="12">
         <v>4467</v>
       </c>
-      <c r="V8" s="12">
-        <f>T8-U8</f>
+      <c r="W8" s="12">
+        <f>U8-V8</f>
         <v>17870</v>
       </c>
-      <c r="W8" s="17">
+      <c r="X8" s="17">
         <f t="shared" si="0"/>
         <v>19.998209249227738</v>
       </c>
-      <c r="Y8" s="14">
+      <c r="Z8" s="14">
         <v>10370</v>
       </c>
-      <c r="Z8" s="34">
+      <c r="AA8" s="34">
         <f t="shared" si="1"/>
         <v>7.4520732883317259E-2</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>772.78</v>
       </c>
-      <c r="AB8" s="11">
+      <c r="AC8" s="11">
         <f t="shared" si="2"/>
         <v>3.0911200000000001</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>250</v>
       </c>
-      <c r="AD8" s="14">
+      <c r="AE8" s="14">
         <v>69633</v>
       </c>
-      <c r="AE8" s="11">
+      <c r="AF8" s="11">
         <f t="shared" si="3"/>
         <v>3.5902517484526016E-3</v>
       </c>
-      <c r="AF8" s="11">
+      <c r="AG8" s="11">
         <f t="shared" si="4"/>
         <v>2.4108003857280617E-2</v>
       </c>
-      <c r="AG8" s="3">
+      <c r="AH8" s="3">
         <v>0.36</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>7</v>
       </c>
-      <c r="AK8" s="19">
+      <c r="AL8" s="19">
         <v>7</v>
       </c>
-      <c r="AL8" s="3">
+      <c r="AM8" s="3">
         <v>6.73</v>
       </c>
-      <c r="AM8" s="3">
+      <c r="AN8" s="3">
         <v>1.4</v>
       </c>
-      <c r="AN8" s="10">
+      <c r="AO8" s="10">
         <f t="shared" si="5"/>
         <v>5.33</v>
       </c>
-      <c r="AO8" s="3">
+      <c r="AP8" s="3">
         <v>772.78</v>
       </c>
-      <c r="AP8" s="2">
+      <c r="AQ8" s="2">
         <v>3.09</v>
       </c>
     </row>
-    <row r="9" spans="1:42">
-      <c r="A9">
+    <row r="9" spans="1:43">
+      <c r="A9" s="56">
         <v>8</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="60">
         <v>8</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="27">
         <v>47090</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="27">
         <v>7361</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="28">
         <v>32.07</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="28">
         <v>6.66</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="28">
         <v>1.35</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="28">
         <v>4</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="28">
         <v>10</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="28">
         <v>220</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="48">
         <v>472.34</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9" s="28">
         <v>2.15</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9" s="28">
         <v>0.06</v>
       </c>
-      <c r="N9" s="2">
+      <c r="N9" s="38">
         <v>0.47</v>
       </c>
-      <c r="O9" t="s">
+      <c r="O9" s="29"/>
+      <c r="P9" t="s">
         <v>30</v>
       </c>
-      <c r="P9" s="9" t="s">
+      <c r="Q9" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="Q9" s="5" t="s">
+      <c r="R9" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>23</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>37</v>
       </c>
-      <c r="T9" s="13">
+      <c r="U9" s="13">
         <v>20261</v>
       </c>
-      <c r="U9" s="12">
+      <c r="V9" s="12">
         <v>6078</v>
       </c>
-      <c r="V9" s="12">
-        <f>T9-U9</f>
+      <c r="W9" s="12">
+        <f>U9-V9</f>
         <v>14183</v>
       </c>
-      <c r="W9" s="16">
+      <c r="X9" s="16">
         <f t="shared" si="0"/>
         <v>29.998519322836977</v>
       </c>
-      <c r="Y9" s="14">
+      <c r="Z9" s="14">
         <v>7361</v>
       </c>
-      <c r="Z9" s="34">
+      <c r="AA9" s="34">
         <f t="shared" si="1"/>
         <v>6.4167911968482538E-2</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>472.34</v>
       </c>
-      <c r="AB9" s="11">
+      <c r="AC9" s="11">
         <f t="shared" si="2"/>
         <v>2.1469999999999998</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>220</v>
       </c>
-      <c r="AD9" s="14">
+      <c r="AE9" s="14">
         <v>47090</v>
       </c>
-      <c r="AE9" s="11">
+      <c r="AF9" s="11">
         <f t="shared" si="3"/>
         <v>4.6719048630282436E-3</v>
       </c>
-      <c r="AF9" s="11">
+      <c r="AG9" s="11">
         <f t="shared" si="4"/>
         <v>2.9887243581035186E-2</v>
       </c>
-      <c r="AG9" s="2">
+      <c r="AH9" s="2">
         <v>0.47</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>8</v>
       </c>
-      <c r="AK9" s="19">
+      <c r="AL9" s="19">
         <v>8</v>
       </c>
-      <c r="AL9" s="3">
+      <c r="AM9" s="3">
         <v>6.66</v>
       </c>
-      <c r="AM9" s="3">
+      <c r="AN9" s="3">
         <v>1.35</v>
       </c>
-      <c r="AN9" s="10">
+      <c r="AO9" s="10">
         <f t="shared" si="5"/>
         <v>5.3100000000000005</v>
       </c>
-      <c r="AO9" s="3">
+      <c r="AP9" s="3">
         <v>472.34</v>
       </c>
-      <c r="AP9" s="3">
+      <c r="AQ9" s="3">
         <v>2.15</v>
       </c>
     </row>
-    <row r="10" spans="1:42">
-      <c r="A10">
+    <row r="10" spans="1:43">
+      <c r="A10" s="57">
         <v>9</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="61">
         <v>9</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="39">
         <v>35242</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="39">
         <v>5881</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="40">
         <v>30.53</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="40">
         <v>5.68</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="40">
         <v>1.34</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="40">
         <v>3</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="41">
         <v>14</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="40">
         <v>210</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="51">
         <v>415.48</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="40">
         <v>1.98</v>
       </c>
-      <c r="M10" s="2">
+      <c r="M10" s="41">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N10" s="2">
+      <c r="N10" s="45">
         <v>0.6</v>
       </c>
-      <c r="O10" t="s">
+      <c r="O10" s="29"/>
+      <c r="P10" t="s">
         <v>30</v>
       </c>
-      <c r="P10" s="9" t="s">
+      <c r="Q10" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="Q10" s="3" t="s">
+      <c r="R10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>24</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
         <v>38</v>
       </c>
-      <c r="T10" s="13">
+      <c r="U10" s="13">
         <v>18517</v>
       </c>
-      <c r="U10" s="12">
+      <c r="V10" s="12">
         <v>8333</v>
       </c>
-      <c r="V10" s="12">
-        <f>T10-U10</f>
+      <c r="W10" s="12">
+        <f>U10-V10</f>
         <v>10184</v>
       </c>
-      <c r="W10" s="16">
+      <c r="X10" s="16">
         <f t="shared" si="0"/>
         <v>45.001890154992708</v>
       </c>
-      <c r="Y10" s="14">
+      <c r="Z10" s="14">
         <v>5881</v>
       </c>
-      <c r="Z10" s="34">
+      <c r="AA10" s="34">
         <f t="shared" si="1"/>
         <v>7.0647849005271213E-2</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>415.48</v>
       </c>
-      <c r="AB10" s="11">
+      <c r="AC10" s="11">
         <f t="shared" si="2"/>
         <v>1.9784761904761905</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>210</v>
       </c>
-      <c r="AD10" s="14">
+      <c r="AE10" s="14">
         <v>35242</v>
       </c>
-      <c r="AE10" s="11">
+      <c r="AF10" s="11">
         <f t="shared" si="3"/>
         <v>5.9587991600930706E-3</v>
       </c>
-      <c r="AF10" s="11">
+      <c r="AG10" s="11">
         <f t="shared" si="4"/>
         <v>3.5708212888964461E-2</v>
       </c>
-      <c r="AG10" s="2">
+      <c r="AH10" s="2">
         <v>0.6</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>9</v>
       </c>
-      <c r="AK10" s="19">
+      <c r="AL10" s="19">
         <v>9</v>
       </c>
-      <c r="AL10" s="3">
+      <c r="AM10" s="3">
         <v>5.68</v>
       </c>
-      <c r="AM10" s="3">
+      <c r="AN10" s="3">
         <v>1.34</v>
       </c>
-      <c r="AN10" s="10">
+      <c r="AO10" s="10">
         <f t="shared" si="5"/>
         <v>4.34</v>
       </c>
-      <c r="AO10" s="3">
+      <c r="AP10" s="3">
         <v>415.48</v>
       </c>
-      <c r="AP10" s="3">
+      <c r="AQ10" s="3">
         <v>1.98</v>
       </c>
     </row>
-    <row r="11" spans="1:42">
-      <c r="A11">
+    <row r="11" spans="1:43">
+      <c r="A11" s="55">
         <v>10</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="59">
         <v>10</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="36">
         <v>33472</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="36">
         <v>5001</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="23">
         <v>30.89</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="23">
         <v>5.81</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="23">
         <v>1.51</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="23">
         <v>4</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="24">
         <v>12</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="23">
         <v>211</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="47">
         <v>368.48</v>
       </c>
-      <c r="L11" s="3">
+      <c r="L11" s="24">
         <v>1.75</v>
       </c>
-      <c r="M11" s="2">
+      <c r="M11" s="23">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N11" s="2">
+      <c r="N11" s="37">
         <v>0.63</v>
       </c>
-      <c r="O11" t="s">
+      <c r="O11" s="29"/>
+      <c r="P11" t="s">
         <v>29</v>
       </c>
-      <c r="P11" s="9" t="s">
+      <c r="Q11" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="Q11" s="2" t="s">
+      <c r="R11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>25</v>
       </c>
-      <c r="S11" t="s">
+      <c r="T11" t="s">
         <v>37</v>
       </c>
-      <c r="T11" s="13">
+      <c r="U11" s="13">
         <v>19095</v>
       </c>
-      <c r="U11" s="12">
+      <c r="V11" s="12">
         <v>5729</v>
       </c>
-      <c r="V11" s="12">
-        <f>T11-U11</f>
+      <c r="W11" s="12">
+        <f>U11-V11</f>
         <v>13366</v>
       </c>
-      <c r="W11" s="17">
+      <c r="X11" s="17">
         <f t="shared" si="0"/>
         <v>30.002618486514791</v>
       </c>
-      <c r="Y11" s="14">
+      <c r="Z11" s="14">
         <v>5001</v>
       </c>
-      <c r="Z11" s="34">
+      <c r="AA11" s="34">
         <f t="shared" si="1"/>
         <v>7.368126374725055E-2</v>
       </c>
-      <c r="AA11" s="3">
+      <c r="AB11" s="3">
         <v>368.48</v>
       </c>
-      <c r="AB11" s="11">
+      <c r="AC11" s="11">
         <f t="shared" si="2"/>
         <v>1.7463507109004741</v>
       </c>
-      <c r="AC11" s="2">
+      <c r="AD11" s="2">
         <v>211</v>
       </c>
-      <c r="AD11" s="14">
+      <c r="AE11" s="14">
         <v>33472</v>
       </c>
-      <c r="AE11" s="11">
+      <c r="AF11" s="11">
         <f t="shared" si="3"/>
         <v>6.3037762906309755E-3</v>
       </c>
-      <c r="AF11" s="11">
+      <c r="AG11" s="11">
         <f t="shared" si="4"/>
         <v>4.2191561687662464E-2</v>
       </c>
-      <c r="AG11" s="2">
+      <c r="AH11" s="2">
         <v>0.63</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>10</v>
       </c>
-      <c r="AK11" s="19">
+      <c r="AL11" s="19">
         <v>10</v>
       </c>
-      <c r="AL11" s="2">
+      <c r="AM11" s="2">
         <v>5.81</v>
       </c>
-      <c r="AM11" s="2">
+      <c r="AN11" s="2">
         <v>1.51</v>
       </c>
-      <c r="AN11" s="10">
+      <c r="AO11" s="10">
         <f t="shared" si="5"/>
         <v>4.3</v>
       </c>
-      <c r="AO11" s="3">
+      <c r="AP11" s="3">
         <v>368.48</v>
       </c>
-      <c r="AP11" s="3">
+      <c r="AQ11" s="3">
         <v>1.75</v>
       </c>
     </row>
-    <row r="12" spans="1:42">
-      <c r="A12">
+    <row r="12" spans="1:43">
+      <c r="A12" s="56">
         <v>11</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="60">
         <v>11</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="27">
         <v>31808</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="27">
         <v>4661</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="29">
         <v>31.38</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="29">
         <v>5.81</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="28">
         <v>1.49</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="29">
         <v>4</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="28">
         <v>11</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="28">
         <v>102</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12" s="50">
         <v>445.96</v>
       </c>
-      <c r="L12" s="2">
+      <c r="L12" s="29">
         <v>4.37</v>
       </c>
-      <c r="M12" s="2">
+      <c r="M12" s="29">
         <v>0.1</v>
       </c>
-      <c r="N12" s="3">
+      <c r="N12" s="44">
         <v>0.32</v>
       </c>
-      <c r="O12" t="s">
+      <c r="O12" s="28"/>
+      <c r="P12" t="s">
         <v>29</v>
       </c>
-      <c r="U12" t="s">
+      <c r="V12" t="s">
         <v>45</v>
       </c>
-      <c r="V12" t="s">
+      <c r="W12" t="s">
         <v>46</v>
       </c>
-      <c r="Y12" s="14">
+      <c r="Z12" s="14">
         <v>4661</v>
       </c>
-      <c r="Z12" s="34">
+      <c r="AA12" s="34">
         <f t="shared" si="1"/>
         <v>9.5679038832868477E-2</v>
       </c>
-      <c r="AA12" s="2">
+      <c r="AB12" s="2">
         <v>445.96</v>
       </c>
-      <c r="AB12" s="11">
+      <c r="AC12" s="11">
         <f t="shared" si="2"/>
         <v>4.372156862745098</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>102</v>
       </c>
-      <c r="AD12" s="14">
+      <c r="AE12" s="14">
         <v>31808</v>
       </c>
-      <c r="AE12" s="11">
+      <c r="AF12" s="11">
         <f t="shared" si="3"/>
         <v>3.2067404426559358E-3</v>
       </c>
-      <c r="AF12" s="11">
+      <c r="AG12" s="11">
         <f t="shared" si="4"/>
         <v>2.1883715940785239E-2</v>
       </c>
-      <c r="AG12" s="3">
+      <c r="AH12" s="3">
         <v>0.32</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>11</v>
       </c>
-      <c r="AK12" s="19">
+      <c r="AL12" s="19">
         <v>11</v>
       </c>
-      <c r="AL12" s="2">
+      <c r="AM12" s="2">
         <v>5.81</v>
       </c>
-      <c r="AM12" s="3">
+      <c r="AN12" s="3">
         <v>1.49</v>
       </c>
-      <c r="AN12" s="10">
+      <c r="AO12" s="10">
         <f t="shared" si="5"/>
         <v>4.3199999999999994</v>
       </c>
-      <c r="AO12" s="2">
+      <c r="AP12" s="2">
         <v>445.96</v>
       </c>
-      <c r="AP12" s="2">
+      <c r="AQ12" s="2">
         <v>4.37</v>
       </c>
     </row>
-    <row r="13" spans="1:42">
-      <c r="A13">
+    <row r="13" spans="1:43">
+      <c r="A13" s="57">
         <v>12</v>
       </c>
-      <c r="B13" s="19">
+      <c r="B13" s="61">
         <v>12</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="39">
         <v>17433</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="39">
         <v>3552</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="40">
         <v>29.15</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="40">
         <v>5.19</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="40">
         <v>0.11</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="40">
         <v>3</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="40">
         <v>10</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="40">
         <v>102</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13" s="51">
         <v>374.79</v>
       </c>
-      <c r="L13" s="3">
+      <c r="L13" s="40">
         <v>3.67</v>
       </c>
-      <c r="M13" s="2">
+      <c r="M13" s="41">
         <v>0.11</v>
       </c>
-      <c r="N13" s="2">
+      <c r="N13" s="45">
         <v>0.59</v>
       </c>
-      <c r="O13" t="s">
+      <c r="O13" s="29"/>
+      <c r="P13" t="s">
         <v>29</v>
       </c>
-      <c r="Y13" s="14">
+      <c r="Z13" s="14">
         <v>3552</v>
       </c>
-      <c r="Z13" s="34">
+      <c r="AA13" s="34">
         <f t="shared" si="1"/>
         <v>0.1055152027027027</v>
       </c>
-      <c r="AA13" s="3">
+      <c r="AB13" s="3">
         <v>374.79</v>
       </c>
-      <c r="AB13" s="11">
+      <c r="AC13" s="11">
         <f t="shared" si="2"/>
         <v>3.6744117647058827</v>
       </c>
-      <c r="AC13" s="3">
+      <c r="AD13" s="3">
         <v>102</v>
       </c>
-      <c r="AD13" s="14">
+      <c r="AE13" s="14">
         <v>17433</v>
       </c>
-      <c r="AE13" s="11">
+      <c r="AF13" s="11">
         <f t="shared" si="3"/>
         <v>5.8509722939253141E-3</v>
       </c>
-      <c r="AF13" s="11">
+      <c r="AG13" s="11">
         <f t="shared" si="4"/>
         <v>2.8716216216216218E-2</v>
       </c>
-      <c r="AG13" s="2">
+      <c r="AH13" s="2">
         <v>0.59</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>12</v>
       </c>
-      <c r="AK13" s="19">
+      <c r="AL13" s="19">
         <v>12</v>
       </c>
-      <c r="AL13" s="3">
+      <c r="AM13" s="3">
         <v>5.19</v>
       </c>
-      <c r="AM13" s="3">
+      <c r="AN13" s="3">
         <v>0.11</v>
       </c>
-      <c r="AN13" s="10">
+      <c r="AO13" s="10">
         <f t="shared" si="5"/>
         <v>5.08</v>
       </c>
-      <c r="AO13" s="3">
+      <c r="AP13" s="3">
         <v>374.79</v>
       </c>
-      <c r="AP13" s="3">
+      <c r="AQ13" s="3">
         <v>3.67</v>
       </c>
     </row>
-    <row r="14" spans="1:42">
-      <c r="A14" s="20">
+    <row r="14" spans="1:43">
+      <c r="A14" s="55">
         <v>13</v>
       </c>
-      <c r="B14" s="21">
+      <c r="B14" s="59">
         <v>1</v>
       </c>
       <c r="C14" s="22">
@@ -7934,7 +9057,7 @@
       <c r="J14" s="24">
         <v>100</v>
       </c>
-      <c r="K14" s="24">
+      <c r="K14" s="47">
         <v>270.06</v>
       </c>
       <c r="L14" s="24">
@@ -7943,71 +9066,72 @@
       <c r="M14" s="24">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N14" s="24">
+      <c r="N14" s="43">
         <v>0.31</v>
       </c>
-      <c r="O14" s="31" t="s">
+      <c r="O14" s="28"/>
+      <c r="P14" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="Y14" s="22">
+      <c r="Z14" s="22">
         <v>3753</v>
       </c>
-      <c r="Z14" s="34">
+      <c r="AA14" s="34">
         <f t="shared" si="1"/>
         <v>7.1958433253397278E-2</v>
       </c>
-      <c r="AA14" s="24">
+      <c r="AB14" s="24">
         <v>270.06</v>
       </c>
-      <c r="AB14" s="11">
+      <c r="AC14" s="11">
         <f t="shared" si="2"/>
         <v>2.7006000000000001</v>
       </c>
-      <c r="AC14" s="24">
+      <c r="AD14" s="24">
         <v>100</v>
       </c>
-      <c r="AD14" s="22">
+      <c r="AE14" s="22">
         <v>31856</v>
       </c>
-      <c r="AE14" s="11">
+      <c r="AF14" s="11">
         <f t="shared" si="3"/>
         <v>3.1391260673028628E-3</v>
       </c>
-      <c r="AF14" s="11">
+      <c r="AG14" s="11">
         <f t="shared" si="4"/>
         <v>2.664535038635758E-2</v>
       </c>
-      <c r="AG14" s="24">
+      <c r="AH14" s="24">
         <v>0.31</v>
       </c>
-      <c r="AJ14" s="20">
+      <c r="AK14" s="20">
         <v>13</v>
       </c>
-      <c r="AK14" s="21">
+      <c r="AL14" s="21">
         <v>1</v>
       </c>
-      <c r="AL14" s="23">
+      <c r="AM14" s="23">
         <v>5.79</v>
       </c>
-      <c r="AM14" s="23">
+      <c r="AN14" s="23">
         <v>1.31</v>
       </c>
-      <c r="AN14" s="10">
+      <c r="AO14" s="10">
         <f t="shared" si="5"/>
         <v>4.4800000000000004</v>
       </c>
-      <c r="AO14" s="24">
+      <c r="AP14" s="24">
         <v>270.06</v>
       </c>
-      <c r="AP14" s="24">
+      <c r="AQ14" s="24">
         <v>2.7</v>
       </c>
     </row>
-    <row r="15" spans="1:42">
-      <c r="A15" s="25">
+    <row r="15" spans="1:43">
+      <c r="A15" s="56">
         <v>14</v>
       </c>
-      <c r="B15" s="26">
+      <c r="B15" s="60">
         <v>2</v>
       </c>
       <c r="C15" s="27">
@@ -8034,7 +9158,7 @@
       <c r="J15" s="28">
         <v>84</v>
       </c>
-      <c r="K15" s="28">
+      <c r="K15" s="48">
         <v>248.78</v>
       </c>
       <c r="L15" s="29">
@@ -8043,271 +9167,274 @@
       <c r="M15" s="28">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N15" s="29">
+      <c r="N15" s="38">
         <v>0.38</v>
       </c>
-      <c r="O15" s="31" t="s">
+      <c r="O15" s="29"/>
+      <c r="P15" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="Y15" s="27">
+      <c r="Z15" s="27">
         <v>3320</v>
       </c>
-      <c r="Z15" s="34">
+      <c r="AA15" s="34">
         <f t="shared" si="1"/>
         <v>7.4933734939759036E-2</v>
       </c>
-      <c r="AA15" s="28">
+      <c r="AB15" s="28">
         <v>248.78</v>
       </c>
-      <c r="AB15" s="11">
+      <c r="AC15" s="11">
         <f t="shared" si="2"/>
         <v>2.9616666666666669</v>
       </c>
-      <c r="AC15" s="28">
+      <c r="AD15" s="28">
         <v>84</v>
       </c>
-      <c r="AD15" s="27">
+      <c r="AE15" s="27">
         <v>22337</v>
       </c>
-      <c r="AE15" s="11">
+      <c r="AF15" s="11">
         <f t="shared" si="3"/>
         <v>3.760576621748668E-3</v>
       </c>
-      <c r="AF15" s="11">
+      <c r="AG15" s="11">
         <f t="shared" si="4"/>
         <v>2.5301204819277109E-2</v>
       </c>
-      <c r="AG15" s="29">
+      <c r="AH15" s="29">
         <v>0.38</v>
       </c>
-      <c r="AJ15" s="25">
+      <c r="AK15" s="25">
         <v>14</v>
       </c>
-      <c r="AK15" s="26">
+      <c r="AL15" s="26">
         <v>2</v>
       </c>
-      <c r="AL15" s="28">
+      <c r="AM15" s="28">
         <v>5.08</v>
       </c>
-      <c r="AM15" s="28">
+      <c r="AN15" s="28">
         <v>1.3</v>
       </c>
-      <c r="AN15" s="10">
+      <c r="AO15" s="10">
         <f t="shared" si="5"/>
         <v>3.7800000000000002</v>
       </c>
-      <c r="AO15" s="28">
+      <c r="AP15" s="28">
         <v>248.78</v>
       </c>
-      <c r="AP15" s="29">
+      <c r="AQ15" s="29">
         <v>2.96</v>
       </c>
     </row>
-    <row r="16" spans="1:42">
-      <c r="A16" s="25">
+    <row r="16" spans="1:43">
+      <c r="A16" s="57">
         <v>15</v>
       </c>
-      <c r="B16" s="26">
+      <c r="B16" s="61">
         <v>3</v>
       </c>
-      <c r="C16" s="27">
+      <c r="C16" s="39">
         <v>18563</v>
       </c>
-      <c r="D16" s="27">
+      <c r="D16" s="39">
         <v>2642</v>
       </c>
-      <c r="E16" s="29">
+      <c r="E16" s="41">
         <v>31.27</v>
       </c>
-      <c r="F16" s="29">
+      <c r="F16" s="41">
         <v>5.82</v>
       </c>
-      <c r="G16" s="28">
+      <c r="G16" s="40">
         <v>1.17</v>
       </c>
-      <c r="H16" s="28">
+      <c r="H16" s="40">
         <v>3</v>
       </c>
-      <c r="I16" s="28">
+      <c r="I16" s="40">
         <v>9</v>
       </c>
-      <c r="J16" s="28">
+      <c r="J16" s="40">
         <v>80</v>
       </c>
-      <c r="K16" s="28">
+      <c r="K16" s="51">
         <v>210.54</v>
       </c>
-      <c r="L16" s="28">
+      <c r="L16" s="40">
         <v>2.63</v>
       </c>
-      <c r="M16" s="29">
+      <c r="M16" s="41">
         <v>0.08</v>
       </c>
-      <c r="N16" s="29">
+      <c r="N16" s="45">
         <v>0.43</v>
       </c>
-      <c r="O16" s="31" t="s">
+      <c r="O16" s="29"/>
+      <c r="P16" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="Y16" s="27">
+      <c r="Z16" s="27">
         <v>2642</v>
       </c>
-      <c r="Z16" s="34">
+      <c r="AA16" s="34">
         <f t="shared" si="1"/>
         <v>7.9689629068887199E-2</v>
       </c>
-      <c r="AA16" s="28">
+      <c r="AB16" s="28">
         <v>210.54</v>
       </c>
-      <c r="AB16" s="11">
+      <c r="AC16" s="11">
         <f t="shared" si="2"/>
         <v>2.6317499999999998</v>
       </c>
-      <c r="AC16" s="28">
+      <c r="AD16" s="28">
         <v>80</v>
       </c>
-      <c r="AD16" s="27">
+      <c r="AE16" s="27">
         <v>18563</v>
       </c>
-      <c r="AE16" s="11">
+      <c r="AF16" s="11">
         <f t="shared" si="3"/>
         <v>4.3096482249636373E-3</v>
       </c>
-      <c r="AF16" s="11">
+      <c r="AG16" s="11">
         <f t="shared" si="4"/>
         <v>3.0280090840272521E-2</v>
       </c>
-      <c r="AG16" s="29">
+      <c r="AH16" s="29">
         <v>0.43</v>
       </c>
-      <c r="AJ16" s="25">
+      <c r="AK16" s="25">
         <v>15</v>
       </c>
-      <c r="AK16" s="26">
+      <c r="AL16" s="26">
         <v>3</v>
       </c>
-      <c r="AL16" s="29">
+      <c r="AM16" s="29">
         <v>5.82</v>
       </c>
-      <c r="AM16" s="28">
+      <c r="AN16" s="28">
         <v>1.17</v>
       </c>
-      <c r="AN16" s="10">
+      <c r="AO16" s="10">
         <f t="shared" si="5"/>
         <v>4.6500000000000004</v>
       </c>
-      <c r="AO16" s="28">
+      <c r="AP16" s="28">
         <v>210.54</v>
       </c>
-      <c r="AP16" s="28">
+      <c r="AQ16" s="28">
         <v>2.63</v>
       </c>
     </row>
-    <row r="17" spans="1:42">
-      <c r="A17" s="25">
+    <row r="17" spans="1:43">
+      <c r="A17" s="55">
         <v>16</v>
       </c>
-      <c r="B17" s="26">
+      <c r="B17" s="59">
         <v>4</v>
       </c>
-      <c r="C17" s="27">
+      <c r="C17" s="36">
         <v>18151</v>
       </c>
-      <c r="D17" s="27">
+      <c r="D17" s="36">
         <v>2478</v>
       </c>
-      <c r="E17" s="29">
+      <c r="E17" s="23">
         <v>31.62</v>
       </c>
-      <c r="F17" s="28">
+      <c r="F17" s="24">
         <v>5.43</v>
       </c>
-      <c r="G17" s="29">
+      <c r="G17" s="23">
         <v>1.52</v>
       </c>
-      <c r="H17" s="28">
+      <c r="H17" s="24">
         <v>2</v>
       </c>
-      <c r="I17" s="29">
+      <c r="I17" s="23">
         <v>10</v>
       </c>
-      <c r="J17" s="28">
+      <c r="J17" s="24">
         <v>70</v>
       </c>
-      <c r="K17" s="28">
+      <c r="K17" s="47">
         <v>142.65</v>
       </c>
-      <c r="L17" s="28">
+      <c r="L17" s="24">
         <v>2.04</v>
       </c>
-      <c r="M17" s="28">
+      <c r="M17" s="24">
         <v>0.06</v>
       </c>
-      <c r="N17" s="28">
+      <c r="N17" s="43">
         <v>0.39</v>
       </c>
-      <c r="O17" s="31" t="s">
+      <c r="O17" s="28"/>
+      <c r="P17" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="Y17" s="27">
+      <c r="Z17" s="27">
         <v>2478</v>
       </c>
-      <c r="Z17" s="34">
+      <c r="AA17" s="34">
         <f t="shared" si="1"/>
         <v>5.756658595641647E-2</v>
       </c>
-      <c r="AA17" s="28">
+      <c r="AB17" s="28">
         <v>142.65</v>
       </c>
-      <c r="AB17" s="11">
+      <c r="AC17" s="11">
         <f t="shared" si="2"/>
         <v>2.0378571428571428</v>
       </c>
-      <c r="AC17" s="28">
+      <c r="AD17" s="28">
         <v>70</v>
       </c>
-      <c r="AD17" s="27">
+      <c r="AE17" s="27">
         <v>18151</v>
       </c>
-      <c r="AE17" s="11">
+      <c r="AF17" s="11">
         <f t="shared" si="3"/>
         <v>3.8565368299267257E-3</v>
       </c>
-      <c r="AF17" s="11">
+      <c r="AG17" s="11">
         <f t="shared" si="4"/>
         <v>2.8248587570621469E-2</v>
       </c>
-      <c r="AG17" s="28">
+      <c r="AH17" s="28">
         <v>0.39</v>
       </c>
-      <c r="AJ17" s="25">
+      <c r="AK17" s="25">
         <v>16</v>
       </c>
-      <c r="AK17" s="26">
+      <c r="AL17" s="26">
         <v>4</v>
       </c>
-      <c r="AL17" s="28">
+      <c r="AM17" s="28">
         <v>5.43</v>
       </c>
-      <c r="AM17" s="29">
+      <c r="AN17" s="29">
         <v>1.52</v>
       </c>
-      <c r="AN17" s="10">
+      <c r="AO17" s="10">
         <f t="shared" si="5"/>
         <v>3.9099999999999997</v>
       </c>
-      <c r="AO17" s="28">
+      <c r="AP17" s="28">
         <v>142.65</v>
       </c>
-      <c r="AP17" s="28">
+      <c r="AQ17" s="28">
         <v>2.04</v>
       </c>
     </row>
-    <row r="18" spans="1:42">
-      <c r="A18" s="25">
+    <row r="18" spans="1:43">
+      <c r="A18" s="56">
         <v>17</v>
       </c>
-      <c r="B18" s="26">
+      <c r="B18" s="60">
         <v>5</v>
       </c>
       <c r="C18" s="30">
@@ -8334,7 +9461,7 @@
       <c r="J18" s="29">
         <v>75</v>
       </c>
-      <c r="K18" s="29">
+      <c r="K18" s="50">
         <v>181.94</v>
       </c>
       <c r="L18" s="29">
@@ -8343,271 +9470,274 @@
       <c r="M18" s="29">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N18" s="28">
+      <c r="N18" s="44">
         <v>0.37</v>
       </c>
-      <c r="O18" s="31" t="s">
+      <c r="O18" s="28"/>
+      <c r="P18" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="Y18" s="30">
+      <c r="Z18" s="30">
         <v>2568</v>
       </c>
-      <c r="Z18" s="34">
+      <c r="AA18" s="34">
         <f t="shared" si="1"/>
         <v>7.0848909657320866E-2</v>
       </c>
-      <c r="AA18" s="29">
+      <c r="AB18" s="29">
         <v>181.94</v>
       </c>
-      <c r="AB18" s="11">
+      <c r="AC18" s="11">
         <f t="shared" si="2"/>
         <v>2.4258666666666668</v>
       </c>
-      <c r="AC18" s="29">
+      <c r="AD18" s="29">
         <v>75</v>
       </c>
-      <c r="AD18" s="30">
+      <c r="AE18" s="30">
         <v>20228</v>
       </c>
-      <c r="AE18" s="11">
+      <c r="AF18" s="11">
         <f t="shared" si="3"/>
         <v>3.7077318568321141E-3</v>
       </c>
-      <c r="AF18" s="11">
+      <c r="AG18" s="11">
         <f t="shared" si="4"/>
         <v>2.9205607476635514E-2</v>
       </c>
-      <c r="AG18" s="28">
+      <c r="AH18" s="28">
         <v>0.37</v>
       </c>
-      <c r="AJ18" s="25">
+      <c r="AK18" s="25">
         <v>17</v>
       </c>
-      <c r="AK18" s="26">
+      <c r="AL18" s="26">
         <v>5</v>
       </c>
-      <c r="AL18" s="28">
+      <c r="AM18" s="28">
         <v>5.24</v>
       </c>
-      <c r="AM18" s="28">
+      <c r="AN18" s="28">
         <v>1.27</v>
       </c>
-      <c r="AN18" s="10">
+      <c r="AO18" s="10">
         <f t="shared" si="5"/>
         <v>3.97</v>
       </c>
-      <c r="AO18" s="29">
+      <c r="AP18" s="29">
         <v>181.94</v>
       </c>
-      <c r="AP18" s="29">
+      <c r="AQ18" s="29">
         <v>2.4300000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:42">
-      <c r="A19" s="25">
+    <row r="19" spans="1:43">
+      <c r="A19" s="57">
         <v>18</v>
       </c>
-      <c r="B19" s="26">
+      <c r="B19" s="61">
         <v>6</v>
       </c>
-      <c r="C19" s="30">
+      <c r="C19" s="46">
         <v>25579</v>
       </c>
-      <c r="D19" s="30">
+      <c r="D19" s="46">
         <v>3103</v>
       </c>
-      <c r="E19" s="29">
+      <c r="E19" s="41">
         <v>33</v>
       </c>
-      <c r="F19" s="29">
+      <c r="F19" s="41">
         <v>5.49</v>
       </c>
-      <c r="G19" s="28">
+      <c r="G19" s="40">
         <v>0.83</v>
       </c>
-      <c r="H19" s="29">
+      <c r="H19" s="41">
         <v>3</v>
       </c>
-      <c r="I19" s="29">
+      <c r="I19" s="41">
         <v>11</v>
       </c>
-      <c r="J19" s="29">
+      <c r="J19" s="41">
         <v>76</v>
       </c>
-      <c r="K19" s="29">
+      <c r="K19" s="49">
         <v>204.36</v>
       </c>
-      <c r="L19" s="29">
+      <c r="L19" s="41">
         <v>2.69</v>
       </c>
-      <c r="M19" s="29">
+      <c r="M19" s="41">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N19" s="28">
+      <c r="N19" s="42">
         <v>0.3</v>
       </c>
-      <c r="O19" s="31" t="s">
+      <c r="O19" s="28"/>
+      <c r="P19" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="Y19" s="30">
+      <c r="Z19" s="30">
         <v>3103</v>
       </c>
-      <c r="Z19" s="34">
+      <c r="AA19" s="34">
         <f t="shared" si="1"/>
         <v>6.5858846277795688E-2</v>
       </c>
-      <c r="AA19" s="29">
+      <c r="AB19" s="29">
         <v>204.36</v>
       </c>
-      <c r="AB19" s="11">
+      <c r="AC19" s="11">
         <f t="shared" si="2"/>
         <v>2.688947368421053</v>
       </c>
-      <c r="AC19" s="29">
+      <c r="AD19" s="29">
         <v>76</v>
       </c>
-      <c r="AD19" s="30">
+      <c r="AE19" s="30">
         <v>25579</v>
       </c>
-      <c r="AE19" s="11">
+      <c r="AF19" s="11">
         <f t="shared" si="3"/>
         <v>2.9711873020837405E-3</v>
       </c>
-      <c r="AF19" s="11">
+      <c r="AG19" s="11">
         <f t="shared" si="4"/>
         <v>2.4492426683854335E-2</v>
       </c>
-      <c r="AG19" s="28">
+      <c r="AH19" s="28">
         <v>0.3</v>
       </c>
-      <c r="AJ19" s="25">
+      <c r="AK19" s="25">
         <v>18</v>
       </c>
-      <c r="AK19" s="26">
+      <c r="AL19" s="26">
         <v>6</v>
       </c>
-      <c r="AL19" s="29">
+      <c r="AM19" s="29">
         <v>5.49</v>
       </c>
-      <c r="AM19" s="28">
+      <c r="AN19" s="28">
         <v>0.83</v>
       </c>
-      <c r="AN19" s="10">
+      <c r="AO19" s="10">
         <f t="shared" si="5"/>
         <v>4.66</v>
       </c>
-      <c r="AO19" s="29">
+      <c r="AP19" s="29">
         <v>204.36</v>
       </c>
-      <c r="AP19" s="29">
+      <c r="AQ19" s="29">
         <v>2.69</v>
       </c>
     </row>
-    <row r="20" spans="1:42">
-      <c r="A20" s="25">
+    <row r="20" spans="1:43">
+      <c r="A20" s="55">
         <v>19</v>
       </c>
-      <c r="B20" s="26">
+      <c r="B20" s="59">
         <v>7</v>
       </c>
-      <c r="C20" s="27">
+      <c r="C20" s="36">
         <v>20261</v>
       </c>
-      <c r="D20" s="27">
+      <c r="D20" s="36">
         <v>2357</v>
       </c>
-      <c r="E20" s="28">
+      <c r="E20" s="24">
         <v>31.19</v>
       </c>
-      <c r="F20" s="28">
+      <c r="F20" s="24">
         <v>5.41</v>
       </c>
-      <c r="G20" s="29">
+      <c r="G20" s="23">
         <v>1.36</v>
       </c>
-      <c r="H20" s="29">
+      <c r="H20" s="23">
         <v>3</v>
       </c>
-      <c r="I20" s="28">
+      <c r="I20" s="24">
         <v>10</v>
       </c>
-      <c r="J20" s="28">
+      <c r="J20" s="24">
         <v>60</v>
       </c>
-      <c r="K20" s="28">
+      <c r="K20" s="47">
         <v>159.30000000000001</v>
       </c>
-      <c r="L20" s="28">
+      <c r="L20" s="24">
         <v>2.66</v>
       </c>
-      <c r="M20" s="29">
+      <c r="M20" s="23">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N20" s="28">
+      <c r="N20" s="43">
         <v>0.3</v>
       </c>
-      <c r="O20" s="31" t="s">
+      <c r="O20" s="28"/>
+      <c r="P20" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="Y20" s="27">
+      <c r="Z20" s="27">
         <v>2357</v>
       </c>
-      <c r="Z20" s="34">
+      <c r="AA20" s="34">
         <f t="shared" si="1"/>
         <v>6.7585914297836239E-2</v>
       </c>
-      <c r="AA20" s="28">
+      <c r="AB20" s="28">
         <v>159.30000000000001</v>
       </c>
-      <c r="AB20" s="11">
+      <c r="AC20" s="11">
         <f t="shared" si="2"/>
         <v>2.6550000000000002</v>
       </c>
-      <c r="AC20" s="28">
+      <c r="AD20" s="28">
         <v>60</v>
       </c>
-      <c r="AD20" s="27">
+      <c r="AE20" s="27">
         <v>20261</v>
       </c>
-      <c r="AE20" s="11">
+      <c r="AF20" s="11">
         <f t="shared" si="3"/>
         <v>2.9613543260451113E-3</v>
       </c>
-      <c r="AF20" s="11">
+      <c r="AG20" s="11">
         <f t="shared" si="4"/>
         <v>2.5456088247772592E-2</v>
       </c>
-      <c r="AG20" s="28">
+      <c r="AH20" s="28">
         <v>0.3</v>
       </c>
-      <c r="AJ20" s="25">
+      <c r="AK20" s="25">
         <v>19</v>
       </c>
-      <c r="AK20" s="26">
+      <c r="AL20" s="26">
         <v>7</v>
       </c>
-      <c r="AL20" s="28">
+      <c r="AM20" s="28">
         <v>5.41</v>
       </c>
-      <c r="AM20" s="29">
+      <c r="AN20" s="29">
         <v>1.36</v>
       </c>
-      <c r="AN20" s="10">
+      <c r="AO20" s="10">
         <f t="shared" si="5"/>
         <v>4.05</v>
       </c>
-      <c r="AO20" s="28">
+      <c r="AP20" s="28">
         <v>159.30000000000001</v>
       </c>
-      <c r="AP20" s="28">
+      <c r="AQ20" s="28">
         <v>2.66</v>
       </c>
     </row>
-    <row r="21" spans="1:42">
-      <c r="A21" s="25">
+    <row r="21" spans="1:43">
+      <c r="A21" s="56">
         <v>20</v>
       </c>
-      <c r="B21" s="26">
+      <c r="B21" s="60">
         <v>8</v>
       </c>
       <c r="C21" s="27">
@@ -8634,7 +9764,7 @@
       <c r="J21" s="28">
         <v>54</v>
       </c>
-      <c r="K21" s="28">
+      <c r="K21" s="48">
         <v>138.51</v>
       </c>
       <c r="L21" s="28">
@@ -8643,271 +9773,274 @@
       <c r="M21" s="28">
         <v>0.06</v>
       </c>
-      <c r="N21" s="28">
+      <c r="N21" s="44">
         <v>0.28999999999999998</v>
       </c>
-      <c r="O21" s="31" t="s">
+      <c r="O21" s="28"/>
+      <c r="P21" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="Y21" s="27">
+      <c r="Z21" s="27">
         <v>2145</v>
       </c>
-      <c r="Z21" s="34">
+      <c r="AA21" s="34">
         <f t="shared" si="1"/>
         <v>6.4573426573426573E-2</v>
       </c>
-      <c r="AA21" s="28">
+      <c r="AB21" s="28">
         <v>138.51</v>
       </c>
-      <c r="AB21" s="11">
+      <c r="AC21" s="11">
         <f t="shared" si="2"/>
         <v>2.5649999999999999</v>
       </c>
-      <c r="AC21" s="28">
+      <c r="AD21" s="28">
         <v>54</v>
       </c>
-      <c r="AD21" s="27">
+      <c r="AE21" s="27">
         <v>18517</v>
       </c>
-      <c r="AE21" s="11">
+      <c r="AF21" s="11">
         <f t="shared" si="3"/>
         <v>2.9162391316087917E-3</v>
       </c>
-      <c r="AF21" s="11">
+      <c r="AG21" s="11">
         <f t="shared" si="4"/>
         <v>2.5174825174825177E-2</v>
       </c>
-      <c r="AG21" s="28">
+      <c r="AH21" s="28">
         <v>0.28999999999999998</v>
       </c>
-      <c r="AJ21" s="25">
+      <c r="AK21" s="25">
         <v>20</v>
       </c>
-      <c r="AK21" s="26">
+      <c r="AL21" s="26">
         <v>8</v>
       </c>
-      <c r="AL21" s="28">
+      <c r="AM21" s="28">
         <v>5.2</v>
       </c>
-      <c r="AM21" s="28">
+      <c r="AN21" s="28">
         <v>0.82</v>
       </c>
-      <c r="AN21" s="10">
+      <c r="AO21" s="10">
         <f t="shared" si="5"/>
         <v>4.38</v>
       </c>
-      <c r="AO21" s="28">
+      <c r="AP21" s="28">
         <v>138.51</v>
       </c>
-      <c r="AP21" s="28">
+      <c r="AQ21" s="28">
         <v>2.57</v>
       </c>
     </row>
-    <row r="22" spans="1:42">
-      <c r="A22" s="25">
+    <row r="22" spans="1:43">
+      <c r="A22" s="57">
         <v>21</v>
       </c>
-      <c r="B22" s="26">
+      <c r="B22" s="61">
         <v>9</v>
       </c>
-      <c r="C22" s="27">
+      <c r="C22" s="39">
         <v>19095</v>
       </c>
-      <c r="D22" s="27">
+      <c r="D22" s="39">
         <v>2132</v>
       </c>
-      <c r="E22" s="28">
+      <c r="E22" s="40">
         <v>31.26</v>
       </c>
-      <c r="F22" s="29">
+      <c r="F22" s="41">
         <v>5.43</v>
       </c>
-      <c r="G22" s="29">
+      <c r="G22" s="41">
         <v>1.19</v>
       </c>
-      <c r="H22" s="28">
+      <c r="H22" s="40">
         <v>2</v>
       </c>
-      <c r="I22" s="28">
+      <c r="I22" s="40">
         <v>10</v>
       </c>
-      <c r="J22" s="29">
+      <c r="J22" s="41">
         <v>55</v>
       </c>
-      <c r="K22" s="29">
+      <c r="K22" s="49">
         <v>151.43</v>
       </c>
-      <c r="L22" s="29">
+      <c r="L22" s="41">
         <v>2.75</v>
       </c>
-      <c r="M22" s="29">
+      <c r="M22" s="41">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N22" s="28">
+      <c r="N22" s="42">
         <v>0.28999999999999998</v>
       </c>
-      <c r="O22" s="31" t="s">
+      <c r="O22" s="28"/>
+      <c r="P22" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="Y22" s="27">
+      <c r="Z22" s="27">
         <v>2132</v>
       </c>
-      <c r="Z22" s="34">
+      <c r="AA22" s="34">
         <f t="shared" si="1"/>
         <v>7.1027204502814259E-2</v>
       </c>
-      <c r="AA22" s="29">
+      <c r="AB22" s="29">
         <v>151.43</v>
       </c>
-      <c r="AB22" s="11">
+      <c r="AC22" s="11">
         <f t="shared" si="2"/>
         <v>2.7532727272727273</v>
       </c>
-      <c r="AC22" s="29">
+      <c r="AD22" s="29">
         <v>55</v>
       </c>
-      <c r="AD22" s="27">
+      <c r="AE22" s="27">
         <v>19095</v>
       </c>
-      <c r="AE22" s="11">
+      <c r="AF22" s="11">
         <f t="shared" si="3"/>
         <v>2.8803351662738939E-3</v>
       </c>
-      <c r="AF22" s="11">
+      <c r="AG22" s="11">
         <f t="shared" si="4"/>
         <v>2.5797373358348967E-2</v>
       </c>
-      <c r="AG22" s="28">
+      <c r="AH22" s="28">
         <v>0.28999999999999998</v>
       </c>
-      <c r="AJ22" s="25">
+      <c r="AK22" s="25">
         <v>21</v>
       </c>
-      <c r="AK22" s="26">
+      <c r="AL22" s="26">
         <v>9</v>
       </c>
-      <c r="AL22" s="29">
+      <c r="AM22" s="29">
         <v>5.43</v>
       </c>
-      <c r="AM22" s="29">
+      <c r="AN22" s="29">
         <v>1.19</v>
       </c>
-      <c r="AN22" s="10">
+      <c r="AO22" s="10">
         <f t="shared" si="5"/>
         <v>4.24</v>
       </c>
-      <c r="AO22" s="29">
+      <c r="AP22" s="29">
         <v>151.43</v>
       </c>
-      <c r="AP22" s="29">
+      <c r="AQ22" s="29">
         <v>2.75</v>
       </c>
     </row>
-    <row r="23" spans="1:42">
-      <c r="A23" s="25">
+    <row r="23" spans="1:43">
+      <c r="A23" s="55">
         <v>22</v>
       </c>
-      <c r="B23" s="26">
+      <c r="B23" s="59">
         <v>10</v>
       </c>
-      <c r="C23" s="30">
+      <c r="C23" s="22">
         <v>19537</v>
       </c>
-      <c r="D23" s="27">
+      <c r="D23" s="36">
         <v>2106</v>
       </c>
-      <c r="E23" s="28">
+      <c r="E23" s="24">
         <v>30.59</v>
       </c>
-      <c r="F23" s="28">
+      <c r="F23" s="24">
         <v>5.35</v>
       </c>
-      <c r="G23" s="29">
+      <c r="G23" s="23">
         <v>1.19</v>
       </c>
-      <c r="H23" s="28">
+      <c r="H23" s="24">
         <v>2</v>
       </c>
-      <c r="I23" s="29">
+      <c r="I23" s="23">
         <v>11</v>
       </c>
-      <c r="J23" s="29">
+      <c r="J23" s="23">
         <v>55</v>
       </c>
-      <c r="K23" s="29">
+      <c r="K23" s="52">
         <v>152.96</v>
       </c>
-      <c r="L23" s="29">
+      <c r="L23" s="23">
         <v>2.78</v>
       </c>
-      <c r="M23" s="29">
+      <c r="M23" s="23">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N23" s="28">
+      <c r="N23" s="43">
         <v>0.28000000000000003</v>
       </c>
-      <c r="O23" t="s">
+      <c r="O23" s="28"/>
+      <c r="P23" t="s">
         <v>29</v>
       </c>
-      <c r="Y23" s="27">
+      <c r="Z23" s="27">
         <v>2106</v>
       </c>
-      <c r="Z23" s="34">
+      <c r="AA23" s="34">
         <f t="shared" si="1"/>
         <v>7.2630579297245965E-2</v>
       </c>
-      <c r="AA23" s="29">
+      <c r="AB23" s="29">
         <v>152.96</v>
       </c>
-      <c r="AB23" s="11">
+      <c r="AC23" s="11">
         <f t="shared" si="2"/>
         <v>2.7810909090909091</v>
       </c>
-      <c r="AC23" s="29">
+      <c r="AD23" s="29">
         <v>55</v>
       </c>
-      <c r="AD23" s="30">
+      <c r="AE23" s="30">
         <v>19537</v>
       </c>
-      <c r="AE23" s="11">
+      <c r="AF23" s="11">
         <f t="shared" si="3"/>
         <v>2.8151712135947179E-3</v>
       </c>
-      <c r="AF23" s="11">
+      <c r="AG23" s="11">
         <f t="shared" si="4"/>
         <v>2.6115859449192782E-2</v>
       </c>
-      <c r="AG23" s="28">
+      <c r="AH23" s="28">
         <v>0.28000000000000003</v>
       </c>
-      <c r="AJ23" s="25">
+      <c r="AK23" s="25">
         <v>22</v>
       </c>
-      <c r="AK23" s="26">
+      <c r="AL23" s="26">
         <v>10</v>
       </c>
-      <c r="AL23" s="28">
+      <c r="AM23" s="28">
         <v>5.35</v>
       </c>
-      <c r="AM23" s="29">
+      <c r="AN23" s="29">
         <v>1.19</v>
       </c>
-      <c r="AN23" s="10">
+      <c r="AO23" s="10">
         <f t="shared" si="5"/>
         <v>4.16</v>
       </c>
-      <c r="AO23" s="29">
+      <c r="AP23" s="29">
         <v>152.96</v>
       </c>
-      <c r="AP23" s="29">
+      <c r="AQ23" s="29">
         <v>2.78</v>
       </c>
     </row>
-    <row r="24" spans="1:42">
-      <c r="A24" s="25">
+    <row r="24" spans="1:43">
+      <c r="A24" s="56">
         <v>23</v>
       </c>
-      <c r="B24" s="26">
+      <c r="B24" s="60">
         <v>11</v>
       </c>
       <c r="C24" s="30">
@@ -8934,7 +10067,7 @@
       <c r="J24" s="28">
         <v>54</v>
       </c>
-      <c r="K24" s="29">
+      <c r="K24" s="50">
         <v>183.02</v>
       </c>
       <c r="L24" s="29">
@@ -8943,171 +10076,173 @@
       <c r="M24" s="29">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N24" s="28">
+      <c r="N24" s="44">
         <v>0.22</v>
       </c>
-      <c r="O24" t="s">
+      <c r="O24" s="28"/>
+      <c r="P24" t="s">
         <v>29</v>
       </c>
-      <c r="Y24" s="30">
+      <c r="Z24" s="30">
         <v>2635</v>
       </c>
-      <c r="Z24" s="34">
+      <c r="AA24" s="34">
         <f t="shared" si="1"/>
         <v>6.9457305502846303E-2</v>
       </c>
-      <c r="AA24" s="29">
+      <c r="AB24" s="29">
         <v>183.02</v>
       </c>
-      <c r="AB24" s="11">
+      <c r="AC24" s="11">
         <f t="shared" si="2"/>
         <v>3.3892592592592594</v>
       </c>
-      <c r="AC24" s="28">
+      <c r="AD24" s="28">
         <v>54</v>
       </c>
-      <c r="AD24" s="30">
+      <c r="AE24" s="30">
         <v>24746</v>
       </c>
-      <c r="AE24" s="11">
+      <c r="AF24" s="11">
         <f t="shared" si="3"/>
         <v>2.1821708558959025E-3</v>
       </c>
-      <c r="AF24" s="11">
+      <c r="AG24" s="11">
         <f t="shared" si="4"/>
         <v>2.049335863377609E-2</v>
       </c>
-      <c r="AG24" s="28">
+      <c r="AH24" s="28">
         <v>0.22</v>
       </c>
-      <c r="AJ24" s="25">
+      <c r="AK24" s="25">
         <v>23</v>
       </c>
-      <c r="AK24" s="26">
+      <c r="AL24" s="26">
         <v>11</v>
       </c>
-      <c r="AL24" s="29">
+      <c r="AM24" s="29">
         <v>5.71</v>
       </c>
-      <c r="AM24" s="29">
+      <c r="AN24" s="29">
         <v>1.25</v>
       </c>
-      <c r="AN24" s="10">
+      <c r="AO24" s="10">
         <f t="shared" si="5"/>
         <v>4.46</v>
       </c>
-      <c r="AO24" s="29">
+      <c r="AP24" s="29">
         <v>183.02</v>
       </c>
-      <c r="AP24" s="29">
+      <c r="AQ24" s="29">
         <v>3.39</v>
       </c>
     </row>
-    <row r="25" spans="1:42">
-      <c r="A25" s="25">
+    <row r="25" spans="1:43">
+      <c r="A25" s="57">
         <v>24</v>
       </c>
-      <c r="B25" s="26">
+      <c r="B25" s="61">
         <v>12</v>
       </c>
-      <c r="C25" s="30">
+      <c r="C25" s="46">
         <v>36494</v>
       </c>
-      <c r="D25" s="30">
+      <c r="D25" s="46">
         <v>3595</v>
       </c>
-      <c r="E25" s="29">
+      <c r="E25" s="41">
         <v>32.979999999999997</v>
       </c>
-      <c r="F25" s="28">
+      <c r="F25" s="40">
         <v>5.04</v>
       </c>
-      <c r="G25" s="28">
+      <c r="G25" s="40">
         <v>1.05</v>
       </c>
-      <c r="H25" s="29">
+      <c r="H25" s="41">
         <v>3</v>
       </c>
-      <c r="I25" s="28">
+      <c r="I25" s="40">
         <v>9</v>
       </c>
-      <c r="J25" s="28">
+      <c r="J25" s="40">
         <v>45</v>
       </c>
-      <c r="K25" s="29">
+      <c r="K25" s="49">
         <v>260.37</v>
       </c>
-      <c r="L25" s="29">
+      <c r="L25" s="41">
         <v>5.79</v>
       </c>
-      <c r="M25" s="29">
+      <c r="M25" s="41">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N25" s="28">
+      <c r="N25" s="42">
         <v>0.12</v>
       </c>
-      <c r="O25" t="s">
+      <c r="O25" s="28"/>
+      <c r="P25" t="s">
         <v>29</v>
       </c>
-      <c r="Y25" s="30">
+      <c r="Z25" s="30">
         <v>3595</v>
       </c>
-      <c r="Z25" s="34">
+      <c r="AA25" s="34">
         <f t="shared" si="1"/>
         <v>7.2425591098748257E-2</v>
       </c>
-      <c r="AA25" s="29">
+      <c r="AB25" s="29">
         <v>260.37</v>
       </c>
-      <c r="AB25" s="11">
+      <c r="AC25" s="11">
         <f t="shared" si="2"/>
         <v>5.7860000000000005</v>
       </c>
-      <c r="AC25" s="28">
+      <c r="AD25" s="28">
         <v>45</v>
       </c>
-      <c r="AD25" s="30">
+      <c r="AE25" s="30">
         <v>36494</v>
       </c>
-      <c r="AE25" s="11">
+      <c r="AF25" s="11">
         <f t="shared" si="3"/>
         <v>1.2330794103140243E-3</v>
       </c>
-      <c r="AF25" s="11">
+      <c r="AG25" s="11">
         <f t="shared" si="4"/>
         <v>1.2517385257301807E-2</v>
       </c>
-      <c r="AG25" s="28">
+      <c r="AH25" s="28">
         <v>0.12</v>
       </c>
-      <c r="AJ25" s="25">
+      <c r="AK25" s="25">
         <v>24</v>
       </c>
-      <c r="AK25" s="26">
+      <c r="AL25" s="26">
         <v>12</v>
       </c>
-      <c r="AL25" s="28">
+      <c r="AM25" s="28">
         <v>5.04</v>
       </c>
-      <c r="AM25" s="28">
+      <c r="AN25" s="28">
         <v>1.05</v>
       </c>
-      <c r="AN25" s="10">
+      <c r="AO25" s="10">
         <f t="shared" si="5"/>
         <v>3.99</v>
       </c>
-      <c r="AO25" s="29">
+      <c r="AP25" s="29">
         <v>260.37</v>
       </c>
-      <c r="AP25" s="29">
+      <c r="AQ25" s="29">
         <v>5.79</v>
       </c>
     </row>
-    <row r="26" spans="1:42">
-      <c r="A26" s="20">
+    <row r="26" spans="1:43">
+      <c r="A26" s="55">
         <v>25</v>
       </c>
-      <c r="B26" s="21">
+      <c r="B26" s="59">
         <v>1</v>
       </c>
       <c r="C26" s="22">
@@ -9134,7 +10269,7 @@
       <c r="J26" s="24">
         <v>39</v>
       </c>
-      <c r="K26" s="24">
+      <c r="K26" s="47">
         <v>196.14</v>
       </c>
       <c r="L26" s="24">
@@ -9146,65 +10281,66 @@
       <c r="N26" s="24">
         <v>0.1</v>
       </c>
-      <c r="O26" s="31" t="s">
+      <c r="O26" s="28"/>
+      <c r="P26" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="Y26" s="22">
+      <c r="Z26" s="22">
         <v>3881</v>
       </c>
-      <c r="Z26" s="34">
+      <c r="AA26" s="34">
         <f t="shared" si="1"/>
         <v>5.0538520999742334E-2</v>
       </c>
-      <c r="AA26" s="24">
+      <c r="AB26" s="24">
         <v>196.14</v>
       </c>
-      <c r="AB26" s="11">
+      <c r="AC26" s="11">
         <f t="shared" si="2"/>
         <v>5.0292307692307689</v>
       </c>
-      <c r="AC26" s="24">
+      <c r="AD26" s="24">
         <v>39</v>
       </c>
-      <c r="AD26" s="22">
+      <c r="AE26" s="22">
         <v>40174</v>
       </c>
-      <c r="AE26" s="11">
+      <c r="AF26" s="11">
         <f t="shared" si="3"/>
         <v>9.7077711953004432E-4</v>
       </c>
-      <c r="AF26" s="11">
+      <c r="AG26" s="11">
         <f t="shared" si="4"/>
         <v>1.0048956454522031E-2</v>
       </c>
-      <c r="AG26" s="24">
+      <c r="AH26" s="24">
         <v>0.1</v>
       </c>
-      <c r="AJ26" s="20">
+      <c r="AK26" s="20">
         <v>25</v>
       </c>
-      <c r="AK26" s="21">
+      <c r="AL26" s="21">
         <v>1</v>
       </c>
-      <c r="AL26" s="23">
+      <c r="AM26" s="23">
         <v>5.17</v>
       </c>
-      <c r="AM26" s="24">
+      <c r="AN26" s="24">
         <v>0.86</v>
       </c>
-      <c r="AN26" s="10">
+      <c r="AO26" s="10">
         <f t="shared" si="5"/>
         <v>4.3099999999999996</v>
       </c>
-      <c r="AO26" s="24">
+      <c r="AP26" s="24">
         <v>196.14</v>
       </c>
-      <c r="AP26" s="24">
+      <c r="AQ26" s="24">
         <v>5.03</v>
       </c>
     </row>
-    <row r="27" spans="1:42">
-      <c r="AN27" s="10"/>
+    <row r="27" spans="1:43">
+      <c r="AO27" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/agate3.xlsx
+++ b/agate3.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="12880" yWindow="-21600" windowWidth="25560" windowHeight="19760" tabRatio="500"/>
+    <workbookView xWindow="12880" yWindow="-21600" windowWidth="25560" windowHeight="19760" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="73">
   <si>
     <t>New User</t>
   </si>
@@ -37,6 +38,9 @@
   </si>
   <si>
     <t>Avg. Session</t>
+  </si>
+  <si>
+    <t>Playtime/day</t>
   </si>
   <si>
     <t>Paying User</t>
@@ -170,6 +174,72 @@
   <si>
     <t>GR/PU (ARPPU)</t>
   </si>
+  <si>
+    <t>D7Retention</t>
+  </si>
+  <si>
+    <t>D30Retention</t>
+  </si>
+  <si>
+    <t>New Users</t>
+  </si>
+  <si>
+    <t>Paying Users</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Total Features/Month</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Development Log</t>
+  </si>
+  <si>
+    <t>Add Boss dungeon, Event Season of Love</t>
+  </si>
+  <si>
+    <t>More IAP, dungeon</t>
+  </si>
+  <si>
+    <t>Halloween Event</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>Sept</t>
+  </si>
+  <si>
+    <t>Oct</t>
+  </si>
+  <si>
+    <t>Nov</t>
+  </si>
+  <si>
+    <t>Dec</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>More gacha character</t>
+  </si>
+  <si>
+    <t>More dungeon and playable character</t>
+  </si>
+  <si>
+    <t>Hallloween Event</t>
+  </si>
+  <si>
+    <t>Marketing</t>
+  </si>
 </sst>
 </file>
 
@@ -284,7 +354,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -378,8 +448,126 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="57">
+  <cellStyleXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -437,8 +625,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -515,8 +721,29 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="57">
+  <cellStyles count="75">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -545,6 +772,15 @@
     <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -573,6 +809,15 @@
     <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2946,8 +3191,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.0977636828187882"/>
           <c:y val="0.90651304845806"/>
-          <c:w val="0.308187714652708"/>
-          <c:h val="0.0689743295736163"/>
+          <c:w val="0.306986583719984"/>
+          <c:h val="0.0703240243673118"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -3700,8 +3945,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.440086851715174"/>
           <c:y val="0.89950968160323"/>
-          <c:w val="0.371853306046334"/>
-          <c:h val="0.068974292267993"/>
+          <c:w val="0.370404044810106"/>
+          <c:h val="0.0703240049773535"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -4300,7 +4545,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.440086851715174"/>
           <c:y val="0.89950968160323"/>
-          <c:w val="0.355454234941848"/>
+          <c:w val="0.355454286693927"/>
           <c:h val="0.0689743109207996"/>
         </c:manualLayout>
       </c:layout>
@@ -4353,7 +4598,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AP$1</c:f>
+              <c:f>Sheet1!$AO$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4367,7 +4612,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$AK$2:$AK$26</c:f>
+              <c:f>Sheet1!$AJ$2:$AJ$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -4451,7 +4696,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AP$2:$AP$26</c:f>
+              <c:f>Sheet1!$AO$2:$AO$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -4556,7 +4801,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AO$1</c:f>
+              <c:f>Sheet1!$AN$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4570,7 +4815,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$AK$2:$AK$26</c:f>
+              <c:f>Sheet1!$AJ$2:$AJ$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -4654,7 +4899,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AO$2:$AO$26</c:f>
+              <c:f>Sheet1!$AN$2:$AN$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -4743,7 +4988,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AN$1</c:f>
+              <c:f>Sheet1!$AM$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4757,7 +5002,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$AK$2:$AK$26</c:f>
+              <c:f>Sheet1!$AJ$2:$AJ$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -4841,7 +5086,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AN$2:$AN$27</c:f>
+              <c:f>Sheet1!$AM$2:$AM$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -4930,7 +5175,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AM$1</c:f>
+              <c:f>Sheet1!$AL$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4944,7 +5189,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$AK$2:$AK$26</c:f>
+              <c:f>Sheet1!$AJ$2:$AJ$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -5028,7 +5273,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AM$2:$AM$26</c:f>
+              <c:f>Sheet1!$AL$2:$AL$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -6902,7 +7147,7 @@
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>474297</xdr:colOff>
       <xdr:row>92</xdr:row>
       <xdr:rowOff>108926</xdr:rowOff>
@@ -6934,7 +7179,7 @@
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>271097</xdr:colOff>
       <xdr:row>113</xdr:row>
       <xdr:rowOff>121627</xdr:rowOff>
@@ -6960,13 +7205,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>342349</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>165652</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>636637</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>172978</xdr:rowOff>
@@ -6992,13 +7237,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>35</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>651563</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>180008</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
+      <xdr:col>42</xdr:col>
       <xdr:colOff>662607</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>33129</xdr:rowOff>
@@ -7028,7 +7273,7 @@
       <xdr:rowOff>135835</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>1170609</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>176694</xdr:rowOff>
@@ -7407,10 +7652,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ27"/>
+  <dimension ref="A1:AP27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="O26" sqref="A1:O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7418,18 +7663,18 @@
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="5.5" customWidth="1"/>
     <col min="11" max="11" width="10" customWidth="1"/>
-    <col min="17" max="18" width="5.33203125" customWidth="1"/>
-    <col min="19" max="19" width="8.5" customWidth="1"/>
-    <col min="20" max="20" width="15.5" customWidth="1"/>
-    <col min="21" max="21" width="8.33203125" customWidth="1"/>
+    <col min="16" max="17" width="5.33203125" customWidth="1"/>
+    <col min="18" max="18" width="8.5" customWidth="1"/>
+    <col min="19" max="19" width="15.5" customWidth="1"/>
+    <col min="20" max="20" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="45">
+    <row r="1" spans="1:42" ht="45">
       <c r="A1" s="54" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B1" s="58" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>0</v>
@@ -7450,101 +7695,100 @@
         <v>5</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC1" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD1" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG1" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="53" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="AK1" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AN1" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" t="s">
+      <c r="AP1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" s="35"/>
-      <c r="Q1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD1" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="AE1" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH1" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AL1" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AO1" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="2" spans="1:43">
+    <row r="2" spans="1:42">
       <c r="A2" s="55">
         <v>1</v>
       </c>
@@ -7587,95 +7831,94 @@
       <c r="N2" s="37">
         <v>0.44</v>
       </c>
-      <c r="O2" s="29"/>
-      <c r="P2" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q2" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="T2" t="s">
-        <v>35</v>
+      <c r="O2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="S2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T2" s="12">
+        <v>160402</v>
       </c>
       <c r="U2" s="12">
+        <v>80201</v>
+      </c>
+      <c r="V2" s="12">
+        <f>T2-U2</f>
+        <v>80201</v>
+      </c>
+      <c r="W2" s="16">
+        <f>(U2/T2)*100</f>
+        <v>50</v>
+      </c>
+      <c r="Y2" s="14">
+        <v>20389</v>
+      </c>
+      <c r="Z2" s="34">
+        <f>AA2/Y2</f>
+        <v>9.5901711707293141E-2</v>
+      </c>
+      <c r="AA2" s="3">
+        <v>1955.34</v>
+      </c>
+      <c r="AB2" s="11">
+        <f>AA2/AC2</f>
+        <v>2.7933428571428571</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>700</v>
+      </c>
+      <c r="AD2" s="14">
         <v>160402</v>
       </c>
-      <c r="V2" s="12">
-        <v>80201</v>
-      </c>
-      <c r="W2" s="12">
-        <f>U2-V2</f>
-        <v>80201</v>
-      </c>
-      <c r="X2" s="16">
-        <f>(V2/U2)*100</f>
-        <v>50</v>
-      </c>
-      <c r="Z2" s="14">
-        <v>20389</v>
-      </c>
-      <c r="AA2" s="34">
-        <f>AB2/Z2</f>
-        <v>9.5901711707293141E-2</v>
-      </c>
-      <c r="AB2" s="3">
+      <c r="AE2" s="11">
+        <f>AC2/AD2</f>
+        <v>4.3640353611550976E-3</v>
+      </c>
+      <c r="AF2" s="11">
+        <f>AC2/Y2</f>
+        <v>3.4332237971455196E-2</v>
+      </c>
+      <c r="AG2" s="2">
+        <v>0.44</v>
+      </c>
+      <c r="AH2">
+        <f>AC2/U2</f>
+        <v>8.7280707223101953E-3</v>
+      </c>
+      <c r="AJ2">
+        <v>1</v>
+      </c>
+      <c r="AK2" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL2" s="2">
+        <v>7.95</v>
+      </c>
+      <c r="AM2" s="2">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="AN2" s="10">
+        <f>AL2-AM2</f>
+        <v>5.71</v>
+      </c>
+      <c r="AO2" s="3">
         <v>1955.34</v>
       </c>
-      <c r="AC2" s="11">
-        <f>AB2/AD2</f>
-        <v>2.7933428571428571</v>
-      </c>
-      <c r="AD2" s="2">
-        <v>700</v>
-      </c>
-      <c r="AE2" s="14">
-        <v>160402</v>
-      </c>
-      <c r="AF2" s="11">
-        <f>AD2/AE2</f>
-        <v>4.3640353611550976E-3</v>
-      </c>
-      <c r="AG2" s="11">
-        <f>AD2/Z2</f>
-        <v>3.4332237971455196E-2</v>
-      </c>
-      <c r="AH2" s="2">
-        <v>0.44</v>
-      </c>
-      <c r="AI2">
-        <f>AD2/V2</f>
-        <v>8.7280707223101953E-3</v>
-      </c>
-      <c r="AK2">
-        <v>1</v>
-      </c>
-      <c r="AL2" s="19">
-        <v>1</v>
-      </c>
-      <c r="AM2" s="2">
-        <v>7.95</v>
-      </c>
-      <c r="AN2" s="2">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="AO2" s="10">
-        <f>AM2-AN2</f>
-        <v>5.71</v>
-      </c>
       <c r="AP2" s="3">
-        <v>1955.34</v>
-      </c>
-      <c r="AQ2" s="3">
         <v>2.79</v>
       </c>
     </row>
-    <row r="3" spans="1:43">
+    <row r="3" spans="1:42">
       <c r="A3" s="56">
         <v>2</v>
       </c>
@@ -7718,91 +7961,90 @@
       <c r="N3" s="38">
         <v>0.7</v>
       </c>
-      <c r="O3" s="29"/>
-      <c r="P3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>33</v>
+      <c r="O3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R3" t="s">
+        <v>18</v>
       </c>
       <c r="S3" t="s">
-        <v>17</v>
-      </c>
-      <c r="T3" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="T3" s="12">
+        <v>116097</v>
       </c>
       <c r="U3" s="12">
-        <v>116097</v>
+        <v>69658</v>
       </c>
       <c r="V3" s="12">
-        <v>69658</v>
-      </c>
-      <c r="W3" s="12">
-        <f>U3-V3</f>
+        <f>T3-U3</f>
         <v>46439</v>
       </c>
-      <c r="X3" s="16">
-        <f t="shared" ref="X3:X11" si="0">(V3/U3)*100</f>
+      <c r="W3" s="16">
+        <f t="shared" ref="W3:W11" si="0">(U3/T3)*100</f>
         <v>59.999827730260037</v>
       </c>
-      <c r="Z3" s="14">
+      <c r="Y3" s="14">
         <v>17035</v>
       </c>
-      <c r="AA3" s="34">
-        <f t="shared" ref="AA3:AA26" si="1">AB3/Z3</f>
+      <c r="Z3" s="34">
+        <f t="shared" ref="Z3:Z26" si="1">AA3/Y3</f>
         <v>7.1398884649251537E-2</v>
       </c>
-      <c r="AB3" s="3">
+      <c r="AA3" s="3">
         <v>1216.28</v>
       </c>
-      <c r="AC3" s="11">
-        <f t="shared" ref="AC3:AC26" si="2">AB3/AD3</f>
+      <c r="AB3" s="11">
+        <f t="shared" ref="AB3:AB26" si="2">AA3/AC3</f>
         <v>1.5593333333333332</v>
       </c>
-      <c r="AD3" s="2">
+      <c r="AC3" s="2">
         <v>780</v>
       </c>
-      <c r="AE3" s="14">
+      <c r="AD3" s="14">
         <v>110829</v>
       </c>
+      <c r="AE3" s="11">
+        <f t="shared" ref="AE3:AE26" si="3">AC3/AD3</f>
+        <v>7.0378691497712696E-3</v>
+      </c>
       <c r="AF3" s="11">
-        <f t="shared" ref="AF3:AF26" si="3">AD3/AE3</f>
-        <v>7.0378691497712696E-3</v>
-      </c>
-      <c r="AG3" s="11">
-        <f t="shared" ref="AG3:AG26" si="4">AD3/Z3</f>
+        <f t="shared" ref="AF3:AF26" si="4">AC3/Y3</f>
         <v>4.5788083357792782E-2</v>
       </c>
-      <c r="AH3" s="2">
+      <c r="AG3" s="2">
         <v>0.7</v>
       </c>
-      <c r="AK3">
+      <c r="AJ3">
         <v>2</v>
       </c>
-      <c r="AL3" s="19">
+      <c r="AK3" s="19">
         <v>2</v>
       </c>
+      <c r="AL3" s="2">
+        <v>8.26</v>
+      </c>
       <c r="AM3" s="2">
-        <v>8.26</v>
-      </c>
-      <c r="AN3" s="2">
         <v>2.36</v>
       </c>
-      <c r="AO3" s="10">
-        <f t="shared" ref="AO3:AO26" si="5">AM3-AN3</f>
+      <c r="AN3" s="10">
+        <f t="shared" ref="AN3:AN26" si="5">AL3-AM3</f>
         <v>5.9</v>
       </c>
+      <c r="AO3" s="3">
+        <v>1216.28</v>
+      </c>
       <c r="AP3" s="3">
-        <v>1216.28</v>
-      </c>
-      <c r="AQ3" s="3">
         <v>1.56</v>
       </c>
     </row>
-    <row r="4" spans="1:43">
+    <row r="4" spans="1:42">
       <c r="A4" s="57">
         <v>3</v>
       </c>
@@ -7845,91 +8087,90 @@
       <c r="N4" s="42">
         <v>0.57999999999999996</v>
       </c>
-      <c r="O4" s="28"/>
-      <c r="P4" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q4" s="8" t="s">
+      <c r="O4" t="s">
         <v>28</v>
       </c>
-      <c r="R4" s="2" t="s">
-        <v>33</v>
+      <c r="P4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R4" t="s">
+        <v>19</v>
       </c>
       <c r="S4" t="s">
-        <v>18</v>
-      </c>
-      <c r="T4" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="T4" s="12">
+        <v>94217</v>
       </c>
       <c r="U4" s="12">
-        <v>94217</v>
+        <v>47109</v>
       </c>
       <c r="V4" s="12">
-        <v>47109</v>
-      </c>
-      <c r="W4" s="12">
-        <f>U4-V4</f>
+        <f>T4-U4</f>
         <v>47108</v>
       </c>
-      <c r="X4" s="17">
+      <c r="W4" s="17">
         <f t="shared" si="0"/>
         <v>50.000530689790587</v>
       </c>
-      <c r="Z4" s="14">
+      <c r="Y4" s="14">
         <v>15639</v>
       </c>
-      <c r="AA4" s="34">
+      <c r="Z4" s="34">
         <f t="shared" si="1"/>
         <v>8.2746339280005105E-2</v>
       </c>
-      <c r="AB4" s="2">
+      <c r="AA4" s="2">
         <v>1294.07</v>
       </c>
-      <c r="AC4" s="11">
+      <c r="AB4" s="11">
         <f t="shared" si="2"/>
         <v>1.9314477611940297</v>
       </c>
-      <c r="AD4" s="3">
+      <c r="AC4" s="3">
         <v>670</v>
       </c>
-      <c r="AE4" s="14">
+      <c r="AD4" s="14">
         <v>116097</v>
       </c>
-      <c r="AF4" s="11">
+      <c r="AE4" s="11">
         <f t="shared" si="3"/>
         <v>5.7710362886207222E-3</v>
       </c>
-      <c r="AG4" s="11">
+      <c r="AF4" s="11">
         <f t="shared" si="4"/>
         <v>4.2841613913933117E-2</v>
       </c>
-      <c r="AH4" s="3">
+      <c r="AG4" s="3">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AK4">
+      <c r="AJ4">
         <v>3</v>
       </c>
-      <c r="AL4" s="19">
+      <c r="AK4" s="19">
         <v>3</v>
       </c>
+      <c r="AL4" s="3">
+        <v>7.71</v>
+      </c>
       <c r="AM4" s="3">
-        <v>7.71</v>
-      </c>
-      <c r="AN4" s="3">
         <v>1.61</v>
       </c>
-      <c r="AO4" s="10">
+      <c r="AN4" s="10">
         <f t="shared" si="5"/>
         <v>6.1</v>
       </c>
+      <c r="AO4" s="2">
+        <v>1294.07</v>
+      </c>
       <c r="AP4" s="2">
-        <v>1294.07</v>
-      </c>
-      <c r="AQ4" s="2">
         <v>1.93</v>
       </c>
     </row>
-    <row r="5" spans="1:43">
+    <row r="5" spans="1:42">
       <c r="A5" s="55">
         <v>4</v>
       </c>
@@ -7972,91 +8213,90 @@
       <c r="N5" s="43">
         <v>0.56000000000000005</v>
       </c>
-      <c r="O5" s="28"/>
-      <c r="P5" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="6" t="s">
+      <c r="O5" t="s">
         <v>29</v>
       </c>
-      <c r="R5" s="5" t="s">
-        <v>32</v>
+      <c r="P5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R5" t="s">
+        <v>20</v>
       </c>
       <c r="S5" t="s">
-        <v>19</v>
-      </c>
-      <c r="T5" t="s">
-        <v>36</v>
-      </c>
-      <c r="U5" s="13">
+        <v>37</v>
+      </c>
+      <c r="T5" s="13">
         <v>33472</v>
       </c>
+      <c r="U5" s="12">
+        <v>10042</v>
+      </c>
       <c r="V5" s="12">
-        <v>10042</v>
-      </c>
-      <c r="W5" s="12">
-        <f>U5-V5</f>
+        <f>T5-U5</f>
         <v>23430</v>
       </c>
-      <c r="X5" s="17">
+      <c r="W5" s="17">
         <f t="shared" si="0"/>
         <v>30.001195028680687</v>
       </c>
-      <c r="Z5" s="14">
+      <c r="Y5" s="14">
         <v>14716</v>
       </c>
-      <c r="AA5" s="34">
+      <c r="Z5" s="34">
         <f t="shared" si="1"/>
         <v>8.0871840173960305E-2</v>
       </c>
-      <c r="AB5" s="3">
+      <c r="AA5" s="3">
         <v>1190.1099999999999</v>
       </c>
-      <c r="AC5" s="11">
+      <c r="AB5" s="11">
         <f t="shared" si="2"/>
         <v>2.0879122807017541</v>
       </c>
-      <c r="AD5" s="3">
+      <c r="AC5" s="3">
         <v>570</v>
       </c>
-      <c r="AE5" s="15">
+      <c r="AD5" s="15">
         <v>191966</v>
       </c>
-      <c r="AF5" s="11">
+      <c r="AE5" s="11">
         <f t="shared" si="3"/>
         <v>2.9692758092578894E-3</v>
       </c>
-      <c r="AG5" s="11">
+      <c r="AF5" s="11">
         <f t="shared" si="4"/>
         <v>3.8733351454199511E-2</v>
       </c>
-      <c r="AH5" s="3">
+      <c r="AG5" s="3">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AK5">
+      <c r="AJ5">
         <v>4</v>
       </c>
-      <c r="AL5" s="19">
+      <c r="AK5" s="19">
         <v>4</v>
       </c>
+      <c r="AL5" s="2">
+        <v>8.48</v>
+      </c>
       <c r="AM5" s="2">
-        <v>8.48</v>
-      </c>
-      <c r="AN5" s="2">
         <v>1.9</v>
       </c>
-      <c r="AO5" s="10">
+      <c r="AN5" s="10">
         <f t="shared" si="5"/>
         <v>6.58</v>
       </c>
-      <c r="AP5" s="3">
+      <c r="AO5" s="3">
         <v>1190.1099999999999</v>
       </c>
-      <c r="AQ5" s="2">
+      <c r="AP5" s="2">
         <v>2.09</v>
       </c>
     </row>
-    <row r="6" spans="1:43">
+    <row r="6" spans="1:42">
       <c r="A6" s="56">
         <v>5</v>
       </c>
@@ -8099,91 +8339,90 @@
       <c r="N6" s="44">
         <v>0.48</v>
       </c>
-      <c r="O6" s="28"/>
-      <c r="P6" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q6" s="6" t="s">
+      <c r="O6" t="s">
         <v>29</v>
       </c>
-      <c r="R6" s="3" t="s">
-        <v>34</v>
+      <c r="P6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R6" t="s">
+        <v>21</v>
       </c>
       <c r="S6" t="s">
-        <v>20</v>
-      </c>
-      <c r="T6" t="s">
-        <v>36</v>
-      </c>
-      <c r="U6" s="13">
+        <v>37</v>
+      </c>
+      <c r="T6" s="13">
         <v>31808</v>
       </c>
+      <c r="U6" s="12">
+        <v>19085</v>
+      </c>
       <c r="V6" s="12">
-        <v>19085</v>
-      </c>
-      <c r="W6" s="12">
-        <f>U6-V6</f>
+        <f>T6-U6</f>
         <v>12723</v>
       </c>
-      <c r="X6" s="16">
+      <c r="W6" s="16">
         <f t="shared" si="0"/>
         <v>60.000628772635814</v>
       </c>
-      <c r="Z6" s="15">
+      <c r="Y6" s="15">
         <v>15510</v>
       </c>
-      <c r="AA6" s="34">
+      <c r="Z6" s="34">
         <f t="shared" si="1"/>
         <v>8.0954223081882645E-2</v>
       </c>
-      <c r="AB6" s="2">
+      <c r="AA6" s="2">
         <v>1255.5999999999999</v>
       </c>
-      <c r="AC6" s="11">
+      <c r="AB6" s="11">
         <f t="shared" si="2"/>
         <v>2.1912739965095986</v>
       </c>
-      <c r="AD6" s="2">
+      <c r="AC6" s="2">
         <v>573</v>
       </c>
-      <c r="AE6" s="14">
+      <c r="AD6" s="14">
         <v>119965</v>
       </c>
-      <c r="AF6" s="11">
+      <c r="AE6" s="11">
         <f t="shared" si="3"/>
         <v>4.7763931146584419E-3</v>
       </c>
-      <c r="AG6" s="11">
+      <c r="AF6" s="11">
         <f t="shared" si="4"/>
         <v>3.6943907156673117E-2</v>
       </c>
-      <c r="AH6" s="3">
+      <c r="AG6" s="3">
         <v>0.48</v>
       </c>
-      <c r="AK6">
+      <c r="AJ6">
         <v>5</v>
       </c>
-      <c r="AL6" s="19">
+      <c r="AK6" s="19">
         <v>5</v>
       </c>
-      <c r="AM6" s="3">
+      <c r="AL6" s="3">
         <v>7.87</v>
       </c>
-      <c r="AN6" s="2">
+      <c r="AM6" s="2">
         <v>2.0499999999999998</v>
       </c>
-      <c r="AO6" s="10">
+      <c r="AN6" s="10">
         <f t="shared" si="5"/>
         <v>5.82</v>
       </c>
+      <c r="AO6" s="2">
+        <v>1255.5999999999999</v>
+      </c>
       <c r="AP6" s="2">
-        <v>1255.5999999999999</v>
-      </c>
-      <c r="AQ6" s="2">
         <v>2.19</v>
       </c>
     </row>
-    <row r="7" spans="1:43">
+    <row r="7" spans="1:42">
       <c r="A7" s="57">
         <v>6</v>
       </c>
@@ -8226,91 +8465,90 @@
       <c r="N7" s="45">
         <v>0.94</v>
       </c>
-      <c r="O7" s="29"/>
-      <c r="P7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q7" s="6" t="s">
+      <c r="O7" t="s">
         <v>29</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>33</v>
+      <c r="P7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R7" t="s">
+        <v>22</v>
       </c>
       <c r="S7" t="s">
-        <v>21</v>
-      </c>
-      <c r="T7" t="s">
-        <v>36</v>
-      </c>
-      <c r="U7" s="13">
+        <v>37</v>
+      </c>
+      <c r="T7" s="13">
         <v>17433</v>
       </c>
+      <c r="U7" s="12">
+        <v>13946</v>
+      </c>
       <c r="V7" s="12">
-        <v>13946</v>
-      </c>
-      <c r="W7" s="12">
-        <f>U7-V7</f>
+        <f>T7-U7</f>
         <v>3487</v>
       </c>
-      <c r="X7" s="16">
+      <c r="W7" s="16">
         <f t="shared" si="0"/>
         <v>79.997705501061205</v>
       </c>
-      <c r="Z7" s="14">
+      <c r="Y7" s="14">
         <v>14645</v>
       </c>
-      <c r="AA7" s="34">
+      <c r="Z7" s="34">
         <f t="shared" si="1"/>
         <v>7.818914305223626E-2</v>
       </c>
-      <c r="AB7" s="3">
+      <c r="AA7" s="3">
         <v>1145.08</v>
       </c>
-      <c r="AC7" s="11">
+      <c r="AB7" s="11">
         <f t="shared" si="2"/>
         <v>1.2866067415730336</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AC7" s="2">
         <v>890</v>
       </c>
-      <c r="AE7" s="14">
+      <c r="AD7" s="14">
         <v>94217</v>
       </c>
-      <c r="AF7" s="11">
+      <c r="AE7" s="11">
         <f t="shared" si="3"/>
         <v>9.4462782724985938E-3</v>
       </c>
-      <c r="AG7" s="11">
+      <c r="AF7" s="11">
         <f t="shared" si="4"/>
         <v>6.077159440081939E-2</v>
       </c>
-      <c r="AH7" s="2">
+      <c r="AG7" s="2">
         <v>0.94</v>
       </c>
-      <c r="AK7">
+      <c r="AJ7">
         <v>6</v>
       </c>
-      <c r="AL7" s="19">
+      <c r="AK7" s="19">
         <v>6</v>
       </c>
+      <c r="AL7" s="3">
+        <v>7.11</v>
+      </c>
       <c r="AM7" s="3">
-        <v>7.11</v>
-      </c>
-      <c r="AN7" s="3">
         <v>1.7</v>
       </c>
-      <c r="AO7" s="10">
+      <c r="AN7" s="10">
         <f t="shared" si="5"/>
         <v>5.41</v>
       </c>
+      <c r="AO7" s="3">
+        <v>1145.08</v>
+      </c>
       <c r="AP7" s="3">
-        <v>1145.08</v>
-      </c>
-      <c r="AQ7" s="3">
         <v>1.29</v>
       </c>
     </row>
-    <row r="8" spans="1:43">
+    <row r="8" spans="1:42">
       <c r="A8" s="55">
         <v>7</v>
       </c>
@@ -8353,91 +8591,90 @@
       <c r="N8" s="43">
         <v>0.36</v>
       </c>
-      <c r="O8" s="28"/>
-      <c r="P8" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="R8" s="3" t="s">
-        <v>34</v>
+      <c r="O8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R8" t="s">
+        <v>23</v>
       </c>
       <c r="S8" t="s">
-        <v>22</v>
-      </c>
-      <c r="T8" t="s">
-        <v>37</v>
-      </c>
-      <c r="U8" s="13">
+        <v>38</v>
+      </c>
+      <c r="T8" s="13">
         <v>22337</v>
       </c>
+      <c r="U8" s="12">
+        <v>4467</v>
+      </c>
       <c r="V8" s="12">
-        <v>4467</v>
-      </c>
-      <c r="W8" s="12">
-        <f>U8-V8</f>
+        <f>T8-U8</f>
         <v>17870</v>
       </c>
-      <c r="X8" s="17">
+      <c r="W8" s="17">
         <f t="shared" si="0"/>
         <v>19.998209249227738</v>
       </c>
-      <c r="Z8" s="14">
+      <c r="Y8" s="14">
         <v>10370</v>
       </c>
-      <c r="AA8" s="34">
+      <c r="Z8" s="34">
         <f t="shared" si="1"/>
         <v>7.4520732883317259E-2</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AA8" s="3">
         <v>772.78</v>
       </c>
-      <c r="AC8" s="11">
+      <c r="AB8" s="11">
         <f t="shared" si="2"/>
         <v>3.0911200000000001</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AC8" s="3">
         <v>250</v>
       </c>
-      <c r="AE8" s="14">
+      <c r="AD8" s="14">
         <v>69633</v>
       </c>
-      <c r="AF8" s="11">
+      <c r="AE8" s="11">
         <f t="shared" si="3"/>
         <v>3.5902517484526016E-3</v>
       </c>
-      <c r="AG8" s="11">
+      <c r="AF8" s="11">
         <f t="shared" si="4"/>
         <v>2.4108003857280617E-2</v>
       </c>
-      <c r="AH8" s="3">
+      <c r="AG8" s="3">
         <v>0.36</v>
       </c>
-      <c r="AK8">
+      <c r="AJ8">
         <v>7</v>
       </c>
-      <c r="AL8" s="19">
+      <c r="AK8" s="19">
         <v>7</v>
       </c>
+      <c r="AL8" s="3">
+        <v>6.73</v>
+      </c>
       <c r="AM8" s="3">
-        <v>6.73</v>
-      </c>
-      <c r="AN8" s="3">
         <v>1.4</v>
       </c>
-      <c r="AO8" s="10">
+      <c r="AN8" s="10">
         <f t="shared" si="5"/>
         <v>5.33</v>
       </c>
-      <c r="AP8" s="3">
+      <c r="AO8" s="3">
         <v>772.78</v>
       </c>
-      <c r="AQ8" s="2">
+      <c r="AP8" s="2">
         <v>3.09</v>
       </c>
     </row>
-    <row r="9" spans="1:43">
+    <row r="9" spans="1:42">
       <c r="A9" s="56">
         <v>8</v>
       </c>
@@ -8480,91 +8717,90 @@
       <c r="N9" s="38">
         <v>0.47</v>
       </c>
-      <c r="O9" s="29"/>
-      <c r="P9" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q9" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="R9" s="5" t="s">
-        <v>32</v>
+      <c r="O9" t="s">
+        <v>31</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R9" t="s">
+        <v>24</v>
       </c>
       <c r="S9" t="s">
-        <v>23</v>
-      </c>
-      <c r="T9" t="s">
-        <v>37</v>
-      </c>
-      <c r="U9" s="13">
+        <v>38</v>
+      </c>
+      <c r="T9" s="13">
         <v>20261</v>
       </c>
+      <c r="U9" s="12">
+        <v>6078</v>
+      </c>
       <c r="V9" s="12">
-        <v>6078</v>
-      </c>
-      <c r="W9" s="12">
-        <f>U9-V9</f>
+        <f>T9-U9</f>
         <v>14183</v>
       </c>
-      <c r="X9" s="16">
+      <c r="W9" s="16">
         <f t="shared" si="0"/>
         <v>29.998519322836977</v>
       </c>
-      <c r="Z9" s="14">
+      <c r="Y9" s="14">
         <v>7361</v>
       </c>
-      <c r="AA9" s="34">
+      <c r="Z9" s="34">
         <f t="shared" si="1"/>
         <v>6.4167911968482538E-2</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AA9" s="3">
         <v>472.34</v>
       </c>
-      <c r="AC9" s="11">
+      <c r="AB9" s="11">
         <f t="shared" si="2"/>
         <v>2.1469999999999998</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AC9" s="3">
         <v>220</v>
       </c>
-      <c r="AE9" s="14">
+      <c r="AD9" s="14">
         <v>47090</v>
       </c>
-      <c r="AF9" s="11">
+      <c r="AE9" s="11">
         <f t="shared" si="3"/>
         <v>4.6719048630282436E-3</v>
       </c>
-      <c r="AG9" s="11">
+      <c r="AF9" s="11">
         <f t="shared" si="4"/>
         <v>2.9887243581035186E-2</v>
       </c>
-      <c r="AH9" s="2">
+      <c r="AG9" s="2">
         <v>0.47</v>
       </c>
-      <c r="AK9">
+      <c r="AJ9">
         <v>8</v>
       </c>
-      <c r="AL9" s="19">
+      <c r="AK9" s="19">
         <v>8</v>
       </c>
+      <c r="AL9" s="3">
+        <v>6.66</v>
+      </c>
       <c r="AM9" s="3">
-        <v>6.66</v>
-      </c>
-      <c r="AN9" s="3">
         <v>1.35</v>
       </c>
-      <c r="AO9" s="10">
+      <c r="AN9" s="10">
         <f t="shared" si="5"/>
         <v>5.3100000000000005</v>
       </c>
+      <c r="AO9" s="3">
+        <v>472.34</v>
+      </c>
       <c r="AP9" s="3">
-        <v>472.34</v>
-      </c>
-      <c r="AQ9" s="3">
         <v>2.15</v>
       </c>
     </row>
-    <row r="10" spans="1:43">
+    <row r="10" spans="1:42">
       <c r="A10" s="57">
         <v>9</v>
       </c>
@@ -8607,91 +8843,90 @@
       <c r="N10" s="45">
         <v>0.6</v>
       </c>
-      <c r="O10" s="29"/>
-      <c r="P10" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q10" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="R10" s="3" t="s">
-        <v>34</v>
+      <c r="O10" t="s">
+        <v>31</v>
+      </c>
+      <c r="P10" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R10" t="s">
+        <v>25</v>
       </c>
       <c r="S10" t="s">
-        <v>24</v>
-      </c>
-      <c r="T10" t="s">
-        <v>38</v>
-      </c>
-      <c r="U10" s="13">
+        <v>39</v>
+      </c>
+      <c r="T10" s="13">
         <v>18517</v>
       </c>
+      <c r="U10" s="12">
+        <v>8333</v>
+      </c>
       <c r="V10" s="12">
-        <v>8333</v>
-      </c>
-      <c r="W10" s="12">
-        <f>U10-V10</f>
+        <f>T10-U10</f>
         <v>10184</v>
       </c>
-      <c r="X10" s="16">
+      <c r="W10" s="16">
         <f t="shared" si="0"/>
         <v>45.001890154992708</v>
       </c>
-      <c r="Z10" s="14">
+      <c r="Y10" s="14">
         <v>5881</v>
       </c>
-      <c r="AA10" s="34">
+      <c r="Z10" s="34">
         <f t="shared" si="1"/>
         <v>7.0647849005271213E-2</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AA10" s="3">
         <v>415.48</v>
       </c>
-      <c r="AC10" s="11">
+      <c r="AB10" s="11">
         <f t="shared" si="2"/>
         <v>1.9784761904761905</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AC10" s="3">
         <v>210</v>
       </c>
-      <c r="AE10" s="14">
+      <c r="AD10" s="14">
         <v>35242</v>
       </c>
-      <c r="AF10" s="11">
+      <c r="AE10" s="11">
         <f t="shared" si="3"/>
         <v>5.9587991600930706E-3</v>
       </c>
-      <c r="AG10" s="11">
+      <c r="AF10" s="11">
         <f t="shared" si="4"/>
         <v>3.5708212888964461E-2</v>
       </c>
-      <c r="AH10" s="2">
+      <c r="AG10" s="2">
         <v>0.6</v>
       </c>
-      <c r="AK10">
+      <c r="AJ10">
         <v>9</v>
       </c>
-      <c r="AL10" s="19">
+      <c r="AK10" s="19">
         <v>9</v>
       </c>
+      <c r="AL10" s="3">
+        <v>5.68</v>
+      </c>
       <c r="AM10" s="3">
-        <v>5.68</v>
-      </c>
-      <c r="AN10" s="3">
         <v>1.34</v>
       </c>
-      <c r="AO10" s="10">
+      <c r="AN10" s="10">
         <f t="shared" si="5"/>
         <v>4.34</v>
       </c>
+      <c r="AO10" s="3">
+        <v>415.48</v>
+      </c>
       <c r="AP10" s="3">
-        <v>415.48</v>
-      </c>
-      <c r="AQ10" s="3">
         <v>1.98</v>
       </c>
     </row>
-    <row r="11" spans="1:43">
+    <row r="11" spans="1:42">
       <c r="A11" s="55">
         <v>10</v>
       </c>
@@ -8734,91 +8969,90 @@
       <c r="N11" s="37">
         <v>0.63</v>
       </c>
-      <c r="O11" s="29"/>
-      <c r="P11" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q11" s="9" t="s">
+      <c r="O11" t="s">
         <v>30</v>
       </c>
-      <c r="R11" s="2" t="s">
-        <v>33</v>
+      <c r="P11" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R11" t="s">
+        <v>26</v>
       </c>
       <c r="S11" t="s">
-        <v>25</v>
-      </c>
-      <c r="T11" t="s">
-        <v>37</v>
-      </c>
-      <c r="U11" s="13">
+        <v>38</v>
+      </c>
+      <c r="T11" s="13">
         <v>19095</v>
       </c>
+      <c r="U11" s="12">
+        <v>5729</v>
+      </c>
       <c r="V11" s="12">
-        <v>5729</v>
-      </c>
-      <c r="W11" s="12">
-        <f>U11-V11</f>
+        <f>T11-U11</f>
         <v>13366</v>
       </c>
-      <c r="X11" s="17">
+      <c r="W11" s="17">
         <f t="shared" si="0"/>
         <v>30.002618486514791</v>
       </c>
-      <c r="Z11" s="14">
+      <c r="Y11" s="14">
         <v>5001</v>
       </c>
-      <c r="AA11" s="34">
+      <c r="Z11" s="34">
         <f t="shared" si="1"/>
         <v>7.368126374725055E-2</v>
       </c>
-      <c r="AB11" s="3">
+      <c r="AA11" s="3">
         <v>368.48</v>
       </c>
-      <c r="AC11" s="11">
+      <c r="AB11" s="11">
         <f t="shared" si="2"/>
         <v>1.7463507109004741</v>
       </c>
-      <c r="AD11" s="2">
+      <c r="AC11" s="2">
         <v>211</v>
       </c>
-      <c r="AE11" s="14">
+      <c r="AD11" s="14">
         <v>33472</v>
       </c>
-      <c r="AF11" s="11">
+      <c r="AE11" s="11">
         <f t="shared" si="3"/>
         <v>6.3037762906309755E-3</v>
       </c>
-      <c r="AG11" s="11">
+      <c r="AF11" s="11">
         <f t="shared" si="4"/>
         <v>4.2191561687662464E-2</v>
       </c>
-      <c r="AH11" s="2">
+      <c r="AG11" s="2">
         <v>0.63</v>
       </c>
-      <c r="AK11">
+      <c r="AJ11">
         <v>10</v>
       </c>
-      <c r="AL11" s="19">
+      <c r="AK11" s="19">
         <v>10</v>
       </c>
+      <c r="AL11" s="2">
+        <v>5.81</v>
+      </c>
       <c r="AM11" s="2">
-        <v>5.81</v>
-      </c>
-      <c r="AN11" s="2">
         <v>1.51</v>
       </c>
-      <c r="AO11" s="10">
+      <c r="AN11" s="10">
         <f t="shared" si="5"/>
         <v>4.3</v>
       </c>
+      <c r="AO11" s="3">
+        <v>368.48</v>
+      </c>
       <c r="AP11" s="3">
-        <v>368.48</v>
-      </c>
-      <c r="AQ11" s="3">
         <v>1.75</v>
       </c>
     </row>
-    <row r="12" spans="1:43">
+    <row r="12" spans="1:42">
       <c r="A12" s="56">
         <v>11</v>
       </c>
@@ -8861,71 +9095,70 @@
       <c r="N12" s="44">
         <v>0.32</v>
       </c>
-      <c r="O12" s="28"/>
-      <c r="P12" t="s">
-        <v>29</v>
+      <c r="O12" t="s">
+        <v>30</v>
+      </c>
+      <c r="U12" t="s">
+        <v>46</v>
       </c>
       <c r="V12" t="s">
-        <v>45</v>
-      </c>
-      <c r="W12" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z12" s="14">
+        <v>47</v>
+      </c>
+      <c r="Y12" s="14">
         <v>4661</v>
       </c>
-      <c r="AA12" s="34">
+      <c r="Z12" s="34">
         <f t="shared" si="1"/>
         <v>9.5679038832868477E-2</v>
       </c>
-      <c r="AB12" s="2">
+      <c r="AA12" s="2">
         <v>445.96</v>
       </c>
-      <c r="AC12" s="11">
+      <c r="AB12" s="11">
         <f t="shared" si="2"/>
         <v>4.372156862745098</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AC12" s="3">
         <v>102</v>
       </c>
-      <c r="AE12" s="14">
+      <c r="AD12" s="14">
         <v>31808</v>
       </c>
-      <c r="AF12" s="11">
+      <c r="AE12" s="11">
         <f t="shared" si="3"/>
         <v>3.2067404426559358E-3</v>
       </c>
-      <c r="AG12" s="11">
+      <c r="AF12" s="11">
         <f t="shared" si="4"/>
         <v>2.1883715940785239E-2</v>
       </c>
-      <c r="AH12" s="3">
+      <c r="AG12" s="3">
         <v>0.32</v>
       </c>
-      <c r="AK12">
+      <c r="AJ12">
         <v>11</v>
       </c>
-      <c r="AL12" s="19">
+      <c r="AK12" s="19">
         <v>11</v>
       </c>
-      <c r="AM12" s="2">
+      <c r="AL12" s="2">
         <v>5.81</v>
       </c>
-      <c r="AN12" s="3">
+      <c r="AM12" s="3">
         <v>1.49</v>
       </c>
-      <c r="AO12" s="10">
+      <c r="AN12" s="10">
         <f t="shared" si="5"/>
         <v>4.3199999999999994</v>
       </c>
+      <c r="AO12" s="2">
+        <v>445.96</v>
+      </c>
       <c r="AP12" s="2">
-        <v>445.96</v>
-      </c>
-      <c r="AQ12" s="2">
         <v>4.37</v>
       </c>
     </row>
-    <row r="13" spans="1:43">
+    <row r="13" spans="1:42">
       <c r="A13" s="57">
         <v>12</v>
       </c>
@@ -8968,65 +9201,64 @@
       <c r="N13" s="45">
         <v>0.59</v>
       </c>
-      <c r="O13" s="29"/>
-      <c r="P13" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z13" s="14">
+      <c r="O13" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y13" s="14">
         <v>3552</v>
       </c>
-      <c r="AA13" s="34">
+      <c r="Z13" s="34">
         <f t="shared" si="1"/>
         <v>0.1055152027027027</v>
       </c>
-      <c r="AB13" s="3">
+      <c r="AA13" s="3">
         <v>374.79</v>
       </c>
-      <c r="AC13" s="11">
+      <c r="AB13" s="11">
         <f t="shared" si="2"/>
         <v>3.6744117647058827</v>
       </c>
-      <c r="AD13" s="3">
+      <c r="AC13" s="3">
         <v>102</v>
       </c>
-      <c r="AE13" s="14">
+      <c r="AD13" s="14">
         <v>17433</v>
       </c>
-      <c r="AF13" s="11">
+      <c r="AE13" s="11">
         <f t="shared" si="3"/>
         <v>5.8509722939253141E-3</v>
       </c>
-      <c r="AG13" s="11">
+      <c r="AF13" s="11">
         <f t="shared" si="4"/>
         <v>2.8716216216216218E-2</v>
       </c>
-      <c r="AH13" s="2">
+      <c r="AG13" s="2">
         <v>0.59</v>
       </c>
-      <c r="AK13">
+      <c r="AJ13">
         <v>12</v>
       </c>
-      <c r="AL13" s="19">
+      <c r="AK13" s="19">
         <v>12</v>
       </c>
+      <c r="AL13" s="3">
+        <v>5.19</v>
+      </c>
       <c r="AM13" s="3">
-        <v>5.19</v>
-      </c>
-      <c r="AN13" s="3">
         <v>0.11</v>
       </c>
-      <c r="AO13" s="10">
+      <c r="AN13" s="10">
         <f t="shared" si="5"/>
         <v>5.08</v>
       </c>
+      <c r="AO13" s="3">
+        <v>374.79</v>
+      </c>
       <c r="AP13" s="3">
-        <v>374.79</v>
-      </c>
-      <c r="AQ13" s="3">
         <v>3.67</v>
       </c>
     </row>
-    <row r="14" spans="1:43">
+    <row r="14" spans="1:42">
       <c r="A14" s="55">
         <v>13</v>
       </c>
@@ -9069,65 +9301,64 @@
       <c r="N14" s="43">
         <v>0.31</v>
       </c>
-      <c r="O14" s="28"/>
-      <c r="P14" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z14" s="22">
+      <c r="O14" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y14" s="22">
         <v>3753</v>
       </c>
-      <c r="AA14" s="34">
+      <c r="Z14" s="34">
         <f t="shared" si="1"/>
         <v>7.1958433253397278E-2</v>
       </c>
-      <c r="AB14" s="24">
+      <c r="AA14" s="24">
         <v>270.06</v>
       </c>
-      <c r="AC14" s="11">
+      <c r="AB14" s="11">
         <f t="shared" si="2"/>
         <v>2.7006000000000001</v>
       </c>
-      <c r="AD14" s="24">
+      <c r="AC14" s="24">
         <v>100</v>
       </c>
-      <c r="AE14" s="22">
+      <c r="AD14" s="22">
         <v>31856</v>
       </c>
-      <c r="AF14" s="11">
+      <c r="AE14" s="11">
         <f t="shared" si="3"/>
         <v>3.1391260673028628E-3</v>
       </c>
-      <c r="AG14" s="11">
+      <c r="AF14" s="11">
         <f t="shared" si="4"/>
         <v>2.664535038635758E-2</v>
       </c>
-      <c r="AH14" s="24">
+      <c r="AG14" s="24">
         <v>0.31</v>
       </c>
-      <c r="AK14" s="20">
+      <c r="AJ14" s="20">
         <v>13</v>
       </c>
-      <c r="AL14" s="21">
+      <c r="AK14" s="21">
         <v>1</v>
       </c>
+      <c r="AL14" s="23">
+        <v>5.79</v>
+      </c>
       <c r="AM14" s="23">
-        <v>5.79</v>
-      </c>
-      <c r="AN14" s="23">
         <v>1.31</v>
       </c>
-      <c r="AO14" s="10">
+      <c r="AN14" s="10">
         <f t="shared" si="5"/>
         <v>4.4800000000000004</v>
       </c>
+      <c r="AO14" s="24">
+        <v>270.06</v>
+      </c>
       <c r="AP14" s="24">
-        <v>270.06</v>
-      </c>
-      <c r="AQ14" s="24">
         <v>2.7</v>
       </c>
     </row>
-    <row r="15" spans="1:43">
+    <row r="15" spans="1:42">
       <c r="A15" s="56">
         <v>14</v>
       </c>
@@ -9170,65 +9401,64 @@
       <c r="N15" s="38">
         <v>0.38</v>
       </c>
-      <c r="O15" s="29"/>
-      <c r="P15" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z15" s="27">
+      <c r="O15" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y15" s="27">
         <v>3320</v>
       </c>
-      <c r="AA15" s="34">
+      <c r="Z15" s="34">
         <f t="shared" si="1"/>
         <v>7.4933734939759036E-2</v>
       </c>
-      <c r="AB15" s="28">
+      <c r="AA15" s="28">
         <v>248.78</v>
       </c>
-      <c r="AC15" s="11">
+      <c r="AB15" s="11">
         <f t="shared" si="2"/>
         <v>2.9616666666666669</v>
       </c>
-      <c r="AD15" s="28">
+      <c r="AC15" s="28">
         <v>84</v>
       </c>
-      <c r="AE15" s="27">
+      <c r="AD15" s="27">
         <v>22337</v>
       </c>
-      <c r="AF15" s="11">
+      <c r="AE15" s="11">
         <f t="shared" si="3"/>
         <v>3.760576621748668E-3</v>
       </c>
-      <c r="AG15" s="11">
+      <c r="AF15" s="11">
         <f t="shared" si="4"/>
         <v>2.5301204819277109E-2</v>
       </c>
-      <c r="AH15" s="29">
+      <c r="AG15" s="29">
         <v>0.38</v>
       </c>
-      <c r="AK15" s="25">
+      <c r="AJ15" s="25">
         <v>14</v>
       </c>
-      <c r="AL15" s="26">
+      <c r="AK15" s="26">
         <v>2</v>
       </c>
+      <c r="AL15" s="28">
+        <v>5.08</v>
+      </c>
       <c r="AM15" s="28">
-        <v>5.08</v>
-      </c>
-      <c r="AN15" s="28">
         <v>1.3</v>
       </c>
-      <c r="AO15" s="10">
+      <c r="AN15" s="10">
         <f t="shared" si="5"/>
         <v>3.7800000000000002</v>
       </c>
-      <c r="AP15" s="28">
+      <c r="AO15" s="28">
         <v>248.78</v>
       </c>
-      <c r="AQ15" s="29">
+      <c r="AP15" s="29">
         <v>2.96</v>
       </c>
     </row>
-    <row r="16" spans="1:43">
+    <row r="16" spans="1:42">
       <c r="A16" s="57">
         <v>15</v>
       </c>
@@ -9271,65 +9501,64 @@
       <c r="N16" s="45">
         <v>0.43</v>
       </c>
-      <c r="O16" s="29"/>
-      <c r="P16" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z16" s="27">
+      <c r="O16" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y16" s="27">
         <v>2642</v>
       </c>
-      <c r="AA16" s="34">
+      <c r="Z16" s="34">
         <f t="shared" si="1"/>
         <v>7.9689629068887199E-2</v>
       </c>
-      <c r="AB16" s="28">
+      <c r="AA16" s="28">
         <v>210.54</v>
       </c>
-      <c r="AC16" s="11">
+      <c r="AB16" s="11">
         <f t="shared" si="2"/>
         <v>2.6317499999999998</v>
       </c>
-      <c r="AD16" s="28">
+      <c r="AC16" s="28">
         <v>80</v>
       </c>
-      <c r="AE16" s="27">
+      <c r="AD16" s="27">
         <v>18563</v>
       </c>
-      <c r="AF16" s="11">
+      <c r="AE16" s="11">
         <f t="shared" si="3"/>
         <v>4.3096482249636373E-3</v>
       </c>
-      <c r="AG16" s="11">
+      <c r="AF16" s="11">
         <f t="shared" si="4"/>
         <v>3.0280090840272521E-2</v>
       </c>
-      <c r="AH16" s="29">
+      <c r="AG16" s="29">
         <v>0.43</v>
       </c>
-      <c r="AK16" s="25">
+      <c r="AJ16" s="25">
         <v>15</v>
       </c>
-      <c r="AL16" s="26">
+      <c r="AK16" s="26">
         <v>3</v>
       </c>
-      <c r="AM16" s="29">
+      <c r="AL16" s="29">
         <v>5.82</v>
       </c>
-      <c r="AN16" s="28">
+      <c r="AM16" s="28">
         <v>1.17</v>
       </c>
-      <c r="AO16" s="10">
+      <c r="AN16" s="10">
         <f t="shared" si="5"/>
         <v>4.6500000000000004</v>
       </c>
+      <c r="AO16" s="28">
+        <v>210.54</v>
+      </c>
       <c r="AP16" s="28">
-        <v>210.54</v>
-      </c>
-      <c r="AQ16" s="28">
         <v>2.63</v>
       </c>
     </row>
-    <row r="17" spans="1:43">
+    <row r="17" spans="1:42">
       <c r="A17" s="55">
         <v>16</v>
       </c>
@@ -9372,65 +9601,64 @@
       <c r="N17" s="43">
         <v>0.39</v>
       </c>
-      <c r="O17" s="28"/>
-      <c r="P17" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z17" s="27">
+      <c r="O17" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y17" s="27">
         <v>2478</v>
       </c>
-      <c r="AA17" s="34">
+      <c r="Z17" s="34">
         <f t="shared" si="1"/>
         <v>5.756658595641647E-2</v>
       </c>
-      <c r="AB17" s="28">
+      <c r="AA17" s="28">
         <v>142.65</v>
       </c>
-      <c r="AC17" s="11">
+      <c r="AB17" s="11">
         <f t="shared" si="2"/>
         <v>2.0378571428571428</v>
       </c>
-      <c r="AD17" s="28">
+      <c r="AC17" s="28">
         <v>70</v>
       </c>
-      <c r="AE17" s="27">
+      <c r="AD17" s="27">
         <v>18151</v>
       </c>
-      <c r="AF17" s="11">
+      <c r="AE17" s="11">
         <f t="shared" si="3"/>
         <v>3.8565368299267257E-3</v>
       </c>
-      <c r="AG17" s="11">
+      <c r="AF17" s="11">
         <f t="shared" si="4"/>
         <v>2.8248587570621469E-2</v>
       </c>
-      <c r="AH17" s="28">
+      <c r="AG17" s="28">
         <v>0.39</v>
       </c>
-      <c r="AK17" s="25">
+      <c r="AJ17" s="25">
         <v>16</v>
       </c>
-      <c r="AL17" s="26">
+      <c r="AK17" s="26">
         <v>4</v>
       </c>
-      <c r="AM17" s="28">
+      <c r="AL17" s="28">
         <v>5.43</v>
       </c>
-      <c r="AN17" s="29">
+      <c r="AM17" s="29">
         <v>1.52</v>
       </c>
-      <c r="AO17" s="10">
+      <c r="AN17" s="10">
         <f t="shared" si="5"/>
         <v>3.9099999999999997</v>
       </c>
+      <c r="AO17" s="28">
+        <v>142.65</v>
+      </c>
       <c r="AP17" s="28">
-        <v>142.65</v>
-      </c>
-      <c r="AQ17" s="28">
         <v>2.04</v>
       </c>
     </row>
-    <row r="18" spans="1:43">
+    <row r="18" spans="1:42">
       <c r="A18" s="56">
         <v>17</v>
       </c>
@@ -9473,65 +9701,64 @@
       <c r="N18" s="44">
         <v>0.37</v>
       </c>
-      <c r="O18" s="28"/>
-      <c r="P18" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z18" s="30">
+      <c r="O18" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y18" s="30">
         <v>2568</v>
       </c>
-      <c r="AA18" s="34">
+      <c r="Z18" s="34">
         <f t="shared" si="1"/>
         <v>7.0848909657320866E-2</v>
       </c>
-      <c r="AB18" s="29">
+      <c r="AA18" s="29">
         <v>181.94</v>
       </c>
-      <c r="AC18" s="11">
+      <c r="AB18" s="11">
         <f t="shared" si="2"/>
         <v>2.4258666666666668</v>
       </c>
-      <c r="AD18" s="29">
+      <c r="AC18" s="29">
         <v>75</v>
       </c>
-      <c r="AE18" s="30">
+      <c r="AD18" s="30">
         <v>20228</v>
       </c>
-      <c r="AF18" s="11">
+      <c r="AE18" s="11">
         <f t="shared" si="3"/>
         <v>3.7077318568321141E-3</v>
       </c>
-      <c r="AG18" s="11">
+      <c r="AF18" s="11">
         <f t="shared" si="4"/>
         <v>2.9205607476635514E-2</v>
       </c>
-      <c r="AH18" s="28">
+      <c r="AG18" s="28">
         <v>0.37</v>
       </c>
-      <c r="AK18" s="25">
+      <c r="AJ18" s="25">
         <v>17</v>
       </c>
-      <c r="AL18" s="26">
+      <c r="AK18" s="26">
         <v>5</v>
       </c>
+      <c r="AL18" s="28">
+        <v>5.24</v>
+      </c>
       <c r="AM18" s="28">
-        <v>5.24</v>
-      </c>
-      <c r="AN18" s="28">
         <v>1.27</v>
       </c>
-      <c r="AO18" s="10">
+      <c r="AN18" s="10">
         <f t="shared" si="5"/>
         <v>3.97</v>
       </c>
+      <c r="AO18" s="29">
+        <v>181.94</v>
+      </c>
       <c r="AP18" s="29">
-        <v>181.94</v>
-      </c>
-      <c r="AQ18" s="29">
         <v>2.4300000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:43">
+    <row r="19" spans="1:42">
       <c r="A19" s="57">
         <v>18</v>
       </c>
@@ -9574,65 +9801,64 @@
       <c r="N19" s="42">
         <v>0.3</v>
       </c>
-      <c r="O19" s="28"/>
-      <c r="P19" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z19" s="30">
+      <c r="O19" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y19" s="30">
         <v>3103</v>
       </c>
-      <c r="AA19" s="34">
+      <c r="Z19" s="34">
         <f t="shared" si="1"/>
         <v>6.5858846277795688E-2</v>
       </c>
-      <c r="AB19" s="29">
+      <c r="AA19" s="29">
         <v>204.36</v>
       </c>
-      <c r="AC19" s="11">
+      <c r="AB19" s="11">
         <f t="shared" si="2"/>
         <v>2.688947368421053</v>
       </c>
-      <c r="AD19" s="29">
+      <c r="AC19" s="29">
         <v>76</v>
       </c>
-      <c r="AE19" s="30">
+      <c r="AD19" s="30">
         <v>25579</v>
       </c>
-      <c r="AF19" s="11">
+      <c r="AE19" s="11">
         <f t="shared" si="3"/>
         <v>2.9711873020837405E-3</v>
       </c>
-      <c r="AG19" s="11">
+      <c r="AF19" s="11">
         <f t="shared" si="4"/>
         <v>2.4492426683854335E-2</v>
       </c>
-      <c r="AH19" s="28">
+      <c r="AG19" s="28">
         <v>0.3</v>
       </c>
-      <c r="AK19" s="25">
+      <c r="AJ19" s="25">
         <v>18</v>
       </c>
-      <c r="AL19" s="26">
+      <c r="AK19" s="26">
         <v>6</v>
       </c>
-      <c r="AM19" s="29">
+      <c r="AL19" s="29">
         <v>5.49</v>
       </c>
-      <c r="AN19" s="28">
+      <c r="AM19" s="28">
         <v>0.83</v>
       </c>
-      <c r="AO19" s="10">
+      <c r="AN19" s="10">
         <f t="shared" si="5"/>
         <v>4.66</v>
       </c>
+      <c r="AO19" s="29">
+        <v>204.36</v>
+      </c>
       <c r="AP19" s="29">
-        <v>204.36</v>
-      </c>
-      <c r="AQ19" s="29">
         <v>2.69</v>
       </c>
     </row>
-    <row r="20" spans="1:43">
+    <row r="20" spans="1:42">
       <c r="A20" s="55">
         <v>19</v>
       </c>
@@ -9675,65 +9901,64 @@
       <c r="N20" s="43">
         <v>0.3</v>
       </c>
-      <c r="O20" s="28"/>
-      <c r="P20" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z20" s="27">
+      <c r="O20" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y20" s="27">
         <v>2357</v>
       </c>
-      <c r="AA20" s="34">
+      <c r="Z20" s="34">
         <f t="shared" si="1"/>
         <v>6.7585914297836239E-2</v>
       </c>
-      <c r="AB20" s="28">
+      <c r="AA20" s="28">
         <v>159.30000000000001</v>
       </c>
-      <c r="AC20" s="11">
+      <c r="AB20" s="11">
         <f t="shared" si="2"/>
         <v>2.6550000000000002</v>
       </c>
-      <c r="AD20" s="28">
+      <c r="AC20" s="28">
         <v>60</v>
       </c>
-      <c r="AE20" s="27">
+      <c r="AD20" s="27">
         <v>20261</v>
       </c>
-      <c r="AF20" s="11">
+      <c r="AE20" s="11">
         <f t="shared" si="3"/>
         <v>2.9613543260451113E-3</v>
       </c>
-      <c r="AG20" s="11">
+      <c r="AF20" s="11">
         <f t="shared" si="4"/>
         <v>2.5456088247772592E-2</v>
       </c>
-      <c r="AH20" s="28">
+      <c r="AG20" s="28">
         <v>0.3</v>
       </c>
-      <c r="AK20" s="25">
+      <c r="AJ20" s="25">
         <v>19</v>
       </c>
-      <c r="AL20" s="26">
+      <c r="AK20" s="26">
         <v>7</v>
       </c>
-      <c r="AM20" s="28">
+      <c r="AL20" s="28">
         <v>5.41</v>
       </c>
-      <c r="AN20" s="29">
+      <c r="AM20" s="29">
         <v>1.36</v>
       </c>
-      <c r="AO20" s="10">
+      <c r="AN20" s="10">
         <f t="shared" si="5"/>
         <v>4.05</v>
       </c>
+      <c r="AO20" s="28">
+        <v>159.30000000000001</v>
+      </c>
       <c r="AP20" s="28">
-        <v>159.30000000000001</v>
-      </c>
-      <c r="AQ20" s="28">
         <v>2.66</v>
       </c>
     </row>
-    <row r="21" spans="1:43">
+    <row r="21" spans="1:42">
       <c r="A21" s="56">
         <v>20</v>
       </c>
@@ -9776,65 +10001,64 @@
       <c r="N21" s="44">
         <v>0.28999999999999998</v>
       </c>
-      <c r="O21" s="28"/>
-      <c r="P21" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z21" s="27">
+      <c r="O21" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y21" s="27">
         <v>2145</v>
       </c>
-      <c r="AA21" s="34">
+      <c r="Z21" s="34">
         <f t="shared" si="1"/>
         <v>6.4573426573426573E-2</v>
       </c>
-      <c r="AB21" s="28">
+      <c r="AA21" s="28">
         <v>138.51</v>
       </c>
-      <c r="AC21" s="11">
+      <c r="AB21" s="11">
         <f t="shared" si="2"/>
         <v>2.5649999999999999</v>
       </c>
-      <c r="AD21" s="28">
+      <c r="AC21" s="28">
         <v>54</v>
       </c>
-      <c r="AE21" s="27">
+      <c r="AD21" s="27">
         <v>18517</v>
       </c>
-      <c r="AF21" s="11">
+      <c r="AE21" s="11">
         <f t="shared" si="3"/>
         <v>2.9162391316087917E-3</v>
       </c>
-      <c r="AG21" s="11">
+      <c r="AF21" s="11">
         <f t="shared" si="4"/>
         <v>2.5174825174825177E-2</v>
       </c>
-      <c r="AH21" s="28">
+      <c r="AG21" s="28">
         <v>0.28999999999999998</v>
       </c>
-      <c r="AK21" s="25">
+      <c r="AJ21" s="25">
         <v>20</v>
       </c>
-      <c r="AL21" s="26">
+      <c r="AK21" s="26">
         <v>8</v>
       </c>
+      <c r="AL21" s="28">
+        <v>5.2</v>
+      </c>
       <c r="AM21" s="28">
-        <v>5.2</v>
-      </c>
-      <c r="AN21" s="28">
         <v>0.82</v>
       </c>
-      <c r="AO21" s="10">
+      <c r="AN21" s="10">
         <f t="shared" si="5"/>
         <v>4.38</v>
       </c>
+      <c r="AO21" s="28">
+        <v>138.51</v>
+      </c>
       <c r="AP21" s="28">
-        <v>138.51</v>
-      </c>
-      <c r="AQ21" s="28">
         <v>2.57</v>
       </c>
     </row>
-    <row r="22" spans="1:43">
+    <row r="22" spans="1:42">
       <c r="A22" s="57">
         <v>21</v>
       </c>
@@ -9877,65 +10101,64 @@
       <c r="N22" s="42">
         <v>0.28999999999999998</v>
       </c>
-      <c r="O22" s="28"/>
-      <c r="P22" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z22" s="27">
+      <c r="O22" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y22" s="27">
         <v>2132</v>
       </c>
-      <c r="AA22" s="34">
+      <c r="Z22" s="34">
         <f t="shared" si="1"/>
         <v>7.1027204502814259E-2</v>
       </c>
-      <c r="AB22" s="29">
+      <c r="AA22" s="29">
         <v>151.43</v>
       </c>
-      <c r="AC22" s="11">
+      <c r="AB22" s="11">
         <f t="shared" si="2"/>
         <v>2.7532727272727273</v>
       </c>
-      <c r="AD22" s="29">
+      <c r="AC22" s="29">
         <v>55</v>
       </c>
-      <c r="AE22" s="27">
+      <c r="AD22" s="27">
         <v>19095</v>
       </c>
-      <c r="AF22" s="11">
+      <c r="AE22" s="11">
         <f t="shared" si="3"/>
         <v>2.8803351662738939E-3</v>
       </c>
-      <c r="AG22" s="11">
+      <c r="AF22" s="11">
         <f t="shared" si="4"/>
         <v>2.5797373358348967E-2</v>
       </c>
-      <c r="AH22" s="28">
+      <c r="AG22" s="28">
         <v>0.28999999999999998</v>
       </c>
-      <c r="AK22" s="25">
+      <c r="AJ22" s="25">
         <v>21</v>
       </c>
-      <c r="AL22" s="26">
+      <c r="AK22" s="26">
         <v>9</v>
       </c>
+      <c r="AL22" s="29">
+        <v>5.43</v>
+      </c>
       <c r="AM22" s="29">
-        <v>5.43</v>
-      </c>
-      <c r="AN22" s="29">
         <v>1.19</v>
       </c>
-      <c r="AO22" s="10">
+      <c r="AN22" s="10">
         <f t="shared" si="5"/>
         <v>4.24</v>
       </c>
+      <c r="AO22" s="29">
+        <v>151.43</v>
+      </c>
       <c r="AP22" s="29">
-        <v>151.43</v>
-      </c>
-      <c r="AQ22" s="29">
         <v>2.75</v>
       </c>
     </row>
-    <row r="23" spans="1:43">
+    <row r="23" spans="1:42">
       <c r="A23" s="55">
         <v>22</v>
       </c>
@@ -9978,65 +10201,64 @@
       <c r="N23" s="43">
         <v>0.28000000000000003</v>
       </c>
-      <c r="O23" s="28"/>
-      <c r="P23" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z23" s="27">
+      <c r="O23" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y23" s="27">
         <v>2106</v>
       </c>
-      <c r="AA23" s="34">
+      <c r="Z23" s="34">
         <f t="shared" si="1"/>
         <v>7.2630579297245965E-2</v>
       </c>
-      <c r="AB23" s="29">
+      <c r="AA23" s="29">
         <v>152.96</v>
       </c>
-      <c r="AC23" s="11">
+      <c r="AB23" s="11">
         <f t="shared" si="2"/>
         <v>2.7810909090909091</v>
       </c>
-      <c r="AD23" s="29">
+      <c r="AC23" s="29">
         <v>55</v>
       </c>
-      <c r="AE23" s="30">
+      <c r="AD23" s="30">
         <v>19537</v>
       </c>
-      <c r="AF23" s="11">
+      <c r="AE23" s="11">
         <f t="shared" si="3"/>
         <v>2.8151712135947179E-3</v>
       </c>
-      <c r="AG23" s="11">
+      <c r="AF23" s="11">
         <f t="shared" si="4"/>
         <v>2.6115859449192782E-2</v>
       </c>
-      <c r="AH23" s="28">
+      <c r="AG23" s="28">
         <v>0.28000000000000003</v>
       </c>
-      <c r="AK23" s="25">
+      <c r="AJ23" s="25">
         <v>22</v>
       </c>
-      <c r="AL23" s="26">
+      <c r="AK23" s="26">
         <v>10</v>
       </c>
-      <c r="AM23" s="28">
+      <c r="AL23" s="28">
         <v>5.35</v>
       </c>
-      <c r="AN23" s="29">
+      <c r="AM23" s="29">
         <v>1.19</v>
       </c>
-      <c r="AO23" s="10">
+      <c r="AN23" s="10">
         <f t="shared" si="5"/>
         <v>4.16</v>
       </c>
+      <c r="AO23" s="29">
+        <v>152.96</v>
+      </c>
       <c r="AP23" s="29">
-        <v>152.96</v>
-      </c>
-      <c r="AQ23" s="29">
         <v>2.78</v>
       </c>
     </row>
-    <row r="24" spans="1:43">
+    <row r="24" spans="1:42">
       <c r="A24" s="56">
         <v>23</v>
       </c>
@@ -10079,65 +10301,64 @@
       <c r="N24" s="44">
         <v>0.22</v>
       </c>
-      <c r="O24" s="28"/>
-      <c r="P24" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z24" s="30">
+      <c r="O24" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y24" s="30">
         <v>2635</v>
       </c>
-      <c r="AA24" s="34">
+      <c r="Z24" s="34">
         <f t="shared" si="1"/>
         <v>6.9457305502846303E-2</v>
       </c>
-      <c r="AB24" s="29">
+      <c r="AA24" s="29">
         <v>183.02</v>
       </c>
-      <c r="AC24" s="11">
+      <c r="AB24" s="11">
         <f t="shared" si="2"/>
         <v>3.3892592592592594</v>
       </c>
-      <c r="AD24" s="28">
+      <c r="AC24" s="28">
         <v>54</v>
       </c>
-      <c r="AE24" s="30">
+      <c r="AD24" s="30">
         <v>24746</v>
       </c>
-      <c r="AF24" s="11">
+      <c r="AE24" s="11">
         <f t="shared" si="3"/>
         <v>2.1821708558959025E-3</v>
       </c>
-      <c r="AG24" s="11">
+      <c r="AF24" s="11">
         <f t="shared" si="4"/>
         <v>2.049335863377609E-2</v>
       </c>
-      <c r="AH24" s="28">
+      <c r="AG24" s="28">
         <v>0.22</v>
       </c>
-      <c r="AK24" s="25">
+      <c r="AJ24" s="25">
         <v>23</v>
       </c>
-      <c r="AL24" s="26">
+      <c r="AK24" s="26">
         <v>11</v>
       </c>
+      <c r="AL24" s="29">
+        <v>5.71</v>
+      </c>
       <c r="AM24" s="29">
-        <v>5.71</v>
-      </c>
-      <c r="AN24" s="29">
         <v>1.25</v>
       </c>
-      <c r="AO24" s="10">
+      <c r="AN24" s="10">
         <f t="shared" si="5"/>
         <v>4.46</v>
       </c>
+      <c r="AO24" s="29">
+        <v>183.02</v>
+      </c>
       <c r="AP24" s="29">
-        <v>183.02</v>
-      </c>
-      <c r="AQ24" s="29">
         <v>3.39</v>
       </c>
     </row>
-    <row r="25" spans="1:43">
+    <row r="25" spans="1:42">
       <c r="A25" s="57">
         <v>24</v>
       </c>
@@ -10180,65 +10401,64 @@
       <c r="N25" s="42">
         <v>0.12</v>
       </c>
-      <c r="O25" s="28"/>
-      <c r="P25" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z25" s="30">
+      <c r="O25" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y25" s="30">
         <v>3595</v>
       </c>
-      <c r="AA25" s="34">
+      <c r="Z25" s="34">
         <f t="shared" si="1"/>
         <v>7.2425591098748257E-2</v>
       </c>
-      <c r="AB25" s="29">
+      <c r="AA25" s="29">
         <v>260.37</v>
       </c>
-      <c r="AC25" s="11">
+      <c r="AB25" s="11">
         <f t="shared" si="2"/>
         <v>5.7860000000000005</v>
       </c>
-      <c r="AD25" s="28">
+      <c r="AC25" s="28">
         <v>45</v>
       </c>
-      <c r="AE25" s="30">
+      <c r="AD25" s="30">
         <v>36494</v>
       </c>
-      <c r="AF25" s="11">
+      <c r="AE25" s="11">
         <f t="shared" si="3"/>
         <v>1.2330794103140243E-3</v>
       </c>
-      <c r="AG25" s="11">
+      <c r="AF25" s="11">
         <f t="shared" si="4"/>
         <v>1.2517385257301807E-2</v>
       </c>
-      <c r="AH25" s="28">
+      <c r="AG25" s="28">
         <v>0.12</v>
       </c>
-      <c r="AK25" s="25">
+      <c r="AJ25" s="25">
         <v>24</v>
       </c>
-      <c r="AL25" s="26">
+      <c r="AK25" s="26">
         <v>12</v>
       </c>
+      <c r="AL25" s="28">
+        <v>5.04</v>
+      </c>
       <c r="AM25" s="28">
-        <v>5.04</v>
-      </c>
-      <c r="AN25" s="28">
         <v>1.05</v>
       </c>
-      <c r="AO25" s="10">
+      <c r="AN25" s="10">
         <f t="shared" si="5"/>
         <v>3.99</v>
       </c>
+      <c r="AO25" s="29">
+        <v>260.37</v>
+      </c>
       <c r="AP25" s="29">
-        <v>260.37</v>
-      </c>
-      <c r="AQ25" s="29">
         <v>5.79</v>
       </c>
     </row>
-    <row r="26" spans="1:43">
+    <row r="26" spans="1:42">
       <c r="A26" s="55">
         <v>25</v>
       </c>
@@ -10281,66 +10501,65 @@
       <c r="N26" s="24">
         <v>0.1</v>
       </c>
-      <c r="O26" s="28"/>
-      <c r="P26" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z26" s="22">
+      <c r="O26" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y26" s="22">
         <v>3881</v>
       </c>
-      <c r="AA26" s="34">
+      <c r="Z26" s="34">
         <f t="shared" si="1"/>
         <v>5.0538520999742334E-2</v>
       </c>
-      <c r="AB26" s="24">
+      <c r="AA26" s="24">
         <v>196.14</v>
       </c>
-      <c r="AC26" s="11">
+      <c r="AB26" s="11">
         <f t="shared" si="2"/>
         <v>5.0292307692307689</v>
       </c>
-      <c r="AD26" s="24">
+      <c r="AC26" s="24">
         <v>39</v>
       </c>
-      <c r="AE26" s="22">
+      <c r="AD26" s="22">
         <v>40174</v>
       </c>
-      <c r="AF26" s="11">
+      <c r="AE26" s="11">
         <f t="shared" si="3"/>
         <v>9.7077711953004432E-4</v>
       </c>
-      <c r="AG26" s="11">
+      <c r="AF26" s="11">
         <f t="shared" si="4"/>
         <v>1.0048956454522031E-2</v>
       </c>
-      <c r="AH26" s="24">
+      <c r="AG26" s="24">
         <v>0.1</v>
       </c>
-      <c r="AK26" s="20">
+      <c r="AJ26" s="20">
         <v>25</v>
       </c>
-      <c r="AL26" s="21">
+      <c r="AK26" s="21">
         <v>1</v>
       </c>
-      <c r="AM26" s="23">
+      <c r="AL26" s="23">
         <v>5.17</v>
       </c>
-      <c r="AN26" s="24">
+      <c r="AM26" s="24">
         <v>0.86</v>
       </c>
-      <c r="AO26" s="10">
+      <c r="AN26" s="10">
         <f t="shared" si="5"/>
         <v>4.3099999999999996</v>
       </c>
+      <c r="AO26" s="24">
+        <v>196.14</v>
+      </c>
       <c r="AP26" s="24">
-        <v>196.14</v>
-      </c>
-      <c r="AQ26" s="24">
         <v>5.03</v>
       </c>
     </row>
-    <row r="27" spans="1:43">
-      <c r="AO27" s="10"/>
+    <row r="27" spans="1:42">
+      <c r="AN27" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10352,4 +10571,492 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:N13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="7.33203125" customWidth="1"/>
+    <col min="3" max="3" width="8.1640625" customWidth="1"/>
+    <col min="4" max="12" width="7.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:14" ht="16" thickBot="1"/>
+    <row r="3" spans="1:14" ht="33" customHeight="1" thickBot="1">
+      <c r="B3" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="65" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="65" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="65" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="65" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="K3" s="66" t="s">
+        <v>53</v>
+      </c>
+      <c r="L3" s="67" t="s">
+        <v>56</v>
+      </c>
+      <c r="M3" s="74" t="s">
+        <v>58</v>
+      </c>
+      <c r="N3" s="74" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="69">
+        <v>3</v>
+      </c>
+      <c r="C4" s="25">
+        <v>1</v>
+      </c>
+      <c r="D4" s="25">
+        <v>1</v>
+      </c>
+      <c r="E4" s="25">
+        <v>0</v>
+      </c>
+      <c r="F4" s="25">
+        <v>0</v>
+      </c>
+      <c r="G4" s="25">
+        <v>0</v>
+      </c>
+      <c r="H4" s="25">
+        <v>0</v>
+      </c>
+      <c r="I4" s="25">
+        <v>0</v>
+      </c>
+      <c r="J4" s="25">
+        <v>0</v>
+      </c>
+      <c r="K4" s="62">
+        <v>0</v>
+      </c>
+      <c r="L4" s="68">
+        <f>SUM(C4:K4)</f>
+        <v>2</v>
+      </c>
+      <c r="M4" t="s">
+        <v>59</v>
+      </c>
+      <c r="N4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="69">
+        <v>5</v>
+      </c>
+      <c r="C5" s="25">
+        <v>1</v>
+      </c>
+      <c r="D5" s="25">
+        <v>0</v>
+      </c>
+      <c r="E5" s="25">
+        <v>1</v>
+      </c>
+      <c r="F5" s="25">
+        <v>0</v>
+      </c>
+      <c r="G5" s="25">
+        <v>1</v>
+      </c>
+      <c r="H5" s="25">
+        <v>1</v>
+      </c>
+      <c r="I5" s="25">
+        <v>1</v>
+      </c>
+      <c r="J5" s="25">
+        <v>1</v>
+      </c>
+      <c r="K5" s="62">
+        <v>0</v>
+      </c>
+      <c r="L5" s="69">
+        <f t="shared" ref="L5:L12" si="0">SUM(C5:K5)</f>
+        <v>6</v>
+      </c>
+      <c r="M5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="69">
+        <v>11</v>
+      </c>
+      <c r="C6" s="25">
+        <v>1</v>
+      </c>
+      <c r="D6" s="25">
+        <v>1</v>
+      </c>
+      <c r="E6" s="25">
+        <v>0</v>
+      </c>
+      <c r="F6" s="25">
+        <v>0</v>
+      </c>
+      <c r="G6" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="25">
+        <v>0</v>
+      </c>
+      <c r="I6" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="J6" s="25">
+        <v>0</v>
+      </c>
+      <c r="K6" s="62">
+        <v>0</v>
+      </c>
+      <c r="L6" s="69">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="M6" t="s">
+        <v>61</v>
+      </c>
+      <c r="N6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="69">
+        <v>17</v>
+      </c>
+      <c r="C7" s="25">
+        <v>1</v>
+      </c>
+      <c r="D7" s="25">
+        <v>1</v>
+      </c>
+      <c r="E7" s="25">
+        <v>1</v>
+      </c>
+      <c r="F7" s="25">
+        <v>0</v>
+      </c>
+      <c r="G7" s="25">
+        <v>0</v>
+      </c>
+      <c r="H7" s="25">
+        <v>0</v>
+      </c>
+      <c r="I7" s="25">
+        <v>0</v>
+      </c>
+      <c r="J7" s="25">
+        <v>1</v>
+      </c>
+      <c r="K7" s="62">
+        <v>1</v>
+      </c>
+      <c r="L7" s="69">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="M7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="69">
+        <v>18</v>
+      </c>
+      <c r="C8" s="25">
+        <v>1</v>
+      </c>
+      <c r="D8" s="25">
+        <v>1</v>
+      </c>
+      <c r="E8" s="25">
+        <v>1</v>
+      </c>
+      <c r="F8" s="25">
+        <v>1</v>
+      </c>
+      <c r="G8" s="25">
+        <v>0</v>
+      </c>
+      <c r="H8" s="25">
+        <v>1</v>
+      </c>
+      <c r="I8" s="25">
+        <v>1</v>
+      </c>
+      <c r="J8" s="25">
+        <v>1</v>
+      </c>
+      <c r="K8" s="62">
+        <v>1</v>
+      </c>
+      <c r="L8" s="69">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="M8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="69">
+        <v>21</v>
+      </c>
+      <c r="C9" s="25">
+        <v>1</v>
+      </c>
+      <c r="D9" s="25">
+        <v>1</v>
+      </c>
+      <c r="E9" s="25">
+        <v>0</v>
+      </c>
+      <c r="F9" s="25">
+        <v>1</v>
+      </c>
+      <c r="G9" s="25">
+        <v>1</v>
+      </c>
+      <c r="H9" s="25">
+        <v>0</v>
+      </c>
+      <c r="I9" s="25">
+        <v>0</v>
+      </c>
+      <c r="J9" s="25">
+        <v>1</v>
+      </c>
+      <c r="K9" s="62">
+        <v>0</v>
+      </c>
+      <c r="L9" s="69">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="69">
+        <v>22</v>
+      </c>
+      <c r="C10" s="25">
+        <v>1</v>
+      </c>
+      <c r="D10" s="25">
+        <v>1</v>
+      </c>
+      <c r="E10" s="25">
+        <v>0</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="25">
+        <v>1</v>
+      </c>
+      <c r="H10" s="25">
+        <v>0</v>
+      </c>
+      <c r="I10" s="25">
+        <v>1</v>
+      </c>
+      <c r="J10" s="25">
+        <v>1</v>
+      </c>
+      <c r="K10" s="62">
+        <v>1</v>
+      </c>
+      <c r="L10" s="69">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="M10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="69">
+        <v>23</v>
+      </c>
+      <c r="C11" s="25">
+        <v>1</v>
+      </c>
+      <c r="D11" s="25">
+        <v>1</v>
+      </c>
+      <c r="E11" s="25">
+        <v>1</v>
+      </c>
+      <c r="F11" s="25">
+        <v>1</v>
+      </c>
+      <c r="G11" s="25">
+        <v>1</v>
+      </c>
+      <c r="H11" s="25">
+        <v>0</v>
+      </c>
+      <c r="I11" s="25">
+        <v>0</v>
+      </c>
+      <c r="J11" s="25">
+        <v>0</v>
+      </c>
+      <c r="K11" s="62">
+        <v>1</v>
+      </c>
+      <c r="L11" s="69">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="16" thickBot="1">
+      <c r="A12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="70">
+        <v>24</v>
+      </c>
+      <c r="C12" s="63">
+        <v>1</v>
+      </c>
+      <c r="D12" s="63">
+        <v>1</v>
+      </c>
+      <c r="E12" s="63">
+        <v>1</v>
+      </c>
+      <c r="F12" s="63">
+        <v>0</v>
+      </c>
+      <c r="G12" s="63">
+        <v>0</v>
+      </c>
+      <c r="H12" s="63">
+        <v>1</v>
+      </c>
+      <c r="I12" s="63">
+        <v>0</v>
+      </c>
+      <c r="J12" s="63">
+        <v>0</v>
+      </c>
+      <c r="K12" s="64">
+        <v>1</v>
+      </c>
+      <c r="L12" s="70">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="16" thickBot="1">
+      <c r="B13" s="70" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="71">
+        <f>SUM(C4:C12)</f>
+        <v>9</v>
+      </c>
+      <c r="D13" s="72">
+        <f t="shared" ref="D13:K13" si="1">SUM(D4:D12)</f>
+        <v>8</v>
+      </c>
+      <c r="E13" s="72">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F13" s="72">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G13" s="72">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+      <c r="H13" s="72">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="I13" s="72">
+        <f t="shared" si="1"/>
+        <v>3.5</v>
+      </c>
+      <c r="J13" s="72">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="K13" s="73">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="L13" s="64"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>